--- a/Visualization_Examples/Microsoft_marzo_2025.xlsx
+++ b/Visualization_Examples/Microsoft_marzo_2025.xlsx
@@ -3,20 +3,19 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28706"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C0A6D89B-5245-4C55-A21C-6AC7572B0375}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B32FEC46-BF8A-4069-A09C-5CAD03B7FF20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-90" windowWidth="29040" windowHeight="16440" firstSheet="5" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-90" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Instrucciones" sheetId="13" r:id="rId1"/>
-    <sheet name="1.IS" sheetId="1" r:id="rId2"/>
-    <sheet name="2.FCF" sheetId="2" r:id="rId3"/>
-    <sheet name="3.ROIC" sheetId="3" r:id="rId4"/>
-    <sheet name="4.Valoración" sheetId="5" r:id="rId5"/>
-    <sheet name="6.TIKR_IS" sheetId="8" r:id="rId6"/>
-    <sheet name="7.TIKR_BS" sheetId="10" r:id="rId7"/>
-    <sheet name="8.TIKR_CF" sheetId="11" r:id="rId8"/>
-    <sheet name="TIKR_Cálculos" sheetId="12" state="hidden" r:id="rId9"/>
+    <sheet name="1.IS" sheetId="1" r:id="rId1"/>
+    <sheet name="2.FCF" sheetId="2" r:id="rId2"/>
+    <sheet name="3.ROIC" sheetId="3" r:id="rId3"/>
+    <sheet name="4.Valoración" sheetId="5" r:id="rId4"/>
+    <sheet name="6.TIKR_IS" sheetId="8" r:id="rId5"/>
+    <sheet name="7.TIKR_BS" sheetId="10" r:id="rId6"/>
+    <sheet name="8.TIKR_CF" sheetId="11" r:id="rId7"/>
+    <sheet name="TIKR_Cálculos" sheetId="12" state="hidden" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -1111,368 +1110,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="391">
-  <si>
-    <t>Instrucciones</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">- Modifica solo las celdas con fondo </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="3"/>
-        <rFont val="Ebrima"/>
-      </rPr>
-      <t>AZUL FLOJO</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="3"/>
-        <rFont val="Ebrima"/>
-      </rPr>
-      <t xml:space="preserve">. Los datos "clave" para la valoración están marcados con números en </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="9" tint="-0.249977111117893"/>
-        <rFont val="Ebrima"/>
-      </rPr>
-      <t>NARANJA</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="3"/>
-        <rFont val="Ebrima"/>
-      </rPr>
-      <t xml:space="preserve"> (Hojas 1, 3 y 4)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">- Introducimos todas las partidas con el </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="3"/>
-        <rFont val="Ebrima"/>
-      </rPr>
-      <t>MISMO SIGNO QUE EN TIKR</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="3"/>
-        <rFont val="Ebrima"/>
-      </rPr>
-      <t xml:space="preserve"> (Gastos y salidas de caja = números </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Ebrima"/>
-      </rPr>
-      <t>negativos</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="3"/>
-        <rFont val="Ebrima"/>
-      </rPr>
-      <t>; Ingresos y entradas de caja = números positivos)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">- Opcional: Para que la plantilla obtenga los datos desde </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="3"/>
-        <rFont val="Ebrima"/>
-      </rPr>
-      <t>TIKR</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="3"/>
-        <rFont val="Ebrima"/>
-      </rPr>
-      <t xml:space="preserve"> debes darle a "Copy Table" de cada estado financiero en TIKR y pegarlos en la celda A1 de las </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="3"/>
-        <rFont val="Ebrima"/>
-      </rPr>
-      <t>hojas 6 (IS), 7 (BS) y 8 (CF)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">- </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="3"/>
-        <rFont val="Ebrima"/>
-      </rPr>
-      <t>OJO</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="3"/>
-        <rFont val="Ebrima"/>
-      </rPr>
-      <t xml:space="preserve">: Solo es válido para </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="3"/>
-        <rFont val="Ebrima"/>
-      </rPr>
-      <t>TIKR en INGLÉS</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="3"/>
-        <rFont val="Ebrima"/>
-      </rPr>
-      <t>, y es recomendable pegar los datos con "formato de destino"</t>
-    </r>
-  </si>
-  <si>
-    <t>- Si no captura bien los datos, revisa que el separador decimal y de miles de tu aplicación de hoja de cálculo coincida con TIKR. También puedes probar a  ocultar los decimales en TIKR ("Decimals to display": 0) y pegar de nuevo los datos</t>
-  </si>
-  <si>
-    <t>Novedades plantilla 2022 v2</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">- Cambio </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="12"/>
-        <color theme="3"/>
-        <rFont val="Ebrima"/>
-      </rPr>
-      <t>MUY IMPORTANTE</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color theme="3"/>
-        <rFont val="Ebrima"/>
-      </rPr>
-      <t xml:space="preserve"> en los </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="12"/>
-        <color theme="3"/>
-        <rFont val="Ebrima"/>
-      </rPr>
-      <t>signos</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="3"/>
-        <rFont val="Ebrima"/>
-      </rPr>
-      <t xml:space="preserve"> de la plantilla para hacerlos coincidir con el formato de </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="3"/>
-        <rFont val="Ebrima"/>
-      </rPr>
-      <t>TIKR</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="3"/>
-        <rFont val="Ebrima"/>
-      </rPr>
-      <t xml:space="preserve">. Número </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Ebrima"/>
-      </rPr>
-      <t>negativo = SALIDA DE CAJA</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="3"/>
-        <rFont val="Ebrima"/>
-      </rPr>
-      <t>. Número positivo = ENTRADA DE CAJA</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">- Opcional: La plantilla puede obtener los datos directamente desde los estados financieros de </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="3"/>
-        <rFont val="Ebrima"/>
-      </rPr>
-      <t>TIKR</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="3"/>
-        <rFont val="Ebrima"/>
-      </rPr>
-      <t xml:space="preserve"> tras pegarlos en las hojas correspondientes</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">- Mejoras en las estimaciones: </t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">- Hoja </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="3"/>
-        <rFont val="Ebrima"/>
-      </rPr>
-      <t>1.IS</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="3"/>
-        <rFont val="Ebrima"/>
-      </rPr>
-      <t>: Los gastos en intereses ahora se proyectan a futuro usando como referencia el tipo medio de interés histórico</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">- Hoja </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="3"/>
-        <rFont val="Ebrima"/>
-      </rPr>
-      <t>2.FCF</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="3"/>
-        <rFont val="Ebrima"/>
-      </rPr>
-      <t>: hemos cambiado los campos de "Usos del FCF" por "Cambio neto en la posición de caja" (Net change in cash), que podemos obtener directamente desde los Cash Flows. Esto evita errores y simplifica el uso de la plantilla</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">- Hoja </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="3"/>
-        <rFont val="Ebrima"/>
-      </rPr>
-      <t>3.ROIC</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="3"/>
-        <rFont val="Ebrima"/>
-      </rPr>
-      <t>: mejora en la proyección de la deuda, y se ha añadido una estimación de la "</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="3"/>
-        <rFont val="Ebrima"/>
-      </rPr>
-      <t>Tasa de reinversión</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="3"/>
-        <rFont val="Ebrima"/>
-      </rPr>
-      <t>" histórica</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">- Hoja </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="3"/>
-        <rFont val="Ebrima"/>
-      </rPr>
-      <t>4.Valoración</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="3"/>
-        <rFont val="Ebrima"/>
-      </rPr>
-      <t>: el ratio Deuda Neta/EBITDA a futuro ahora se basa en la media histórica. Es importante cambiarlo si crees que la compañía reducirá su deuda, o aumentarlo si realizará inversiones significativas</t>
-    </r>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="377">
   <si>
     <t>Income Statement</t>
   </si>
@@ -2697,15 +2335,15 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="8">
     <numFmt numFmtId="164" formatCode="0.0"/>
-    <numFmt numFmtId="166" formatCode="#,##0.0"/>
-    <numFmt numFmtId="167" formatCode="#,##0;[Red]\(#,##0\)"/>
-    <numFmt numFmtId="168" formatCode="#,##0.00;[Red]\(#,##0.00\)"/>
-    <numFmt numFmtId="169" formatCode="0.0%"/>
-    <numFmt numFmtId="170" formatCode="#,##0.0;\(#,##0.0\)"/>
-    <numFmt numFmtId="171" formatCode="#,##0;\(#,##0\)"/>
-    <numFmt numFmtId="172" formatCode="0.00_);\(0.00\)"/>
+    <numFmt numFmtId="165" formatCode="#,##0.0"/>
+    <numFmt numFmtId="166" formatCode="#,##0;[Red]\(#,##0\)"/>
+    <numFmt numFmtId="167" formatCode="#,##0.00;[Red]\(#,##0.00\)"/>
+    <numFmt numFmtId="168" formatCode="0.0%"/>
+    <numFmt numFmtId="169" formatCode="#,##0.0;\(#,##0.0\)"/>
+    <numFmt numFmtId="170" formatCode="#,##0;\(#,##0\)"/>
+    <numFmt numFmtId="171" formatCode="0.00_);\(0.00\)"/>
   </numFmts>
-  <fonts count="28">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2811,18 +2449,6 @@
     </font>
     <font>
       <b/>
-      <sz val="14"/>
-      <color theme="3"/>
-      <name val="Ebrima"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <color theme="9" tint="-0.249977111117893"/>
-      <name val="Ebrima"/>
-    </font>
-    <font>
-      <b/>
       <i/>
       <sz val="12"/>
       <color theme="3"/>
@@ -2852,30 +2478,6 @@
     <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
-      <name val="Ebrima"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="16"/>
-      <color theme="0"/>
-      <name val="Ebrima"/>
-    </font>
-    <font>
-      <b/>
-      <u/>
-      <sz val="12"/>
-      <color theme="3"/>
-      <name val="Ebrima"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="12"/>
-      <color theme="3"/>
-      <name val="Ebrima"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color theme="3"/>
       <name val="Ebrima"/>
     </font>
   </fonts>
@@ -2935,20 +2537,11 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="39">
+  <borders count="38">
     <border>
       <left/>
       <right/>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -3392,7 +2985,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="271">
+  <cellXfs count="267">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -3419,7 +3012,7 @@
     <xf numFmtId="3" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="10" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="10" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="10" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3471,7 +3064,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3504,7 +3097,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3516,46 +3109,46 @@
     <xf numFmtId="9" fontId="14" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="14" fillId="7" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="14" fillId="7" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="9" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -3573,7 +3166,7 @@
     <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="10" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="10" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3585,16 +3178,16 @@
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="14" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="14" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
@@ -3609,68 +3202,68 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="9" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="167" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="10" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="10" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="10" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="10" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="167" fontId="10" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="10" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="10" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="10" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="10" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="10" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="167" fontId="10" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="10" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3682,12 +3275,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="3"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
@@ -3703,163 +3290,163 @@
     <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="3"/>
     </xf>
-    <xf numFmtId="3" fontId="9" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="9" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="9" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="9" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="10" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="10" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="9" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="9" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="10" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="10" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="10" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="9" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="10" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="10" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="10" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="9" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="10" fillId="2" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="10" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="10" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="10" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="4"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="3" fontId="9" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="10" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="9" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="2" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="167" fontId="9" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="10" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="10" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="10" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="10" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="10" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="10" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="10" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="10" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="10" fillId="2" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="10" fillId="2" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="10" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="10" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="4"/>
-    </xf>
-    <xf numFmtId="167" fontId="10" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="9" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="3"/>
-    </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="9" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="10" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="10" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="9" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="2" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="10" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="10" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="10" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="10" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -3870,67 +3457,67 @@
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="10" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="9" fillId="2" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="9" fillId="2" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="9" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="9" fillId="2" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="4" fontId="9" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="9" fillId="2" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="9" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="10" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="10" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="9" fontId="16" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="16" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
@@ -3941,30 +3528,30 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="9" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="167" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3987,7 +3574,7 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3996,34 +3583,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="9" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="9" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="9" fillId="2" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="9" fillId="2" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="3"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4032,73 +3619,67 @@
     <xf numFmtId="4" fontId="16" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="19" fillId="8" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="17" fillId="8" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="16" fillId="8" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="16" fillId="8" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="19" fillId="8" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="17" fillId="8" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="3"/>
-    </xf>
-    <xf numFmtId="4" fontId="13" fillId="6" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="13" fillId="6" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="13" fillId="6" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="13" fillId="6" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="13" fillId="3" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="13" fillId="3" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="171" fontId="13" fillId="6" borderId="34" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="13" fillId="6" borderId="33" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="171" fontId="13" fillId="6" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="13" fillId="6" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="171" fontId="13" fillId="6" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="13" fillId="6" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="20" fillId="6" borderId="32" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="18" fillId="6" borderId="31" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="20" fillId="6" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="18" fillId="6" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="20" fillId="6" borderId="33" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="18" fillId="6" borderId="32" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="13" fillId="9" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="13" fillId="9" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="13" fillId="9" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="13" fillId="9" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="13" fillId="9" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="13" fillId="9" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="14" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1">
+    <xf numFmtId="14" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="39" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4110,31 +3691,31 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="39" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="39" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="39" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="39" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="39" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="39" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="39" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="39" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="39" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="39" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="10" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="10" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -4143,11 +3724,11 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="14" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="14" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="14" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -4163,13 +3744,13 @@
       <alignment horizontal="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4773,133 +4354,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B11C7CDC-1735-4D2B-9DFA-DC9FA9A30865}">
-  <dimension ref="A1:O26"/>
-  <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1"/>
-  <cols>
-    <col min="1" max="1" width="4.28515625" customWidth="1"/>
-    <col min="2" max="2" width="246.42578125" customWidth="1"/>
-    <col min="3" max="3" width="13.42578125" customWidth="1"/>
-    <col min="4" max="15" width="0" hidden="1" customWidth="1"/>
-    <col min="16" max="16384" width="11.42578125" hidden="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:2" ht="87" customHeight="1"/>
-    <row r="2" spans="2:2" ht="25.5">
-      <c r="B2" s="226" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="2:2" ht="9.9499999999999993" customHeight="1">
-      <c r="B3" s="22"/>
-    </row>
-    <row r="4" spans="2:2" ht="20.25">
-      <c r="B4" s="102" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="2:2" ht="9.9499999999999993" customHeight="1">
-      <c r="B5" s="102"/>
-    </row>
-    <row r="6" spans="2:2" ht="17.25">
-      <c r="B6" s="102" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="2:2" ht="9.9499999999999993" customHeight="1">
-      <c r="B7" s="102"/>
-    </row>
-    <row r="8" spans="2:2" ht="20.25">
-      <c r="B8" s="102" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="2:2" ht="9.9499999999999993" customHeight="1">
-      <c r="B9" s="102"/>
-    </row>
-    <row r="10" spans="2:2" ht="17.25">
-      <c r="B10" s="103" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="2:2" ht="9.9499999999999993" customHeight="1">
-      <c r="B11" s="103"/>
-    </row>
-    <row r="12" spans="2:2" ht="17.25">
-      <c r="B12" s="103" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="2:2" ht="17.25">
-      <c r="B13" s="37"/>
-    </row>
-    <row r="14" spans="2:2" ht="25.5">
-      <c r="B14" s="226" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="2:2" ht="9.9499999999999993" customHeight="1">
-      <c r="B15" s="37"/>
-    </row>
-    <row r="16" spans="2:2" ht="17.25">
-      <c r="B16" s="37" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2" ht="9.9499999999999993" customHeight="1">
-      <c r="B17" s="37"/>
-    </row>
-    <row r="18" spans="2:2" ht="20.25">
-      <c r="B18" s="37" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19" spans="2:2" ht="9.9499999999999993" customHeight="1">
-      <c r="B19" s="37"/>
-    </row>
-    <row r="20" spans="2:2" ht="17.25">
-      <c r="B20" s="37" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21" spans="2:2" ht="9.9499999999999993" customHeight="1">
-      <c r="B21" s="37"/>
-    </row>
-    <row r="22" spans="2:2" s="228" customFormat="1" ht="24.95" customHeight="1">
-      <c r="B22" s="103" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23" spans="2:2" s="228" customFormat="1" ht="24.95" customHeight="1">
-      <c r="B23" s="103" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="24" spans="2:2" s="228" customFormat="1" ht="24.95" customHeight="1">
-      <c r="B24" s="103" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="25" spans="2:2" s="228" customFormat="1" ht="24.95" customHeight="1">
-      <c r="B25" s="103" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="26" spans="2:2"/>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T56"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
@@ -4921,7 +4379,7 @@
     <row r="1" spans="1:20" s="2" customFormat="1" ht="99.95" customHeight="1" thickBot="1">
       <c r="A1" s="26"/>
       <c r="B1" s="38" t="s">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="C1" s="27"/>
       <c r="D1" s="27"/>
@@ -4942,8 +4400,8 @@
       <c r="S1" s="1"/>
     </row>
     <row r="2" spans="1:20" ht="44.1" customHeight="1" thickTop="1">
-      <c r="A2" s="110" t="s">
-        <v>15</v>
+      <c r="A2" s="108" t="s">
+        <v>1</v>
       </c>
       <c r="B2" s="40">
         <f>IFERROR(YEAR(VLOOKUP("*Income Statement | TIKR.com*",'6.TIKR_IS'!$A:$H,COLUMN(B3),FALSE)),"2015")</f>
@@ -4994,14 +4452,14 @@
         <v>2029e</v>
       </c>
       <c r="O2" s="56" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="P2" s="52" t="str">
         <f>"Promedio "&amp;CHAR(10)&amp;B2&amp;" - "&amp;H2</f>
         <v>Promedio 
 2018 - 2024</v>
       </c>
-      <c r="Q2" s="230" t="str">
+      <c r="Q2" s="226" t="str">
         <f>"Estimaciones "&amp;CHAR(10)&amp;I2&amp;" - "&amp;M2</f>
         <v>Estimaciones 
 2025e - 2029e</v>
@@ -5011,34 +4469,34 @@
       <c r="T2" s="33"/>
     </row>
     <row r="3" spans="1:20" ht="24.95" customHeight="1">
-      <c r="A3" s="120" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" s="112">
+      <c r="A3" s="118" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="110">
         <f>IFERROR(VALUE(VLOOKUP("Revenue*",'6.TIKR_IS'!$A:$H,COLUMN(B3),FALSE)),"0")</f>
         <v>110360</v>
       </c>
-      <c r="C3" s="112">
+      <c r="C3" s="110">
         <f>IFERROR(VALUE(VLOOKUP("Revenue*",'6.TIKR_IS'!$A:$H,COLUMN(C3),FALSE)),"0")</f>
         <v>125843</v>
       </c>
-      <c r="D3" s="112">
+      <c r="D3" s="110">
         <f>IFERROR(VALUE(VLOOKUP("Revenue*",'6.TIKR_IS'!$A:$H,COLUMN(D3),FALSE)),"0")</f>
         <v>143015</v>
       </c>
-      <c r="E3" s="112">
+      <c r="E3" s="110">
         <f>IFERROR(VALUE(VLOOKUP("Revenue*",'6.TIKR_IS'!$A:$H,COLUMN(E3),FALSE)),"0")</f>
         <v>168088</v>
       </c>
-      <c r="F3" s="112">
+      <c r="F3" s="110">
         <f>IFERROR(VALUE(VLOOKUP("Revenue*",'6.TIKR_IS'!$A:$H,COLUMN(F3),FALSE)),"0")</f>
         <v>198270</v>
       </c>
-      <c r="G3" s="112">
+      <c r="G3" s="110">
         <f>IFERROR(VALUE(VLOOKUP("Revenue*",'6.TIKR_IS'!$A:$H,COLUMN(G3),FALSE)),"0")</f>
         <v>211915</v>
       </c>
-      <c r="H3" s="112">
+      <c r="H3" s="110">
         <f>IFERROR(VALUE(VLOOKUP("Revenue*",'6.TIKR_IS'!$A:$H,COLUMN(H3),FALSE)),"0")</f>
         <v>245122</v>
       </c>
@@ -5058,19 +4516,19 @@
         <f>IFERROR((K3*$Q$3)+K3,"")</f>
         <v>418168.81744316267</v>
       </c>
-      <c r="M3" s="121">
+      <c r="M3" s="119">
         <f>IFERROR((L3*$Q$3)+L3,"")</f>
         <v>477907.65055195091</v>
       </c>
       <c r="N3" s="6"/>
       <c r="O3" s="53" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="P3" s="41">
         <f>IFERROR(AVERAGE(C4:H4),"")</f>
         <v>0.14285817262524103</v>
       </c>
-      <c r="Q3" s="231">
+      <c r="Q3" s="227">
         <f>P3</f>
         <v>0.14285817262524103</v>
       </c>
@@ -5079,10 +4537,10 @@
       <c r="T3" s="33"/>
     </row>
     <row r="4" spans="1:20" ht="24.95" customHeight="1">
-      <c r="A4" s="104" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" s="113"/>
+      <c r="A4" s="102" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="111"/>
       <c r="C4" s="11">
         <f t="shared" ref="C4:H4" si="0">IFERROR((C3-B3)/B3,"")</f>
         <v>0.14029539688292861</v>
@@ -5123,19 +4581,19 @@
         <f>$Q$3</f>
         <v>0.14285817262524103</v>
       </c>
-      <c r="M4" s="122">
+      <c r="M4" s="120">
         <f>$Q$3</f>
         <v>0.14285817262524103</v>
       </c>
       <c r="N4" s="6"/>
       <c r="O4" s="54" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="P4" s="42">
         <f>IFERROR(AVERAGE(B9:H9),"")</f>
         <v>0.39000234773934228</v>
       </c>
-      <c r="Q4" s="231">
+      <c r="Q4" s="227">
         <f>P4</f>
         <v>0.39000234773934228</v>
       </c>
@@ -5144,10 +4602,10 @@
       <c r="T4" s="33"/>
     </row>
     <row r="5" spans="1:20" ht="24.95" customHeight="1">
-      <c r="A5" s="123" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" s="114">
+      <c r="A5" s="121" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="112">
         <f t="shared" ref="B5:H5" si="1">B8-B7</f>
         <v>45319</v>
       </c>
@@ -5191,19 +4649,19 @@
         <f t="shared" si="2"/>
         <v>201107.5956554155</v>
       </c>
-      <c r="M5" s="124">
+      <c r="M5" s="122">
         <f t="shared" si="2"/>
         <v>229837.45927180402</v>
       </c>
       <c r="N5" s="6"/>
       <c r="O5" s="53" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="P5" s="41">
         <f>IFERROR(AVERAGE(B15:H15),"")</f>
         <v>0.21775827230019559</v>
       </c>
-      <c r="Q5" s="231">
+      <c r="Q5" s="227">
         <f>H15</f>
         <v>0.18741654904055241</v>
       </c>
@@ -5212,10 +4670,10 @@
       <c r="T5" s="33"/>
     </row>
     <row r="6" spans="1:20" ht="24.95" customHeight="1" thickBot="1">
-      <c r="A6" s="104" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" s="113">
+      <c r="A6" s="102" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="111">
         <f t="shared" ref="B6:H6" si="3">IFERROR((B5/B3),"")</f>
         <v>0.41064697354113811</v>
       </c>
@@ -5259,19 +4717,19 @@
         <f>IFERROR(L5/L3,"")</f>
         <v>0.48092441919763651</v>
       </c>
-      <c r="M6" s="122">
+      <c r="M6" s="120">
         <f>IFERROR(M5/M3,"")</f>
         <v>0.48092441919763651</v>
       </c>
       <c r="N6" s="6"/>
       <c r="O6" s="55" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="P6" s="43">
         <f>IFERROR(AVERAGE(C23:H23),"")</f>
         <v>-7.0681763706659127E-3</v>
       </c>
-      <c r="Q6" s="232">
+      <c r="Q6" s="228">
         <f>P6</f>
         <v>-7.0681763706659127E-3</v>
       </c>
@@ -5280,34 +4738,34 @@
       <c r="T6" s="33"/>
     </row>
     <row r="7" spans="1:20" ht="24.95" customHeight="1" thickTop="1">
-      <c r="A7" s="125" t="s">
-        <v>25</v>
-      </c>
-      <c r="B7" s="115">
+      <c r="A7" s="123" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="113">
         <f>IFERROR(-VALUE(VLOOKUP("Depreciation And Amortization*",'8.TIKR_CF'!$A:$H,COLUMN(B7),FALSE))-IFERROR(VALUE(VLOOKUP("Amortization of Goodwill and Intangible Assets*",'8.TIKR_CF'!$A:$H,COLUMN(B7),FALSE)),"0"),"0")</f>
         <v>-10261</v>
       </c>
-      <c r="C7" s="115">
+      <c r="C7" s="113">
         <f>IFERROR(-VALUE(VLOOKUP("Depreciation And Amortization*",'8.TIKR_CF'!$A:$H,COLUMN(C7),FALSE))-IFERROR(VALUE(VLOOKUP("Amortization of Goodwill and Intangible Assets*",'8.TIKR_CF'!$A:$H,COLUMN(C7),FALSE)),"0"),"0")</f>
         <v>-11682</v>
       </c>
-      <c r="D7" s="115">
+      <c r="D7" s="113">
         <f>IFERROR(-VALUE(VLOOKUP("Depreciation And Amortization*",'8.TIKR_CF'!$A:$H,COLUMN(D7),FALSE))-IFERROR(VALUE(VLOOKUP("Amortization of Goodwill and Intangible Assets*",'8.TIKR_CF'!$A:$H,COLUMN(D7),FALSE)),"0"),"0")</f>
         <v>-12796</v>
       </c>
-      <c r="E7" s="115">
+      <c r="E7" s="113">
         <f>IFERROR(-VALUE(VLOOKUP("Depreciation And Amortization*",'8.TIKR_CF'!$A:$H,COLUMN(E7),FALSE))-IFERROR(VALUE(VLOOKUP("Amortization of Goodwill and Intangible Assets*",'8.TIKR_CF'!$A:$H,COLUMN(E7),FALSE)),"0"),"0")</f>
         <v>-11686</v>
       </c>
-      <c r="F7" s="115">
+      <c r="F7" s="113">
         <f>IFERROR(-VALUE(VLOOKUP("Depreciation And Amortization*",'8.TIKR_CF'!$A:$H,COLUMN(F7),FALSE))-IFERROR(VALUE(VLOOKUP("Amortization of Goodwill and Intangible Assets*",'8.TIKR_CF'!$A:$H,COLUMN(F7),FALSE)),"0"),"0")</f>
         <v>-14460</v>
       </c>
-      <c r="G7" s="115">
+      <c r="G7" s="113">
         <f>IFERROR(-VALUE(VLOOKUP("Depreciation And Amortization*",'8.TIKR_CF'!$A:$H,COLUMN(G7),FALSE))-IFERROR(VALUE(VLOOKUP("Amortization of Goodwill and Intangible Assets*",'8.TIKR_CF'!$A:$H,COLUMN(G7),FALSE)),"0"),"0")</f>
         <v>-13861</v>
       </c>
-      <c r="H7" s="115">
+      <c r="H7" s="113">
         <f>IFERROR(-VALUE(VLOOKUP("Depreciation And Amortization*",'8.TIKR_CF'!$A:$H,COLUMN(H7),FALSE))-IFERROR(VALUE(VLOOKUP("Amortization of Goodwill and Intangible Assets*",'8.TIKR_CF'!$A:$H,COLUMN(H7),FALSE)),"0"),"0")</f>
         <v>-22287</v>
       </c>
@@ -5327,7 +4785,7 @@
         <f>IFERROR((K7*$Q$3)+K7,"")</f>
         <v>-38020.775101197636</v>
       </c>
-      <c r="M7" s="126">
+      <c r="M7" s="124">
         <f>IFERROR((L7*$Q$3)+L7,"")</f>
         <v>-43452.353553949994</v>
       </c>
@@ -5340,34 +4798,34 @@
       <c r="T7" s="33"/>
     </row>
     <row r="8" spans="1:20" ht="24.95" customHeight="1">
-      <c r="A8" s="120" t="s">
-        <v>26</v>
-      </c>
-      <c r="B8" s="116">
+      <c r="A8" s="118" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="114">
         <f>IFERROR(VALUE(VLOOKUP("Operating Income*",'6.TIKR_IS'!$A:$H,COLUMN(B2),FALSE)),"0")</f>
         <v>35058</v>
       </c>
-      <c r="C8" s="116">
+      <c r="C8" s="114">
         <f>IFERROR(VALUE(VLOOKUP("Operating Income*",'6.TIKR_IS'!$A:$H,COLUMN(C2),FALSE)),"0")</f>
         <v>42959</v>
       </c>
-      <c r="D8" s="116">
+      <c r="D8" s="114">
         <f>IFERROR(VALUE(VLOOKUP("Operating Income*",'6.TIKR_IS'!$A:$H,COLUMN(D2),FALSE)),"0")</f>
         <v>52959</v>
       </c>
-      <c r="E8" s="116">
+      <c r="E8" s="114">
         <f>IFERROR(VALUE(VLOOKUP("Operating Income*",'6.TIKR_IS'!$A:$H,COLUMN(E2),FALSE)),"0")</f>
         <v>69916</v>
       </c>
-      <c r="F8" s="116">
+      <c r="F8" s="114">
         <f>IFERROR(VALUE(VLOOKUP("Operating Income*",'6.TIKR_IS'!$A:$H,COLUMN(F2),FALSE)),"0")</f>
         <v>83383</v>
       </c>
-      <c r="G8" s="116">
+      <c r="G8" s="114">
         <f>IFERROR(VALUE(VLOOKUP("Operating Income*",'6.TIKR_IS'!$A:$H,COLUMN(G2),FALSE)),"0")</f>
         <v>88523</v>
       </c>
-      <c r="H8" s="116">
+      <c r="H8" s="114">
         <f>IFERROR(VALUE(VLOOKUP("Operating Income*",'6.TIKR_IS'!$A:$H,COLUMN(H2),FALSE)),"0")</f>
         <v>109433</v>
       </c>
@@ -5387,7 +4845,7 @@
         <f>IFERROR(L3*$Q$4,"")</f>
         <v>163086.82055421788</v>
       </c>
-      <c r="M8" s="124">
+      <c r="M8" s="122">
         <f>IFERROR(M3*$Q$4,"")</f>
         <v>186385.10571785402</v>
       </c>
@@ -5400,10 +4858,10 @@
       <c r="T8" s="33"/>
     </row>
     <row r="9" spans="1:20" ht="24.95" customHeight="1">
-      <c r="A9" s="104" t="s">
-        <v>27</v>
-      </c>
-      <c r="B9" s="113">
+      <c r="A9" s="102" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="111">
         <f t="shared" ref="B9:M9" si="4">IFERROR((B8/B3),"")</f>
         <v>0.31766944545125048</v>
       </c>
@@ -5447,7 +4905,7 @@
         <f t="shared" si="4"/>
         <v>0.39000234773934228</v>
       </c>
-      <c r="M9" s="122">
+      <c r="M9" s="120">
         <f t="shared" si="4"/>
         <v>0.39000234773934228</v>
       </c>
@@ -5460,34 +4918,34 @@
       <c r="T9" s="33"/>
     </row>
     <row r="10" spans="1:20" ht="24.95" customHeight="1">
-      <c r="A10" s="125" t="s">
-        <v>28</v>
-      </c>
-      <c r="B10" s="115">
+      <c r="A10" s="123" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="113">
         <f>IFERROR(VALUE(VLOOKUP("Interest Expense*",'6.TIKR_IS'!$A:$H,COLUMN(B10),FALSE)),"0")</f>
         <v>-2733</v>
       </c>
-      <c r="C10" s="115">
+      <c r="C10" s="113">
         <f>IFERROR(VALUE(VLOOKUP("Interest Expense*",'6.TIKR_IS'!$A:$H,COLUMN(C10),FALSE)),"0")</f>
         <v>-2686</v>
       </c>
-      <c r="D10" s="115">
+      <c r="D10" s="113">
         <f>IFERROR(VALUE(VLOOKUP("Interest Expense*",'6.TIKR_IS'!$A:$H,COLUMN(D10),FALSE)),"0")</f>
         <v>-2591</v>
       </c>
-      <c r="E10" s="115">
+      <c r="E10" s="113">
         <f>IFERROR(VALUE(VLOOKUP("Interest Expense*",'6.TIKR_IS'!$A:$H,COLUMN(E10),FALSE)),"0")</f>
         <v>-2346</v>
       </c>
-      <c r="F10" s="115">
+      <c r="F10" s="113">
         <f>IFERROR(VALUE(VLOOKUP("Interest Expense*",'6.TIKR_IS'!$A:$H,COLUMN(F10),FALSE)),"0")</f>
         <v>-2063</v>
       </c>
-      <c r="G10" s="115">
+      <c r="G10" s="113">
         <f>IFERROR(VALUE(VLOOKUP("Interest Expense*",'6.TIKR_IS'!$A:$H,COLUMN(G10),FALSE)),"0")</f>
         <v>-1968</v>
       </c>
-      <c r="H10" s="115">
+      <c r="H10" s="113">
         <f>IFERROR(VALUE(VLOOKUP("Interest Expense*",'6.TIKR_IS'!$A:$H,COLUMN(H10),FALSE)),"0")</f>
         <v>-2935</v>
       </c>
@@ -5507,7 +4965,7 @@
         <f>IFERROR(-TIKR_Cálculos!$B$26*SUM('3.ROIC'!L6:L7),"")</f>
         <v>-2166.7894581487085</v>
       </c>
-      <c r="M10" s="126">
+      <c r="M10" s="124">
         <f>IFERROR(-TIKR_Cálculos!$B$26*SUM('3.ROIC'!M6:M7),"")</f>
         <v>-2325.3049392092244</v>
       </c>
@@ -5520,34 +4978,34 @@
       <c r="T10" s="33"/>
     </row>
     <row r="11" spans="1:20" ht="24.95" customHeight="1">
-      <c r="A11" s="125" t="s">
-        <v>29</v>
-      </c>
-      <c r="B11" s="115">
+      <c r="A11" s="123" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="113">
         <f>IFERROR(VALUE(VLOOKUP("Total Other Income/Expenses Net*",'6.TIKR_IS'!$A:$H,COLUMN(B11),FALSE)),"0")</f>
         <v>1935</v>
       </c>
-      <c r="C11" s="115">
+      <c r="C11" s="113">
         <f>IFERROR(VALUE(VLOOKUP("Total Other Income/Expenses Net*",'6.TIKR_IS'!$A:$H,COLUMN(C11),FALSE)),"0")</f>
         <v>653</v>
       </c>
-      <c r="D11" s="115">
+      <c r="D11" s="113">
         <f>IFERROR(VALUE(VLOOKUP("Total Other Income/Expenses Net*",'6.TIKR_IS'!$A:$H,COLUMN(D11),FALSE)),"0")</f>
         <v>-12</v>
       </c>
-      <c r="E11" s="115">
+      <c r="E11" s="113">
         <f>IFERROR(VALUE(VLOOKUP("Total Other Income/Expenses Net*",'6.TIKR_IS'!$A:$H,COLUMN(E11),FALSE)),"0")</f>
         <v>1401</v>
       </c>
-      <c r="F11" s="115">
+      <c r="F11" s="113">
         <f>IFERROR(VALUE(VLOOKUP("Total Other Income/Expenses Net*",'6.TIKR_IS'!$A:$H,COLUMN(F11),FALSE)),"0")</f>
         <v>302</v>
       </c>
-      <c r="G11" s="115">
+      <c r="G11" s="113">
         <f>IFERROR(VALUE(VLOOKUP("Total Other Income/Expenses Net*",'6.TIKR_IS'!$A:$H,COLUMN(G11),FALSE)),"0")</f>
         <v>-238</v>
       </c>
-      <c r="H11" s="115">
+      <c r="H11" s="113">
         <f>IFERROR(VALUE(VLOOKUP("Total Other Income/Expenses Net*",'6.TIKR_IS'!$A:$H,COLUMN(H11),FALSE)),"0")</f>
         <v>-1646</v>
       </c>
@@ -5567,7 +5025,7 @@
         <f>IFERROR(TIKR_Cálculos!$B$25*'3.ROIC'!L5,"")</f>
         <v>254.55737720462403</v>
       </c>
-      <c r="M11" s="126">
+      <c r="M11" s="124">
         <f>IFERROR(TIKR_Cálculos!$B$25*'3.ROIC'!M5,"")</f>
         <v>266.83108468560204</v>
       </c>
@@ -5580,10 +5038,10 @@
       <c r="T11" s="33"/>
     </row>
     <row r="12" spans="1:20" ht="24.95" customHeight="1">
-      <c r="A12" s="104" t="s">
-        <v>30</v>
-      </c>
-      <c r="B12" s="117">
+      <c r="A12" s="102" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="115">
         <f>B10+B11</f>
         <v>-798</v>
       </c>
@@ -5627,7 +5085,7 @@
         <f t="shared" si="6"/>
         <v>-1912.2320809440844</v>
       </c>
-      <c r="M12" s="126">
+      <c r="M12" s="124">
         <f t="shared" si="6"/>
         <v>-2058.4738545236223</v>
       </c>
@@ -5640,10 +5098,10 @@
       <c r="T12" s="33"/>
     </row>
     <row r="13" spans="1:20" ht="24.95" customHeight="1" collapsed="1">
-      <c r="A13" s="104" t="s">
-        <v>31</v>
-      </c>
-      <c r="B13" s="117">
+      <c r="A13" s="102" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="115">
         <f t="shared" ref="B13:M13" si="7">IFERROR(B8+B12,"")</f>
         <v>34260</v>
       </c>
@@ -5687,7 +5145,7 @@
         <f t="shared" si="7"/>
         <v>161174.58847327379</v>
       </c>
-      <c r="M13" s="126">
+      <c r="M13" s="124">
         <f t="shared" si="7"/>
         <v>184326.6318633304</v>
       </c>
@@ -5700,34 +5158,34 @@
       <c r="T13" s="33"/>
     </row>
     <row r="14" spans="1:20" ht="24.95" customHeight="1">
-      <c r="A14" s="125" t="s">
-        <v>32</v>
-      </c>
-      <c r="B14" s="115">
+      <c r="A14" s="123" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="113">
         <f>IFERROR(VALUE(VLOOKUP("Income Tax Expense*",'6.TIKR_IS'!$A:$H,COLUMN(B14),FALSE)),"0")</f>
         <v>-19903</v>
       </c>
-      <c r="C14" s="115">
+      <c r="C14" s="113">
         <f>IFERROR(VALUE(VLOOKUP("Income Tax Expense*",'6.TIKR_IS'!$A:$H,COLUMN(C14),FALSE)),"0")</f>
         <v>-4448</v>
       </c>
-      <c r="D14" s="115">
+      <c r="D14" s="113">
         <f>IFERROR(VALUE(VLOOKUP("Income Tax Expense*",'6.TIKR_IS'!$A:$H,COLUMN(D14),FALSE)),"0")</f>
         <v>-8755</v>
       </c>
-      <c r="E14" s="115">
+      <c r="E14" s="113">
         <f>IFERROR(VALUE(VLOOKUP("Income Tax Expense*",'6.TIKR_IS'!$A:$H,COLUMN(E14),FALSE)),"0")</f>
         <v>-9831</v>
       </c>
-      <c r="F14" s="115">
+      <c r="F14" s="113">
         <f>IFERROR(VALUE(VLOOKUP("Income Tax Expense*",'6.TIKR_IS'!$A:$H,COLUMN(F14),FALSE)),"0")</f>
         <v>-10978</v>
       </c>
-      <c r="G14" s="115">
+      <c r="G14" s="113">
         <f>IFERROR(VALUE(VLOOKUP("Income Tax Expense*",'6.TIKR_IS'!$A:$H,COLUMN(G14),FALSE)),"0")</f>
         <v>-16950</v>
       </c>
-      <c r="H14" s="115">
+      <c r="H14" s="113">
         <f>IFERROR(VALUE(VLOOKUP("Income Tax Expense*",'6.TIKR_IS'!$A:$H,COLUMN(H14),FALSE)),"0")</f>
         <v>-19651</v>
       </c>
@@ -5747,7 +5205,7 @@
         <f>IFERROR(-L13*L15,"")</f>
         <v>-30206.78516469217</v>
       </c>
-      <c r="M14" s="126">
+      <c r="M14" s="124">
         <f>IFERROR(-M13*M15,"")</f>
         <v>-34545.861240093713</v>
       </c>
@@ -5760,10 +5218,10 @@
       <c r="T14" s="33"/>
     </row>
     <row r="15" spans="1:20" ht="24.95" customHeight="1">
-      <c r="A15" s="104" t="s">
-        <v>33</v>
-      </c>
-      <c r="B15" s="113">
+      <c r="A15" s="102" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="111">
         <f t="shared" ref="B15:H15" si="8">IFERROR((ABS(B14)/B13),"")</f>
         <v>0.58093987157034443</v>
       </c>
@@ -5807,7 +5265,7 @@
         <f>$Q$5</f>
         <v>0.18741654904055241</v>
       </c>
-      <c r="M15" s="122">
+      <c r="M15" s="120">
         <f>$Q$5</f>
         <v>0.18741654904055241</v>
       </c>
@@ -5820,10 +5278,10 @@
       <c r="T15" s="33"/>
     </row>
     <row r="16" spans="1:20" ht="24.95" customHeight="1">
-      <c r="A16" s="104" t="s">
-        <v>34</v>
-      </c>
-      <c r="B16" s="117">
+      <c r="A16" s="102" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" s="115">
         <f t="shared" ref="B16:H16" si="9">B13+B14</f>
         <v>14357</v>
       </c>
@@ -5867,7 +5325,7 @@
         <f>IFERROR(L13+L14,"")</f>
         <v>130967.80330858161</v>
       </c>
-      <c r="M16" s="126">
+      <c r="M16" s="124">
         <f>IFERROR(M13+M14,"")</f>
         <v>149780.77062323669</v>
       </c>
@@ -5880,34 +5338,34 @@
       <c r="T16" s="33"/>
     </row>
     <row r="17" spans="1:20" ht="24.95" customHeight="1">
-      <c r="A17" s="125" t="s">
-        <v>35</v>
-      </c>
-      <c r="B17" s="115" t="str">
+      <c r="A17" s="123" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" s="113" t="str">
         <f>IFERROR(VALUE(VLOOKUP("Minority Interest*",'6.TIKR_IS'!$A:$H,COLUMN(B17),FALSE)),"0")</f>
         <v>0</v>
       </c>
-      <c r="C17" s="115" t="str">
+      <c r="C17" s="113" t="str">
         <f>IFERROR(VALUE(VLOOKUP("Minority Interest*",'6.TIKR_IS'!$A:$H,COLUMN(C17),FALSE)),"0")</f>
         <v>0</v>
       </c>
-      <c r="D17" s="115" t="str">
+      <c r="D17" s="113" t="str">
         <f>IFERROR(VALUE(VLOOKUP("Minority Interest*",'6.TIKR_IS'!$A:$H,COLUMN(D17),FALSE)),"0")</f>
         <v>0</v>
       </c>
-      <c r="E17" s="115" t="str">
+      <c r="E17" s="113" t="str">
         <f>IFERROR(VALUE(VLOOKUP("Minority Interest*",'6.TIKR_IS'!$A:$H,COLUMN(E17),FALSE)),"0")</f>
         <v>0</v>
       </c>
-      <c r="F17" s="115" t="str">
+      <c r="F17" s="113" t="str">
         <f>IFERROR(VALUE(VLOOKUP("Minority Interest*",'6.TIKR_IS'!$A:$H,COLUMN(F17),FALSE)),"0")</f>
         <v>0</v>
       </c>
-      <c r="G17" s="115" t="str">
+      <c r="G17" s="113" t="str">
         <f>IFERROR(VALUE(VLOOKUP("Minority Interest*",'6.TIKR_IS'!$A:$H,COLUMN(G17),FALSE)),"0")</f>
         <v>0</v>
       </c>
-      <c r="H17" s="115" t="str">
+      <c r="H17" s="113" t="str">
         <f>IFERROR(VALUE(VLOOKUP("Minority Interest*",'6.TIKR_IS'!$A:$H,COLUMN(H17),FALSE)),"0")</f>
         <v>0</v>
       </c>
@@ -5927,7 +5385,7 @@
         <f>IFERROR(K17/K16*L16,"")</f>
         <v>0</v>
       </c>
-      <c r="M17" s="126">
+      <c r="M17" s="124">
         <f>IFERROR(L17/L16*M16,"")</f>
         <v>0</v>
       </c>
@@ -5940,10 +5398,10 @@
       <c r="T17" s="33"/>
     </row>
     <row r="18" spans="1:20" ht="24.95" customHeight="1">
-      <c r="A18" s="123" t="s">
-        <v>36</v>
-      </c>
-      <c r="B18" s="114">
+      <c r="A18" s="121" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" s="112">
         <f t="shared" ref="B18:H18" si="10">B16+B17</f>
         <v>14357</v>
       </c>
@@ -5987,7 +5445,7 @@
         <f>IFERROR(L16+L17,"")</f>
         <v>130967.80330858161</v>
       </c>
-      <c r="M18" s="124">
+      <c r="M18" s="122">
         <f>IFERROR(M16+M17,"")</f>
         <v>149780.77062323669</v>
       </c>
@@ -6000,10 +5458,10 @@
       <c r="T18" s="33"/>
     </row>
     <row r="19" spans="1:20" ht="24.95" customHeight="1">
-      <c r="A19" s="104" t="s">
-        <v>37</v>
-      </c>
-      <c r="B19" s="113">
+      <c r="A19" s="102" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" s="111">
         <f t="shared" ref="B19:M19" si="11">IFERROR(B18/B3,"")</f>
         <v>0.13009242479159117</v>
       </c>
@@ -6047,7 +5505,7 @@
         <f t="shared" si="11"/>
         <v>0.31319361426652215</v>
       </c>
-      <c r="M19" s="122">
+      <c r="M19" s="120">
         <f t="shared" si="11"/>
         <v>0.31340944312201335</v>
       </c>
@@ -6060,10 +5518,10 @@
       <c r="T19" s="33"/>
     </row>
     <row r="20" spans="1:20" ht="24.95" customHeight="1">
-      <c r="A20" s="104" t="s">
-        <v>38</v>
-      </c>
-      <c r="B20" s="118">
+      <c r="A20" s="102" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" s="116">
         <f t="shared" ref="B20:M20" si="12">IFERROR(B18/B22,"")</f>
         <v>1.8420579933282011</v>
       </c>
@@ -6107,7 +5565,7 @@
         <f t="shared" si="12"/>
         <v>18.039494486001232</v>
       </c>
-      <c r="M20" s="127">
+      <c r="M20" s="125">
         <f t="shared" si="12"/>
         <v>20.777651163913792</v>
       </c>
@@ -6120,10 +5578,10 @@
       <c r="T20" s="33"/>
     </row>
     <row r="21" spans="1:20" ht="24.95" customHeight="1">
-      <c r="A21" s="104" t="s">
-        <v>19</v>
-      </c>
-      <c r="B21" s="113"/>
+      <c r="A21" s="102" t="s">
+        <v>5</v>
+      </c>
+      <c r="B21" s="111"/>
       <c r="C21" s="11">
         <f t="shared" ref="C21:M21" si="13">IFERROR((C20-B20)/B20,"")</f>
         <v>1.5542178528882913</v>
@@ -6164,7 +5622,7 @@
         <f t="shared" si="13"/>
         <v>0.15190080043964088</v>
       </c>
-      <c r="M21" s="122">
+      <c r="M21" s="120">
         <f t="shared" si="13"/>
         <v>0.15178677429333665</v>
       </c>
@@ -6177,34 +5635,34 @@
       <c r="T21" s="33"/>
     </row>
     <row r="22" spans="1:20" ht="24.95" customHeight="1">
-      <c r="A22" s="125" t="s">
-        <v>39</v>
-      </c>
-      <c r="B22" s="119">
+      <c r="A22" s="123" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" s="117">
         <f>IFERROR(VALUE(VLOOKUP("*Diluted Weighted Average Shares Outstanding*",'6.TIKR_IS'!$A:$H,COLUMN(B22),FALSE)),"0")</f>
         <v>7794</v>
       </c>
-      <c r="C22" s="119">
+      <c r="C22" s="117">
         <f>IFERROR(VALUE(VLOOKUP("*Diluted Weighted Average Shares Outstanding*",'6.TIKR_IS'!$A:$H,COLUMN(C22),FALSE)),"0")</f>
         <v>7753</v>
       </c>
-      <c r="D22" s="119">
+      <c r="D22" s="117">
         <f>IFERROR(VALUE(VLOOKUP("*Diluted Weighted Average Shares Outstanding*",'6.TIKR_IS'!$A:$H,COLUMN(D22),FALSE)),"0")</f>
         <v>7683</v>
       </c>
-      <c r="E22" s="119">
+      <c r="E22" s="117">
         <f>IFERROR(VALUE(VLOOKUP("*Diluted Weighted Average Shares Outstanding*",'6.TIKR_IS'!$A:$H,COLUMN(E22),FALSE)),"0")</f>
         <v>7608</v>
       </c>
-      <c r="F22" s="119">
+      <c r="F22" s="117">
         <f>IFERROR(VALUE(VLOOKUP("*Diluted Weighted Average Shares Outstanding*",'6.TIKR_IS'!$A:$H,COLUMN(F22),FALSE)),"0")</f>
         <v>7540</v>
       </c>
-      <c r="G22" s="119">
+      <c r="G22" s="117">
         <f>IFERROR(VALUE(VLOOKUP("*Diluted Weighted Average Shares Outstanding*",'6.TIKR_IS'!$A:$H,COLUMN(G22),FALSE)),"0")</f>
         <v>7472</v>
       </c>
-      <c r="H22" s="119">
+      <c r="H22" s="117">
         <f>IFERROR(VALUE(VLOOKUP("*Diluted Weighted Average Shares Outstanding*",'6.TIKR_IS'!$A:$H,COLUMN(H22),FALSE)),"0")</f>
         <v>7469</v>
       </c>
@@ -6224,7 +5682,7 @@
         <f>IFERROR(K22*(1+$Q$6),"")</f>
         <v>7260.0594994617786</v>
       </c>
-      <c r="M22" s="128">
+      <c r="M22" s="126">
         <f>IFERROR(L22*(1+$Q$6),"")</f>
         <v>7208.7441184580539</v>
       </c>
@@ -6238,50 +5696,50 @@
     </row>
     <row r="23" spans="1:20" ht="24.95" customHeight="1">
       <c r="A23" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="B23" s="129"/>
-      <c r="C23" s="130">
+        <v>5</v>
+      </c>
+      <c r="B23" s="127"/>
+      <c r="C23" s="128">
         <f t="shared" ref="C23:M23" si="14">IFERROR((C22-B22)/B22,"")</f>
         <v>-5.2604567616114963E-3</v>
       </c>
-      <c r="D23" s="130">
+      <c r="D23" s="128">
         <f t="shared" si="14"/>
         <v>-9.0287630594608533E-3</v>
       </c>
-      <c r="E23" s="130">
+      <c r="E23" s="128">
         <f t="shared" si="14"/>
         <v>-9.7618117922686452E-3</v>
       </c>
-      <c r="F23" s="130">
+      <c r="F23" s="128">
         <f t="shared" si="14"/>
         <v>-8.9379600420609884E-3</v>
       </c>
-      <c r="G23" s="130">
+      <c r="G23" s="128">
         <f t="shared" si="14"/>
         <v>-9.0185676392572946E-3</v>
       </c>
-      <c r="H23" s="131">
+      <c r="H23" s="129">
         <f t="shared" si="14"/>
         <v>-4.0149892933618843E-4</v>
       </c>
-      <c r="I23" s="130">
+      <c r="I23" s="128">
         <f t="shared" si="14"/>
         <v>-7.0681763706658823E-3</v>
       </c>
-      <c r="J23" s="130">
+      <c r="J23" s="128">
         <f t="shared" si="14"/>
         <v>-7.0681763706659838E-3</v>
       </c>
-      <c r="K23" s="130">
+      <c r="K23" s="128">
         <f t="shared" si="14"/>
         <v>-7.0681763706658979E-3</v>
       </c>
-      <c r="L23" s="130">
+      <c r="L23" s="128">
         <f t="shared" si="14"/>
         <v>-7.0681763706659448E-3</v>
       </c>
-      <c r="M23" s="132">
+      <c r="M23" s="130">
         <f t="shared" si="14"/>
         <v>-7.0681763706659656E-3</v>
       </c>
@@ -6394,7 +5852,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Q30"/>
   <sheetViews>
@@ -6414,12 +5872,12 @@
   <sheetData>
     <row r="1" spans="1:14" ht="99.95" customHeight="1">
       <c r="B1" s="19" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:14" s="6" customFormat="1" ht="39.950000000000003" customHeight="1">
-      <c r="A2" s="110" t="s">
-        <v>41</v>
+      <c r="A2" s="108" t="s">
+        <v>27</v>
       </c>
       <c r="B2" s="40">
         <f>'1.IS'!B$2</f>
@@ -6472,38 +5930,38 @@
       <c r="N2" s="18"/>
     </row>
     <row r="3" spans="1:14" s="6" customFormat="1" ht="27.95" customHeight="1">
-      <c r="A3" s="123" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" s="114">
+      <c r="A3" s="121" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="112">
         <f>VALUE('1.IS'!B5)</f>
         <v>45319</v>
       </c>
-      <c r="C3" s="114">
+      <c r="C3" s="112">
         <f>VALUE('1.IS'!C5)</f>
         <v>54641</v>
       </c>
-      <c r="D3" s="114">
+      <c r="D3" s="112">
         <f>VALUE('1.IS'!D5)</f>
         <v>65755</v>
       </c>
-      <c r="E3" s="114">
+      <c r="E3" s="112">
         <f>VALUE('1.IS'!E5)</f>
         <v>81602</v>
       </c>
-      <c r="F3" s="114">
+      <c r="F3" s="112">
         <f>VALUE('1.IS'!F5)</f>
         <v>97843</v>
       </c>
-      <c r="G3" s="114">
+      <c r="G3" s="112">
         <f>VALUE('1.IS'!G5)</f>
         <v>102384</v>
       </c>
-      <c r="H3" s="114">
+      <c r="H3" s="112">
         <f>VALUE('1.IS'!H5)</f>
         <v>131720</v>
       </c>
-      <c r="I3" s="114">
+      <c r="I3" s="112">
         <f>'1.IS'!I5</f>
         <v>134726.01337444442</v>
       </c>
@@ -6519,45 +5977,45 @@
         <f>'1.IS'!L5</f>
         <v>201107.5956554155</v>
       </c>
-      <c r="M3" s="124">
+      <c r="M3" s="122">
         <f>'1.IS'!M5</f>
         <v>229837.45927180402</v>
       </c>
       <c r="N3" s="9"/>
     </row>
     <row r="4" spans="1:14" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A4" s="125" t="s">
-        <v>42</v>
-      </c>
-      <c r="B4" s="115">
+      <c r="A4" s="123" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="113">
         <f>IFERROR(VALUE(VLOOKUP("CapEx Mantenimiento",TIKR_Cálculos!$A:$H,COLUMN(B4),FALSE)),"0")</f>
         <v>-10261</v>
       </c>
-      <c r="C4" s="115">
+      <c r="C4" s="113">
         <f>IFERROR(VALUE(VLOOKUP("CapEx Mantenimiento",TIKR_Cálculos!$A:$H,COLUMN(C4),FALSE)),"0")</f>
         <v>-11682</v>
       </c>
-      <c r="D4" s="115">
+      <c r="D4" s="113">
         <f>IFERROR(VALUE(VLOOKUP("CapEx Mantenimiento",TIKR_Cálculos!$A:$H,COLUMN(D4),FALSE)),"0")</f>
         <v>-12796</v>
       </c>
-      <c r="E4" s="115">
+      <c r="E4" s="113">
         <f>IFERROR(VALUE(VLOOKUP("CapEx Mantenimiento",TIKR_Cálculos!$A:$H,COLUMN(E4),FALSE)),"0")</f>
         <v>-11686</v>
       </c>
-      <c r="F4" s="115">
+      <c r="F4" s="113">
         <f>IFERROR(VALUE(VLOOKUP("CapEx Mantenimiento",TIKR_Cálculos!$A:$H,COLUMN(F4),FALSE)),"0")</f>
         <v>-14460</v>
       </c>
-      <c r="G4" s="115">
+      <c r="G4" s="113">
         <f>IFERROR(VALUE(VLOOKUP("CapEx Mantenimiento",TIKR_Cálculos!$A:$H,COLUMN(G4),FALSE)),"0")</f>
         <v>-13861</v>
       </c>
-      <c r="H4" s="115">
+      <c r="H4" s="113">
         <f>IFERROR(VALUE(VLOOKUP("CapEx Mantenimiento",TIKR_Cálculos!$A:$H,COLUMN(H4),FALSE)),"0")</f>
         <v>-8808</v>
       </c>
-      <c r="I4" s="133">
+      <c r="I4" s="131">
         <f>IFERROR((H4*'1.IS'!$Q$3)+'2.FCF'!H4,"")</f>
         <v>-10066.294784483123</v>
       </c>
@@ -6573,7 +6031,7 @@
         <f>IFERROR((K4*'1.IS'!$Q$3)+'2.FCF'!K4,"")</f>
         <v>-15026.113298844564</v>
       </c>
-      <c r="M4" s="138">
+      <c r="M4" s="136">
         <f>IFERROR((L4*'1.IS'!$Q$3)+'2.FCF'!L4,"")</f>
         <v>-17172.716386377331</v>
       </c>
@@ -6581,37 +6039,37 @@
     </row>
     <row r="5" spans="1:14" s="6" customFormat="1" ht="24.95" customHeight="1">
       <c r="A5" s="101" t="s">
-        <v>43</v>
-      </c>
-      <c r="B5" s="133">
+        <v>29</v>
+      </c>
+      <c r="B5" s="131">
         <f>VALUE('1.IS'!B12)</f>
         <v>-798</v>
       </c>
-      <c r="C5" s="133">
+      <c r="C5" s="131">
         <f>VALUE('1.IS'!C12)</f>
         <v>-2033</v>
       </c>
-      <c r="D5" s="133">
+      <c r="D5" s="131">
         <f>VALUE('1.IS'!D12)</f>
         <v>-2603</v>
       </c>
-      <c r="E5" s="133">
+      <c r="E5" s="131">
         <f>VALUE('1.IS'!E12)</f>
         <v>-945</v>
       </c>
-      <c r="F5" s="133">
+      <c r="F5" s="131">
         <f>VALUE('1.IS'!F12)</f>
         <v>-1761</v>
       </c>
-      <c r="G5" s="133">
+      <c r="G5" s="131">
         <f>VALUE('1.IS'!G12)</f>
         <v>-2206</v>
       </c>
-      <c r="H5" s="133">
+      <c r="H5" s="131">
         <f>VALUE('1.IS'!H12)</f>
         <v>-4581</v>
       </c>
-      <c r="I5" s="133">
+      <c r="I5" s="131">
         <f>'1.IS'!I12</f>
         <v>-1574.3341899061477</v>
       </c>
@@ -6627,7 +6085,7 @@
         <f>'1.IS'!L12</f>
         <v>-1912.2320809440844</v>
       </c>
-      <c r="M5" s="138">
+      <c r="M5" s="136">
         <f>'1.IS'!M12</f>
         <v>-2058.4738545236223</v>
       </c>
@@ -6635,9 +6093,9 @@
     </row>
     <row r="6" spans="1:14" s="6" customFormat="1" ht="24.95" customHeight="1">
       <c r="A6" s="101" t="s">
-        <v>44</v>
-      </c>
-      <c r="B6" s="133">
+        <v>30</v>
+      </c>
+      <c r="B6" s="131">
         <f>'1.IS'!B14</f>
         <v>-19903</v>
       </c>
@@ -6665,7 +6123,7 @@
         <f>'1.IS'!H14</f>
         <v>-19651</v>
       </c>
-      <c r="I6" s="133">
+      <c r="I6" s="131">
         <f>'1.IS'!I14</f>
         <v>-20181.163763609165</v>
       </c>
@@ -6681,134 +6139,134 @@
         <f>'1.IS'!L14</f>
         <v>-30206.78516469217</v>
       </c>
-      <c r="M6" s="138">
+      <c r="M6" s="136">
         <f>'1.IS'!M14</f>
         <v>-34545.861240093713</v>
       </c>
       <c r="N6" s="15"/>
     </row>
     <row r="7" spans="1:14" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A7" s="139" t="s">
-        <v>45</v>
-      </c>
-      <c r="B7" s="115">
+      <c r="A7" s="137" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="113">
         <f>IFERROR(VALUE(VLOOKUP("Inventory*",'7.TIKR_BS'!$A:$H,COLUMN(B7),FALSE)),"0")</f>
         <v>2662</v>
       </c>
-      <c r="C7" s="115">
+      <c r="C7" s="113">
         <f>IFERROR(VALUE(VLOOKUP("Inventory*",'7.TIKR_BS'!$A:$H,COLUMN(C7),FALSE)),"0")</f>
         <v>2063</v>
       </c>
-      <c r="D7" s="115">
+      <c r="D7" s="113">
         <f>IFERROR(VALUE(VLOOKUP("Inventory*",'7.TIKR_BS'!$A:$H,COLUMN(D7),FALSE)),"0")</f>
         <v>1895</v>
       </c>
-      <c r="E7" s="115">
+      <c r="E7" s="113">
         <f>IFERROR(VALUE(VLOOKUP("Inventory*",'7.TIKR_BS'!$A:$H,COLUMN(E7),FALSE)),"0")</f>
         <v>2636</v>
       </c>
-      <c r="F7" s="115">
+      <c r="F7" s="113">
         <f>IFERROR(VALUE(VLOOKUP("Inventory*",'7.TIKR_BS'!$A:$H,COLUMN(F7),FALSE)),"0")</f>
         <v>3742</v>
       </c>
-      <c r="G7" s="115">
+      <c r="G7" s="113">
         <f>IFERROR(VALUE(VLOOKUP("Inventory*",'7.TIKR_BS'!$A:$H,COLUMN(G7),FALSE)),"0")</f>
         <v>2500</v>
       </c>
-      <c r="H7" s="115">
+      <c r="H7" s="113">
         <f>IFERROR(VALUE(VLOOKUP("Inventory*",'7.TIKR_BS'!$A:$H,COLUMN(H7),FALSE)),"0")</f>
         <v>1246</v>
       </c>
-      <c r="I7" s="134"/>
+      <c r="I7" s="132"/>
       <c r="J7" s="85"/>
       <c r="K7" s="85"/>
       <c r="L7" s="85"/>
-      <c r="M7" s="140"/>
+      <c r="M7" s="138"/>
       <c r="N7" s="15"/>
     </row>
     <row r="8" spans="1:14" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A8" s="139" t="s">
-        <v>46</v>
-      </c>
-      <c r="B8" s="115">
+      <c r="A8" s="137" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" s="113">
         <f>IFERROR(VALUE(VLOOKUP("Net Receivables*",'7.TIKR_BS'!$A:$H,COLUMN(B8),FALSE)),"0")</f>
         <v>26481</v>
       </c>
-      <c r="C8" s="115">
+      <c r="C8" s="113">
         <f>IFERROR(VALUE(VLOOKUP("Net Receivables*",'7.TIKR_BS'!$A:$H,COLUMN(C8),FALSE)),"0")</f>
         <v>29524</v>
       </c>
-      <c r="D8" s="115">
+      <c r="D8" s="113">
         <f>IFERROR(VALUE(VLOOKUP("Net Receivables*",'7.TIKR_BS'!$A:$H,COLUMN(D8),FALSE)),"0")</f>
         <v>32011</v>
       </c>
-      <c r="E8" s="115">
+      <c r="E8" s="113">
         <f>IFERROR(VALUE(VLOOKUP("Net Receivables*",'7.TIKR_BS'!$A:$H,COLUMN(E8),FALSE)),"0")</f>
         <v>38043</v>
       </c>
-      <c r="F8" s="115">
+      <c r="F8" s="113">
         <f>IFERROR(VALUE(VLOOKUP("Net Receivables*",'7.TIKR_BS'!$A:$H,COLUMN(F8),FALSE)),"0")</f>
         <v>44261</v>
       </c>
-      <c r="G8" s="115">
+      <c r="G8" s="113">
         <f>IFERROR(VALUE(VLOOKUP("Net Receivables*",'7.TIKR_BS'!$A:$H,COLUMN(G8),FALSE)),"0")</f>
         <v>48688</v>
       </c>
-      <c r="H8" s="115">
+      <c r="H8" s="113">
         <f>IFERROR(VALUE(VLOOKUP("Net Receivables*",'7.TIKR_BS'!$A:$H,COLUMN(H8),FALSE)),"0")</f>
         <v>56924</v>
       </c>
-      <c r="I8" s="134"/>
+      <c r="I8" s="132"/>
       <c r="J8" s="85"/>
       <c r="K8" s="85"/>
       <c r="L8" s="85"/>
-      <c r="M8" s="140"/>
+      <c r="M8" s="138"/>
       <c r="N8" s="15"/>
     </row>
     <row r="9" spans="1:14" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A9" s="139" t="s">
-        <v>47</v>
-      </c>
-      <c r="B9" s="115">
+      <c r="A9" s="137" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" s="113">
         <f>IFERROR(VALUE(VLOOKUP("Other Current Liabilities*",'7.TIKR_BS'!$A:$H,COLUMN(B9),FALSE)),"0")+IFERROR(VALUE(VLOOKUP("Deferred Revenue*",'7.TIKR_BS'!$A:$H,COLUMN(B9),FALSE)),"0")+IFERROR(VALUE(VLOOKUP("Deferred Revenue Non Current*",'7.TIKR_BS'!$A:$H,COLUMN(B9),FALSE)),"0")</f>
         <v>49688</v>
       </c>
-      <c r="C9" s="115">
+      <c r="C9" s="113">
         <f>IFERROR(VALUE(VLOOKUP("Other Current Liabilities*",'7.TIKR_BS'!$A:$H,COLUMN(C9),FALSE)),"0")+IFERROR(VALUE(VLOOKUP("Deferred Revenue*",'7.TIKR_BS'!$A:$H,COLUMN(C9),FALSE)),"0")+IFERROR(VALUE(VLOOKUP("Deferred Revenue Non Current*",'7.TIKR_BS'!$A:$H,COLUMN(C9),FALSE)),"0")</f>
         <v>59052</v>
       </c>
-      <c r="D9" s="115">
+      <c r="D9" s="113">
         <f>IFERROR(VALUE(VLOOKUP("Other Current Liabilities*",'7.TIKR_BS'!$A:$H,COLUMN(D9),FALSE)),"0")+IFERROR(VALUE(VLOOKUP("Deferred Revenue*",'7.TIKR_BS'!$A:$H,COLUMN(D9),FALSE)),"0")+IFERROR(VALUE(VLOOKUP("Deferred Revenue Non Current*",'7.TIKR_BS'!$A:$H,COLUMN(D9),FALSE)),"0")</f>
         <v>59211</v>
       </c>
-      <c r="E9" s="115">
+      <c r="E9" s="113">
         <f>IFERROR(VALUE(VLOOKUP("Other Current Liabilities*",'7.TIKR_BS'!$A:$H,COLUMN(E9),FALSE)),"0")+IFERROR(VALUE(VLOOKUP("Deferred Revenue*",'7.TIKR_BS'!$A:$H,COLUMN(E9),FALSE)),"0")+IFERROR(VALUE(VLOOKUP("Deferred Revenue Non Current*",'7.TIKR_BS'!$A:$H,COLUMN(E9),FALSE)),"0")</f>
         <v>68038</v>
       </c>
-      <c r="F9" s="115">
+      <c r="F9" s="113">
         <f>IFERROR(VALUE(VLOOKUP("Other Current Liabilities*",'7.TIKR_BS'!$A:$H,COLUMN(F9),FALSE)),"0")+IFERROR(VALUE(VLOOKUP("Deferred Revenue*",'7.TIKR_BS'!$A:$H,COLUMN(F9),FALSE)),"0")+IFERROR(VALUE(VLOOKUP("Deferred Revenue Non Current*",'7.TIKR_BS'!$A:$H,COLUMN(F9),FALSE)),"0")</f>
         <v>76203</v>
       </c>
-      <c r="G9" s="115">
+      <c r="G9" s="113">
         <f>IFERROR(VALUE(VLOOKUP("Other Current Liabilities*",'7.TIKR_BS'!$A:$H,COLUMN(G9),FALSE)),"0")+IFERROR(VALUE(VLOOKUP("Deferred Revenue*",'7.TIKR_BS'!$A:$H,COLUMN(G9),FALSE)),"0")+IFERROR(VALUE(VLOOKUP("Deferred Revenue Non Current*",'7.TIKR_BS'!$A:$H,COLUMN(G9),FALSE)),"0")</f>
         <v>83719</v>
       </c>
-      <c r="H9" s="115">
+      <c r="H9" s="113">
         <f>IFERROR(VALUE(VLOOKUP("Other Current Liabilities*",'7.TIKR_BS'!$A:$H,COLUMN(H9),FALSE)),"0")+IFERROR(VALUE(VLOOKUP("Deferred Revenue*",'7.TIKR_BS'!$A:$H,COLUMN(H9),FALSE)),"0")+IFERROR(VALUE(VLOOKUP("Deferred Revenue Non Current*",'7.TIKR_BS'!$A:$H,COLUMN(H9),FALSE)),"0")</f>
         <v>91933</v>
       </c>
-      <c r="I9" s="134"/>
+      <c r="I9" s="132"/>
       <c r="J9" s="85"/>
       <c r="K9" s="85"/>
       <c r="L9" s="85"/>
-      <c r="M9" s="140"/>
+      <c r="M9" s="138"/>
       <c r="N9" s="15"/>
     </row>
     <row r="10" spans="1:14" s="6" customFormat="1" ht="24.95" customHeight="1" thickBot="1">
-      <c r="A10" s="141" t="s">
-        <v>48</v>
-      </c>
-      <c r="B10" s="133">
+      <c r="A10" s="139" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" s="131">
         <f>B7+B8-B9</f>
         <v>-20545</v>
       </c>
@@ -6836,7 +6294,7 @@
         <f t="shared" si="0"/>
         <v>-33763</v>
       </c>
-      <c r="I10" s="133">
+      <c r="I10" s="131">
         <f>IFERROR(IF(AND(I7&lt;&gt;"",I8&lt;&gt;"",I9&lt;&gt;""),I7+I8-I9,H10+I11),"")</f>
         <v>-37153.136079579592</v>
       </c>
@@ -6852,7 +6310,7 @@
         <f>IFERROR(IF(AND(L7&lt;&gt;"",L8&lt;&gt;"",L9&lt;&gt;""),L7+L8-L9,K10+L11),"")</f>
         <v>-50516.02997459843</v>
       </c>
-      <c r="M10" s="138">
+      <c r="M10" s="136">
         <f>IFERROR(IF(AND(M7&lt;&gt;"",M8&lt;&gt;"",M9&lt;&gt;""),M7+M8-M9,L10+M11),"")</f>
         <v>-56299.473302285041</v>
       </c>
@@ -6860,9 +6318,9 @@
     </row>
     <row r="11" spans="1:14" s="6" customFormat="1" ht="24.95" customHeight="1" thickTop="1" thickBot="1">
       <c r="A11" s="101" t="s">
-        <v>49</v>
-      </c>
-      <c r="B11" s="133"/>
+        <v>35</v>
+      </c>
+      <c r="B11" s="131"/>
       <c r="C11" s="84">
         <f>(C7+C8-C9)-(B7+B8-B9)</f>
         <v>-6920</v>
@@ -6887,33 +6345,33 @@
         <f t="shared" si="1"/>
         <v>-1232</v>
       </c>
-      <c r="I11" s="233">
+      <c r="I11" s="229">
         <f>IFERROR((SUM(C11:H11)/SUM('1.IS'!C3:H3))*'1.IS'!I3,"")</f>
         <v>-3390.1360795795931</v>
       </c>
-      <c r="J11" s="234">
+      <c r="J11" s="230">
         <f>IFERROR(IF(AND(J7&lt;&gt;"",J8&lt;&gt;"",J9&lt;&gt;""),(J7+J8-J9)-(I7+I8-I9),(I11/'1.IS'!I3)*'1.IS'!J3),"")</f>
         <v>-3874.4447248592323</v>
       </c>
-      <c r="K11" s="234">
+      <c r="K11" s="230">
         <f>IFERROR(IF(AND(K7&lt;&gt;"",K8&lt;&gt;"",K9&lt;&gt;""),(K7+K8-K9)-(J7+J8-J9),(J11/'1.IS'!J3)*'1.IS'!K3),"")</f>
         <v>-4427.9408181901272</v>
       </c>
-      <c r="L11" s="234">
+      <c r="L11" s="230">
         <f>IFERROR(IF(AND(L7&lt;&gt;"",L8&lt;&gt;"",L9&lt;&gt;""),(L7+L8-L9)-(K7+K8-K9),(K11/'1.IS'!K3)*'1.IS'!L3),"")</f>
         <v>-5060.5083519694836</v>
       </c>
-      <c r="M11" s="235">
+      <c r="M11" s="231">
         <f>IFERROR(IF(AND(M7&lt;&gt;"",M8&lt;&gt;"",M9&lt;&gt;""),(M7+M8-M9)-(L7+L8-L9),(L11/'1.IS'!L3)*'1.IS'!M3),"")</f>
         <v>-5783.4433276866148</v>
       </c>
       <c r="N11" s="15"/>
     </row>
     <row r="12" spans="1:14" s="6" customFormat="1" ht="24.95" customHeight="1" thickTop="1">
-      <c r="A12" s="142" t="s">
-        <v>50</v>
-      </c>
-      <c r="B12" s="134" t="str">
+      <c r="A12" s="140" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" s="132" t="str">
         <f>'1.IS'!B17</f>
         <v>0</v>
       </c>
@@ -6941,7 +6399,7 @@
         <f>'1.IS'!H17</f>
         <v>0</v>
       </c>
-      <c r="I12" s="134">
+      <c r="I12" s="132">
         <f>'1.IS'!I17</f>
         <v>0</v>
       </c>
@@ -6957,17 +6415,17 @@
         <f>'1.IS'!L17</f>
         <v>0</v>
       </c>
-      <c r="M12" s="140">
+      <c r="M12" s="138">
         <f>'1.IS'!M17</f>
         <v>0</v>
       </c>
       <c r="N12" s="17"/>
     </row>
     <row r="13" spans="1:14" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A13" s="143" t="s">
-        <v>51</v>
-      </c>
-      <c r="B13" s="135">
+      <c r="A13" s="141" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" s="133">
         <f>B3+B4+B5+B6-B11+B12</f>
         <v>14357</v>
       </c>
@@ -6995,7 +6453,7 @@
         <f t="shared" si="2"/>
         <v>99912</v>
       </c>
-      <c r="I13" s="135">
+      <c r="I13" s="133">
         <f>IFERROR(I3+I4+I5+I6-I11+I12,"")</f>
         <v>106294.35671602558</v>
       </c>
@@ -7011,17 +6469,17 @@
         <f t="shared" si="3"/>
         <v>159022.97346290413</v>
       </c>
-      <c r="M13" s="144">
+      <c r="M13" s="142">
         <f t="shared" si="3"/>
         <v>181843.85111849595</v>
       </c>
       <c r="N13" s="15"/>
     </row>
     <row r="14" spans="1:14" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A14" s="145" t="s">
-        <v>52</v>
-      </c>
-      <c r="B14" s="136">
+      <c r="A14" s="143" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14" s="134">
         <f>IFERROR(B13/'1.IS'!B3,"")</f>
         <v>0.13009242479159117</v>
       </c>
@@ -7065,17 +6523,17 @@
         <f>IFERROR(L13/'1.IS'!L3,"")</f>
         <v>0.38028415039463931</v>
       </c>
-      <c r="M14" s="146">
+      <c r="M14" s="144">
         <f>IFERROR(M13/'1.IS'!M3,"")</f>
         <v>0.38049997925013052</v>
       </c>
       <c r="N14" s="15"/>
     </row>
     <row r="15" spans="1:14" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A15" s="104" t="s">
-        <v>19</v>
-      </c>
-      <c r="B15" s="137"/>
+      <c r="A15" s="102" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" s="135"/>
       <c r="C15" s="24">
         <f t="shared" ref="C15:M15" si="4">IFERROR((C13-B13)/B13,"")</f>
         <v>2.0227763460332939</v>
@@ -7116,15 +6574,15 @@
         <f t="shared" si="4"/>
         <v>0.14359994002909474</v>
       </c>
-      <c r="M15" s="146">
+      <c r="M15" s="144">
         <f t="shared" si="4"/>
         <v>0.14350679753146059</v>
       </c>
       <c r="N15" s="15"/>
     </row>
     <row r="16" spans="1:14" s="6" customFormat="1" ht="24.95" customHeight="1" thickBot="1">
-      <c r="A16" s="104" t="s">
-        <v>53</v>
+      <c r="A16" s="102" t="s">
+        <v>39</v>
       </c>
       <c r="B16" s="90">
         <f>IFERROR(B13/'1.IS'!B22,"")</f>
@@ -7177,54 +6635,54 @@
       <c r="N16" s="16"/>
     </row>
     <row r="17" spans="1:14" s="6" customFormat="1" ht="24.95" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A17" s="190" t="s">
-        <v>54</v>
-      </c>
-      <c r="B17" s="147">
+      <c r="A17" s="188" t="s">
+        <v>40</v>
+      </c>
+      <c r="B17" s="145">
         <f>IFERROR(VALUE(VLOOKUP("Net Change in Cash*",'8.TIKR_CF'!$A:$H,COLUMN(B17),FALSE)),"0")</f>
         <v>4283</v>
       </c>
-      <c r="C17" s="147">
+      <c r="C17" s="145">
         <f>IFERROR(VALUE(VLOOKUP("Net Change in Cash*",'8.TIKR_CF'!$A:$H,COLUMN(C17),FALSE)),"0")</f>
         <v>-590</v>
       </c>
-      <c r="D17" s="147">
+      <c r="D17" s="145">
         <f>IFERROR(VALUE(VLOOKUP("Net Change in Cash*",'8.TIKR_CF'!$A:$H,COLUMN(D17),FALSE)),"0")</f>
         <v>2220</v>
       </c>
-      <c r="E17" s="147">
+      <c r="E17" s="145">
         <f>IFERROR(VALUE(VLOOKUP("Net Change in Cash*",'8.TIKR_CF'!$A:$H,COLUMN(E17),FALSE)),"0")</f>
         <v>648</v>
       </c>
-      <c r="F17" s="147">
+      <c r="F17" s="145">
         <f>IFERROR(VALUE(VLOOKUP("Net Change in Cash*",'8.TIKR_CF'!$A:$H,COLUMN(F17),FALSE)),"0")</f>
         <v>-293</v>
       </c>
-      <c r="G17" s="147">
+      <c r="G17" s="145">
         <f>IFERROR(VALUE(VLOOKUP("Net Change in Cash*",'8.TIKR_CF'!$A:$H,COLUMN(G17),FALSE)),"0")</f>
         <v>20773</v>
       </c>
-      <c r="H17" s="147">
+      <c r="H17" s="145">
         <f>IFERROR(VALUE(VLOOKUP("Net Change in Cash*",'8.TIKR_CF'!$A:$H,COLUMN(H17),FALSE)),"0")</f>
         <v>-16389</v>
       </c>
-      <c r="I17" s="233">
+      <c r="I17" s="229">
         <f>IFERROR((SUM($B17:$H17)/SUM('1.IS'!$B3:$H3))*'1.IS'!I3,"")</f>
         <v>2481.3035298205514</v>
       </c>
-      <c r="J17" s="234">
+      <c r="J17" s="230">
         <f>IFERROR((SUM($B17:$H17)/SUM('1.IS'!$B3:$H3))*'1.IS'!J3,"")</f>
         <v>2835.7780178192756</v>
       </c>
-      <c r="K17" s="234">
+      <c r="K17" s="230">
         <f>IFERROR((SUM($B17:$H17)/SUM('1.IS'!$B3:$H3))*'1.IS'!K3,"")</f>
         <v>3240.8920834157657</v>
       </c>
-      <c r="L17" s="234">
+      <c r="L17" s="230">
         <f>IFERROR((SUM($B17:$H17)/SUM('1.IS'!$B3:$H3))*'1.IS'!L3,"")</f>
         <v>3703.8800041281515</v>
       </c>
-      <c r="M17" s="235">
+      <c r="M17" s="231">
         <f>IFERROR((SUM($B17:$H17)/SUM('1.IS'!$B3:$H3))*'1.IS'!M3,"")</f>
         <v>4233.0095331410694</v>
       </c>
@@ -7246,9 +6704,9 @@
       <c r="M18" s="14"/>
       <c r="N18" s="7"/>
     </row>
-    <row r="19" spans="1:14" s="107" customFormat="1" ht="39.950000000000003" customHeight="1">
-      <c r="A19" s="110" t="s">
-        <v>55</v>
+    <row r="19" spans="1:14" s="105" customFormat="1" ht="39.950000000000003" customHeight="1">
+      <c r="A19" s="108" t="s">
+        <v>41</v>
       </c>
       <c r="B19" s="40">
         <f>'1.IS'!B$2</f>
@@ -7306,9 +6764,9 @@
     </row>
     <row r="20" spans="1:14" s="6" customFormat="1" ht="24.95" customHeight="1">
       <c r="A20" s="101" t="s">
-        <v>56</v>
-      </c>
-      <c r="B20" s="136">
+        <v>42</v>
+      </c>
+      <c r="B20" s="134">
         <f>IFERROR(ABS(B4)/'1.IS'!B$3,"")</f>
         <v>9.2977528089887643E-2</v>
       </c>
@@ -7336,7 +6794,7 @@
         <f>IFERROR(ABS(H4)/'1.IS'!H$3,"")</f>
         <v>3.5933127177487131E-2</v>
       </c>
-      <c r="I20" s="136">
+      <c r="I20" s="134">
         <f>IFERROR(ABS(I4)/'1.IS'!I$3,"")</f>
         <v>3.5933127177487131E-2</v>
       </c>
@@ -7356,16 +6814,16 @@
         <f>IFERROR(ABS(M4)/'1.IS'!M$3,"")</f>
         <v>3.5933127177487131E-2</v>
       </c>
-      <c r="N20" s="150">
+      <c r="N20" s="148">
         <f>IFERROR(AVERAGE(B20:H20),"")</f>
         <v>7.4153714507389029E-2</v>
       </c>
     </row>
     <row r="21" spans="1:14" s="6" customFormat="1" ht="24.75" customHeight="1">
       <c r="A21" s="101" t="s">
-        <v>57</v>
-      </c>
-      <c r="B21" s="136">
+        <v>43</v>
+      </c>
+      <c r="B21" s="134">
         <f>IFERROR((B7+B8-B9)/'1.IS'!B$3,"")</f>
         <v>-0.18616346502355927</v>
       </c>
@@ -7393,7 +6851,7 @@
         <f>IFERROR((H7+H8-H9)/'1.IS'!H$3,"")</f>
         <v>-0.13773957457918914</v>
       </c>
-      <c r="I21" s="136">
+      <c r="I21" s="134">
         <f>IFERROR(I10/'1.IS'!I$3,"")</f>
         <v>-0.13262361100808645</v>
       </c>
@@ -7413,16 +6871,16 @@
         <f>IFERROR(M10/'1.IS'!M$3,"")</f>
         <v>-0.11780408461187632</v>
       </c>
-      <c r="N21" s="150">
+      <c r="N21" s="148">
         <f>IFERROR(AVERAGE(B21:H21),"")</f>
         <v>-0.16822807744360327</v>
       </c>
     </row>
     <row r="22" spans="1:14" s="6" customFormat="1" ht="24.95" customHeight="1">
       <c r="A22" s="101" t="s">
-        <v>58</v>
-      </c>
-      <c r="B22" s="136">
+        <v>44</v>
+      </c>
+      <c r="B22" s="134">
         <f>IFERROR(B13/'1.IS'!B$3,"")</f>
         <v>0.13009242479159117</v>
       </c>
@@ -7450,7 +6908,7 @@
         <f>IFERROR(H13/'1.IS'!H$3,"")</f>
         <v>0.4076011129152014</v>
       </c>
-      <c r="I22" s="136">
+      <c r="I22" s="134">
         <f>IFERROR(I13/'1.IS'!I$3,"")</f>
         <v>0.37943341814445491</v>
       </c>
@@ -7470,87 +6928,87 @@
         <f>IFERROR(M13/'1.IS'!M$3,"")</f>
         <v>0.38049997925013052</v>
       </c>
-      <c r="N22" s="150">
+      <c r="N22" s="148">
         <f>IFERROR(AVERAGE(B22:H22),"")</f>
         <v>0.31867265593732391</v>
       </c>
     </row>
     <row r="23" spans="1:14" ht="24.95" customHeight="1">
       <c r="A23" s="28" t="s">
-        <v>59</v>
-      </c>
-      <c r="B23" s="149">
+        <v>45</v>
+      </c>
+      <c r="B23" s="147">
         <f t="shared" ref="B23:M23" si="5">IFERROR(B13/B3,"")</f>
         <v>0.31679869370462721</v>
       </c>
-      <c r="C23" s="148">
+      <c r="C23" s="146">
         <f t="shared" si="5"/>
         <v>0.79423875844146341</v>
       </c>
-      <c r="D23" s="148">
+      <c r="D23" s="146">
         <f t="shared" si="5"/>
         <v>0.59981750437229109</v>
       </c>
-      <c r="E23" s="148">
+      <c r="E23" s="146">
         <f t="shared" si="5"/>
         <v>0.74990809048797824</v>
       </c>
-      <c r="F23" s="148">
+      <c r="F23" s="146">
         <f t="shared" si="5"/>
         <v>0.73060924133560912</v>
       </c>
-      <c r="G23" s="148">
+      <c r="G23" s="146">
         <f t="shared" si="5"/>
         <v>0.71981950304735109</v>
       </c>
-      <c r="H23" s="148">
+      <c r="H23" s="146">
         <f t="shared" si="5"/>
         <v>0.75851806863042814</v>
       </c>
-      <c r="I23" s="149">
+      <c r="I23" s="147">
         <f t="shared" si="5"/>
         <v>0.78896683761139241</v>
       </c>
-      <c r="J23" s="148">
+      <c r="J23" s="146">
         <f t="shared" si="5"/>
         <v>0.78963673717280847</v>
       </c>
-      <c r="K23" s="148">
+      <c r="K23" s="146">
         <f t="shared" si="5"/>
         <v>0.79022289876088825</v>
       </c>
-      <c r="L23" s="148">
+      <c r="L23" s="146">
         <f t="shared" si="5"/>
         <v>0.79073578968831904</v>
       </c>
-      <c r="M23" s="148">
+      <c r="M23" s="146">
         <f t="shared" si="5"/>
         <v>0.79118456884545008</v>
       </c>
-      <c r="N23" s="151">
+      <c r="N23" s="149">
         <f>IFERROR(AVERAGE(B23:H23),"")</f>
         <v>0.66710140857424971</v>
       </c>
     </row>
     <row r="24" spans="1:14" ht="24.95" customHeight="1">
-      <c r="A24" s="104"/>
-      <c r="B24" s="105"/>
-      <c r="C24" s="105"/>
-      <c r="D24" s="105"/>
-      <c r="E24" s="105"/>
-      <c r="F24" s="105"/>
-      <c r="G24" s="105"/>
-      <c r="H24" s="105"/>
-      <c r="I24" s="105"/>
-      <c r="J24" s="105"/>
-      <c r="K24" s="105"/>
-      <c r="L24" s="105"/>
-      <c r="M24" s="105"/>
-      <c r="N24" s="106"/>
+      <c r="A24" s="102"/>
+      <c r="B24" s="103"/>
+      <c r="C24" s="103"/>
+      <c r="D24" s="103"/>
+      <c r="E24" s="103"/>
+      <c r="F24" s="103"/>
+      <c r="G24" s="103"/>
+      <c r="H24" s="103"/>
+      <c r="I24" s="103"/>
+      <c r="J24" s="103"/>
+      <c r="K24" s="103"/>
+      <c r="L24" s="103"/>
+      <c r="M24" s="103"/>
+      <c r="N24" s="104"/>
     </row>
     <row r="25" spans="1:14" ht="39.950000000000003" customHeight="1">
-      <c r="A25" s="110" t="s">
-        <v>60</v>
+      <c r="A25" s="108" t="s">
+        <v>46</v>
       </c>
       <c r="B25" s="40">
         <f>'1.IS'!B$2</f>
@@ -7590,16 +7048,16 @@
         <v>Acumulado
 2018 - 2024</v>
       </c>
-      <c r="K25" s="105"/>
-      <c r="L25" s="105"/>
-      <c r="M25" s="105"/>
-      <c r="N25" s="106"/>
+      <c r="K25" s="103"/>
+      <c r="L25" s="103"/>
+      <c r="M25" s="103"/>
+      <c r="N25" s="104"/>
     </row>
     <row r="26" spans="1:14" ht="24.95" customHeight="1">
       <c r="A26" s="101" t="s">
-        <v>61</v>
-      </c>
-      <c r="B26" s="136">
+        <v>47</v>
+      </c>
+      <c r="B26" s="134">
         <f>IFERROR(TIKR_Cálculos!B11/B13,"")</f>
         <v>9.8682175942049177</v>
       </c>
@@ -7627,56 +7085,56 @@
         <f>IFERROR(TIKR_Cálculos!H11/H13,"")</f>
         <v>0.69192889742973818</v>
       </c>
-      <c r="I26" s="196">
+      <c r="I26" s="194">
         <f>IFERROR(AVERAGE(B26:H26),"")</f>
         <v>2.1719262354096207</v>
       </c>
-      <c r="J26" s="216">
+      <c r="J26" s="214">
         <f>IFERROR(TIKR_Cálculos!I29/SUM('2.FCF'!$B$13:$H$13),"")</f>
         <v>1.0824516400857529</v>
       </c>
       <c r="K26" s="6"/>
-      <c r="L26" s="105"/>
-      <c r="M26" s="105"/>
-      <c r="N26" s="106"/>
+      <c r="L26" s="103"/>
+      <c r="M26" s="103"/>
+      <c r="N26" s="104"/>
     </row>
     <row r="27" spans="1:14" ht="24.95" customHeight="1">
       <c r="A27" s="101" t="s">
-        <v>62</v>
-      </c>
-      <c r="B27" s="136">
+        <v>48</v>
+      </c>
+      <c r="B27" s="134">
         <f>IFERROR(ABS(VALUE(VLOOKUP("Dividends Paid*",'8.TIKR_CF'!$A:$H,COLUMN(B18),FALSE)))/B13,"0")</f>
         <v>0.8845162638434213</v>
       </c>
-      <c r="C27" s="136">
+      <c r="C27" s="134">
         <f>IFERROR(ABS(VALUE(VLOOKUP("Dividends Paid*",'8.TIKR_CF'!$A:$H,COLUMN(C18),FALSE)))/C13,"0")</f>
         <v>0.31824047191114796</v>
       </c>
-      <c r="D27" s="136">
+      <c r="D27" s="134">
         <f>IFERROR(ABS(VALUE(VLOOKUP("Dividends Paid*",'8.TIKR_CF'!$A:$H,COLUMN(D18),FALSE)))/D13,"0")</f>
         <v>0.38378844349788294</v>
       </c>
-      <c r="E27" s="136">
+      <c r="E27" s="134">
         <f>IFERROR(ABS(VALUE(VLOOKUP("Dividends Paid*",'8.TIKR_CF'!$A:$H,COLUMN(E18),FALSE)))/E13,"0")</f>
         <v>0.2699774487694872</v>
       </c>
-      <c r="F27" s="136">
+      <c r="F27" s="134">
         <f>IFERROR(ABS(VALUE(VLOOKUP("Dividends Paid*",'8.TIKR_CF'!$A:$H,COLUMN(F18),FALSE)))/F13,"0")</f>
         <v>0.25368958522767016</v>
       </c>
-      <c r="G27" s="136">
+      <c r="G27" s="134">
         <f>IFERROR(ABS(VALUE(VLOOKUP("Dividends Paid*",'8.TIKR_CF'!$A:$H,COLUMN(G18),FALSE)))/G13,"0")</f>
         <v>0.2686640071643735</v>
       </c>
-      <c r="H27" s="136">
+      <c r="H27" s="134">
         <f>IFERROR(ABS(VALUE(VLOOKUP("Dividends Paid*",'8.TIKR_CF'!$A:$H,COLUMN(H18),FALSE)))/H13,"0")</f>
         <v>0.21790175354311794</v>
       </c>
-      <c r="I27" s="196">
+      <c r="I27" s="194">
         <f t="shared" ref="I27:I29" si="6">IFERROR(AVERAGE(B27:H27),"")</f>
         <v>0.37096828199387161</v>
       </c>
-      <c r="J27" s="216">
+      <c r="J27" s="214">
         <f>IFERROR(TIKR_Cálculos!I30/SUM('2.FCF'!$B$13:$H$13),"")</f>
         <v>0.29213973257989762</v>
       </c>
@@ -7684,125 +7142,125 @@
     </row>
     <row r="28" spans="1:14" ht="24.95" customHeight="1">
       <c r="A28" s="101" t="s">
-        <v>63</v>
-      </c>
-      <c r="B28" s="136">
+        <v>49</v>
+      </c>
+      <c r="B28" s="134">
         <f>IFERROR(ABS(VALUE(VLOOKUP("Common Stock Repurchased*",'8.TIKR_CF'!$A:$H,COLUMN(B19),FALSE))/B13),"0")</f>
         <v>0.74674374869401683</v>
       </c>
-      <c r="C28" s="136">
+      <c r="C28" s="134">
         <f>IFERROR(ABS(VALUE(VLOOKUP("Common Stock Repurchased*",'8.TIKR_CF'!$A:$H,COLUMN(C19),FALSE))/C13),"0")</f>
         <v>0.45032029125766165</v>
       </c>
-      <c r="D28" s="136">
+      <c r="D28" s="134">
         <f>IFERROR(ABS(VALUE(VLOOKUP("Common Stock Repurchased*",'8.TIKR_CF'!$A:$H,COLUMN(D19),FALSE))/D13),"0")</f>
         <v>0.58233817600973603</v>
       </c>
-      <c r="E28" s="136">
+      <c r="E28" s="134">
         <f>IFERROR(ABS(VALUE(VLOOKUP("Common Stock Repurchased*",'8.TIKR_CF'!$A:$H,COLUMN(E19),FALSE))/E13),"0")</f>
         <v>0.44751119390789945</v>
       </c>
-      <c r="F28" s="136">
+      <c r="F28" s="134">
         <f>IFERROR(ABS(VALUE(VLOOKUP("Common Stock Repurchased*",'8.TIKR_CF'!$A:$H,COLUMN(F19),FALSE))/F13),"0")</f>
         <v>0.45738266769252289</v>
       </c>
-      <c r="G28" s="136">
+      <c r="G28" s="134">
         <f>IFERROR(ABS(VALUE(VLOOKUP("Common Stock Repurchased*",'8.TIKR_CF'!$A:$H,COLUMN(G19),FALSE))/G13),"0")</f>
         <v>0.30183994138239845</v>
       </c>
-      <c r="H28" s="136">
+      <c r="H28" s="134">
         <f>IFERROR(ABS(VALUE(VLOOKUP("Common Stock Repurchased*",'8.TIKR_CF'!$A:$H,COLUMN(H19),FALSE))/H13),"0")</f>
         <v>0.17269196893266073</v>
       </c>
-      <c r="I28" s="196">
+      <c r="I28" s="194">
         <f t="shared" si="6"/>
         <v>0.45126114112527088</v>
       </c>
-      <c r="J28" s="216">
+      <c r="J28" s="214">
         <f>IFERROR(TIKR_Cálculos!I31/SUM('2.FCF'!$B$13:$H$13),"")</f>
         <v>0.37873031215534653</v>
       </c>
       <c r="K28" s="6"/>
     </row>
     <row r="29" spans="1:14" ht="24.95" customHeight="1">
-      <c r="A29" s="219" t="s">
-        <v>64</v>
-      </c>
-      <c r="B29" s="160">
+      <c r="A29" s="217" t="s">
+        <v>50</v>
+      </c>
+      <c r="B29" s="158">
         <f>IFERROR((ABS(VLOOKUP("Cash Acquisitions*",'8.TIKR_CF'!$A:$H,COLUMN(B20),FALSE))-IFERROR(VLOOKUP("Sales / Maturities Of Investments*",'8.TIKR_CF'!$A:$H,COLUMN(B20),FALSE),"0"))/B13,"0")</f>
         <v>-9.9637110817023053</v>
       </c>
-      <c r="C29" s="160">
+      <c r="C29" s="158">
         <f>IFERROR((ABS(VLOOKUP("Cash Acquisitions*",'8.TIKR_CF'!$A:$H,COLUMN(C20),FALSE))-IFERROR(VLOOKUP("Sales / Maturities Of Investments*",'8.TIKR_CF'!$A:$H,COLUMN(C20),FALSE),"0"))/C13,"0")</f>
         <v>-1.2869026222406563</v>
       </c>
-      <c r="D29" s="160">
+      <c r="D29" s="158">
         <f>IFERROR((ABS(VLOOKUP("Cash Acquisitions*",'8.TIKR_CF'!$A:$H,COLUMN(D20),FALSE))-IFERROR(VLOOKUP("Sales / Maturities Of Investments*",'8.TIKR_CF'!$A:$H,COLUMN(D20),FALSE),"0"))/D13,"0")</f>
         <v>-2.070155422022768</v>
       </c>
-      <c r="E29" s="160">
+      <c r="E29" s="158">
         <f>IFERROR((ABS(VLOOKUP("Cash Acquisitions*",'8.TIKR_CF'!$A:$H,COLUMN(E20),FALSE))-IFERROR(VLOOKUP("Sales / Maturities Of Investments*",'8.TIKR_CF'!$A:$H,COLUMN(E20),FALSE),"0"))/E13,"0")</f>
         <v>-0.92968264862568228</v>
       </c>
-      <c r="F29" s="160">
+      <c r="F29" s="158">
         <f>IFERROR((ABS(VLOOKUP("Cash Acquisitions*",'8.TIKR_CF'!$A:$H,COLUMN(F20),FALSE))-IFERROR(VLOOKUP("Sales / Maturities Of Investments*",'8.TIKR_CF'!$A:$H,COLUMN(F20),FALSE),"0"))/F13,"0")</f>
         <v>-0.31973141218437434</v>
       </c>
-      <c r="G29" s="160">
+      <c r="G29" s="158">
         <f>IFERROR((ABS(VLOOKUP("Cash Acquisitions*",'8.TIKR_CF'!$A:$H,COLUMN(G20),FALSE))-IFERROR(VLOOKUP("Sales / Maturities Of Investments*",'8.TIKR_CF'!$A:$H,COLUMN(G20),FALSE),"0"))/G13,"0")</f>
         <v>-0.62680127004803388</v>
       </c>
-      <c r="H29" s="160">
+      <c r="H29" s="158">
         <f>IFERROR((ABS(VLOOKUP("Cash Acquisitions*",'8.TIKR_CF'!$A:$H,COLUMN(H20),FALSE))-IFERROR(VLOOKUP("Sales / Maturities Of Investments*",'8.TIKR_CF'!$A:$H,COLUMN(H20),FALSE),"0"))/H13,"0")</f>
         <v>0.33492473376571386</v>
       </c>
-      <c r="I29" s="220">
+      <c r="I29" s="218">
         <f t="shared" si="6"/>
         <v>-2.1231513890083011</v>
       </c>
-      <c r="J29" s="217">
+      <c r="J29" s="215">
         <f>IFERROR(TIKR_Cálculos!I32/SUM('2.FCF'!$B$13:$H$13),"")</f>
         <v>-0.92450772643344858</v>
       </c>
       <c r="K29" s="4"/>
     </row>
     <row r="30" spans="1:14" ht="24.95" customHeight="1">
-      <c r="A30" s="218" t="s">
-        <v>65</v>
-      </c>
-      <c r="B30" s="106">
+      <c r="A30" s="216" t="s">
+        <v>51</v>
+      </c>
+      <c r="B30" s="104">
         <f>SUM(B26:B29)</f>
         <v>1.5357665250400512</v>
       </c>
-      <c r="C30" s="106">
+      <c r="C30" s="104">
         <f t="shared" ref="C30:J30" si="7">SUM(C26:C29)</f>
         <v>0.71687635374902081</v>
       </c>
-      <c r="D30" s="106">
+      <c r="D30" s="104">
         <f t="shared" si="7"/>
         <v>0.89906442534418529</v>
       </c>
-      <c r="E30" s="106">
+      <c r="E30" s="104">
         <f t="shared" si="7"/>
         <v>0.57146125437134365</v>
       </c>
-      <c r="F30" s="106">
+      <c r="F30" s="104">
         <f t="shared" si="7"/>
         <v>0.57921242218647273</v>
       </c>
-      <c r="G30" s="106">
+      <c r="G30" s="104">
         <f t="shared" si="7"/>
         <v>0.37720155228093022</v>
       </c>
-      <c r="H30" s="106">
+      <c r="H30" s="104">
         <f t="shared" si="7"/>
         <v>1.4174473536712306</v>
       </c>
-      <c r="I30" s="106">
+      <c r="I30" s="104">
         <f t="shared" si="7"/>
         <v>0.87100426952046206</v>
       </c>
-      <c r="J30" s="106">
+      <c r="J30" s="104">
         <f t="shared" si="7"/>
         <v>0.82881395838754834</v>
       </c>
@@ -7814,7 +7272,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:S19"/>
   <sheetViews>
@@ -7837,13 +7295,13 @@
   <sheetData>
     <row r="1" spans="1:19" ht="99.95" customHeight="1">
       <c r="B1" s="19" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="S1" s="25"/>
     </row>
     <row r="2" spans="1:19" s="6" customFormat="1" ht="39.950000000000003" customHeight="1">
-      <c r="A2" s="110" t="s">
-        <v>67</v>
+      <c r="A2" s="108" t="s">
+        <v>53</v>
       </c>
       <c r="B2" s="40">
         <f>'1.IS'!B$2</f>
@@ -7898,9 +7356,9 @@
     </row>
     <row r="3" spans="1:19" s="6" customFormat="1" ht="24.95" customHeight="1">
       <c r="A3" s="47" t="s">
-        <v>68</v>
-      </c>
-      <c r="B3" s="133">
+        <v>54</v>
+      </c>
+      <c r="B3" s="131">
         <f>IFERROR(('1.IS'!B8)*PRODUCT(1-'1.IS'!$Q$5),"")</f>
         <v>28487.550623736315</v>
       </c>
@@ -7928,7 +7386,7 @@
         <f>IFERROR('1.IS'!H8*PRODUCT(1-'1.IS'!$Q$5),"")</f>
         <v>88923.444788845227</v>
       </c>
-      <c r="I3" s="117">
+      <c r="I3" s="115">
         <f>IFERROR('1.IS'!I8*PRODUCT(1-'1.IS'!$Q$5),"")</f>
         <v>88778.913236627748</v>
       </c>
@@ -7944,7 +7402,7 @@
         <f>IFERROR('1.IS'!L8*PRODUCT(1-'1.IS'!$Q$5),"")</f>
         <v>132521.65145195054</v>
       </c>
-      <c r="M3" s="126">
+      <c r="M3" s="124">
         <f>IFERROR('1.IS'!M8*PRODUCT(1-'1.IS'!$Q$5),"")</f>
         <v>151453.45241165528</v>
       </c>
@@ -7953,38 +7411,38 @@
       <c r="S3" s="13"/>
     </row>
     <row r="4" spans="1:19" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A4" s="111" t="s">
-        <v>69</v>
-      </c>
-      <c r="B4" s="115">
+      <c r="A4" s="109" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4" s="113">
         <f>IFERROR(VALUE(VLOOKUP("Cash And Cash Equivalents*",'7.TIKR_BS'!$A:$H,COLUMN(B4),FALSE)),"0")</f>
         <v>11946</v>
       </c>
-      <c r="C4" s="115">
+      <c r="C4" s="113">
         <f>IFERROR(VALUE(VLOOKUP("Cash And Cash Equivalents*",'7.TIKR_BS'!$A:$H,COLUMN(C4),FALSE)),"0")</f>
         <v>11356</v>
       </c>
-      <c r="D4" s="115">
+      <c r="D4" s="113">
         <f>IFERROR(VALUE(VLOOKUP("Cash And Cash Equivalents*",'7.TIKR_BS'!$A:$H,COLUMN(D4),FALSE)),"0")</f>
         <v>13576</v>
       </c>
-      <c r="E4" s="115">
+      <c r="E4" s="113">
         <f>IFERROR(VALUE(VLOOKUP("Cash And Cash Equivalents*",'7.TIKR_BS'!$A:$H,COLUMN(E4),FALSE)),"0")</f>
         <v>14224</v>
       </c>
-      <c r="F4" s="115">
+      <c r="F4" s="113">
         <f>IFERROR(VALUE(VLOOKUP("Cash And Cash Equivalents*",'7.TIKR_BS'!$A:$H,COLUMN(F4),FALSE)),"0")</f>
         <v>13931</v>
       </c>
-      <c r="G4" s="115">
+      <c r="G4" s="113">
         <f>IFERROR(VALUE(VLOOKUP("Cash And Cash Equivalents*",'7.TIKR_BS'!$A:$H,COLUMN(G4),FALSE)),"0")</f>
         <v>34704</v>
       </c>
-      <c r="H4" s="115">
+      <c r="H4" s="113">
         <f>IFERROR(VALUE(VLOOKUP("Cash And Cash Equivalents*",'7.TIKR_BS'!$A:$H,COLUMN(H4),FALSE)),"0")</f>
         <v>18315</v>
       </c>
-      <c r="I4" s="117">
+      <c r="I4" s="115">
         <f>IFERROR(((H4+H5)+'2.FCF'!I17)*(1-(SUM($B$5:$H$5)/SUM($B$4:$H$5))),0)</f>
         <v>11149.552972649299</v>
       </c>
@@ -8000,7 +7458,7 @@
         <f>IFERROR(((K4+K5)+'2.FCF'!L17)*(1-(SUM($B$5:$H$5)/SUM($B$4:$H$5))),0)</f>
         <v>12547.393525578404</v>
       </c>
-      <c r="M4" s="126">
+      <c r="M4" s="124">
         <f>IFERROR(((L4+L5)+'2.FCF'!M17)*(1-(SUM($B$5:$H$5)/SUM($B$4:$H$5))),0)</f>
         <v>13152.377122882961</v>
       </c>
@@ -8009,38 +7467,38 @@
       <c r="S4" s="13"/>
     </row>
     <row r="5" spans="1:19" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A5" s="111" t="s">
-        <v>70</v>
-      </c>
-      <c r="B5" s="115">
+      <c r="A5" s="109" t="s">
+        <v>56</v>
+      </c>
+      <c r="B5" s="113">
         <f>IFERROR(VALUE(VLOOKUP("Total Cash And Short Term Investments*",'7.TIKR_BS'!$A:$H,COLUMN(B5),FALSE))-B4,"0")</f>
         <v>121822</v>
       </c>
-      <c r="C5" s="115">
+      <c r="C5" s="113">
         <f>IFERROR(VALUE(VLOOKUP("Total Cash And Short Term Investments*",'7.TIKR_BS'!$A:$H,COLUMN(C5),FALSE))-C4,"0")</f>
         <v>122463</v>
       </c>
-      <c r="D5" s="115">
+      <c r="D5" s="113">
         <f>IFERROR(VALUE(VLOOKUP("Total Cash And Short Term Investments*",'7.TIKR_BS'!$A:$H,COLUMN(D5),FALSE))-D4,"0")</f>
         <v>122951</v>
       </c>
-      <c r="E5" s="115">
+      <c r="E5" s="113">
         <f>IFERROR(VALUE(VLOOKUP("Total Cash And Short Term Investments*",'7.TIKR_BS'!$A:$H,COLUMN(E5),FALSE))-E4,"0")</f>
         <v>116110</v>
       </c>
-      <c r="F5" s="115">
+      <c r="F5" s="113">
         <f>IFERROR(VALUE(VLOOKUP("Total Cash And Short Term Investments*",'7.TIKR_BS'!$A:$H,COLUMN(F5),FALSE))-F4,"0")</f>
         <v>90826</v>
       </c>
-      <c r="G5" s="115">
+      <c r="G5" s="113">
         <f>IFERROR(VALUE(VLOOKUP("Total Cash And Short Term Investments*",'7.TIKR_BS'!$A:$H,COLUMN(G5),FALSE))-G4,"0")</f>
         <v>76558</v>
       </c>
-      <c r="H5" s="115">
+      <c r="H5" s="113">
         <f>IFERROR(VALUE(VLOOKUP("Total Cash And Short Term Investments*",'7.TIKR_BS'!$A:$H,COLUMN(H5),FALSE))-H4,"0")</f>
         <v>57216</v>
       </c>
-      <c r="I5" s="117">
+      <c r="I5" s="115">
         <f>IFERROR(((H4+H5)+'2.FCF'!I17)*(SUM($B$5:$H$5)/SUM($B$4:$H$5)),0)</f>
         <v>66862.750557171254</v>
       </c>
@@ -8056,7 +7514,7 @@
         <f>IFERROR(((K4+K5)+'2.FCF'!L17)*(SUM($B$5:$H$5)/SUM($B$4:$H$5)),0)</f>
         <v>75245.460109605337</v>
       </c>
-      <c r="M5" s="126">
+      <c r="M5" s="124">
         <f>IFERROR(((L4+L5)+'2.FCF'!M17)*(SUM($B$5:$H$5)/SUM($B$4:$H$5)),0)</f>
         <v>78873.486045441852</v>
       </c>
@@ -8065,38 +7523,38 @@
       <c r="S5" s="13"/>
     </row>
     <row r="6" spans="1:19" s="6" customFormat="1" ht="24.75" customHeight="1">
-      <c r="A6" s="111" t="s">
-        <v>71</v>
-      </c>
-      <c r="B6" s="257">
+      <c r="A6" s="109" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" s="253">
         <f>IFERROR(VALUE(VLOOKUP("Short Term Debt*",'7.TIKR_BS'!$A:$H,COLUMN(B6),FALSE)),"0")+IFERROR(VALUE(VLOOKUP("Other Current Liabilities*",'7.TIKR_BS'!$A:$H,COLUMN(B6),FALSE)),"0")</f>
         <v>20966</v>
       </c>
-      <c r="C6" s="257">
+      <c r="C6" s="253">
         <f>IFERROR(VALUE(VLOOKUP("Short Term Debt*",'7.TIKR_BS'!$A:$H,COLUMN(C6),FALSE)),"0")+IFERROR(VALUE(VLOOKUP("Other Current Liabilities*",'7.TIKR_BS'!$A:$H,COLUMN(C6),FALSE)),"0")</f>
         <v>27362</v>
       </c>
-      <c r="D6" s="257">
+      <c r="D6" s="253">
         <f>IFERROR(VALUE(VLOOKUP("Short Term Debt*",'7.TIKR_BS'!$A:$H,COLUMN(D6),FALSE)),"0")+IFERROR(VALUE(VLOOKUP("Other Current Liabilities*",'7.TIKR_BS'!$A:$H,COLUMN(D6),FALSE)),"0")</f>
         <v>23780</v>
       </c>
-      <c r="E6" s="257">
+      <c r="E6" s="253">
         <f>IFERROR(VALUE(VLOOKUP("Short Term Debt*",'7.TIKR_BS'!$A:$H,COLUMN(E6),FALSE)),"0")+IFERROR(VALUE(VLOOKUP("Other Current Liabilities*",'7.TIKR_BS'!$A:$H,COLUMN(E6),FALSE)),"0")</f>
         <v>31969</v>
       </c>
-      <c r="F6" s="257">
+      <c r="F6" s="253">
         <f>IFERROR(VALUE(VLOOKUP("Short Term Debt*",'7.TIKR_BS'!$A:$H,COLUMN(F6),FALSE)),"0")+IFERROR(VALUE(VLOOKUP("Other Current Liabilities*",'7.TIKR_BS'!$A:$H,COLUMN(F6),FALSE)),"0")</f>
         <v>30544</v>
       </c>
-      <c r="G6" s="257">
+      <c r="G6" s="253">
         <f>IFERROR(VALUE(VLOOKUP("Short Term Debt*",'7.TIKR_BS'!$A:$H,COLUMN(G6),FALSE)),"0")+IFERROR(VALUE(VLOOKUP("Other Current Liabilities*",'7.TIKR_BS'!$A:$H,COLUMN(G6),FALSE)),"0")</f>
         <v>35153</v>
       </c>
-      <c r="H6" s="257">
+      <c r="H6" s="253">
         <f>IFERROR(VALUE(VLOOKUP("Short Term Debt*",'7.TIKR_BS'!$A:$H,COLUMN(H6),FALSE)),"0")+IFERROR(VALUE(VLOOKUP("Other Current Liabilities*",'7.TIKR_BS'!$A:$H,COLUMN(H6),FALSE)),"0")</f>
         <v>40691</v>
       </c>
-      <c r="I6" s="117">
+      <c r="I6" s="115">
         <f>IFERROR(IF((I4+I5+'4.Valoración'!I4)*TIKR_Cálculos!$B$17&gt;0,(I4+I5+'4.Valoración'!I4)*TIKR_Cálculos!$B$17,0),"0")</f>
         <v>21876.752220810296</v>
       </c>
@@ -8112,7 +7570,7 @@
         <f>IFERROR(IF((L4+L5+'4.Valoración'!L4)*TIKR_Cálculos!$B$17&gt;0,(L4+L5+'4.Valoración'!L4)*TIKR_Cálculos!$B$17,0),"0")</f>
         <v>26326.829656463909</v>
       </c>
-      <c r="M6" s="126">
+      <c r="M6" s="124">
         <f>IFERROR(IF((M4+M5+'4.Valoración'!M4)*TIKR_Cálculos!$B$17&gt;0,(M4+M5+'4.Valoración'!M4)*TIKR_Cálculos!$B$17,0),"0")</f>
         <v>28252.817459338952</v>
       </c>
@@ -8121,38 +7579,38 @@
       <c r="S6" s="13"/>
     </row>
     <row r="7" spans="1:19" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A7" s="111" t="s">
-        <v>72</v>
-      </c>
-      <c r="B7" s="115">
+      <c r="A7" s="109" t="s">
+        <v>58</v>
+      </c>
+      <c r="B7" s="113">
         <f>IFERROR(VALUE(VLOOKUP("Long Term Debt*",'7.TIKR_BS'!$A:$H,COLUMN(B7),FALSE)),"0")+IFERROR(VALUE(VLOOKUP("Other Non Current Liabilities*",'7.TIKR_BS'!$A:$H,COLUMN(B7),FALSE)),"0")</f>
         <v>113286</v>
       </c>
-      <c r="C7" s="115">
+      <c r="C7" s="113">
         <f>IFERROR(VALUE(VLOOKUP("Long Term Debt*",'7.TIKR_BS'!$A:$H,COLUMN(C7),FALSE)),"0")+IFERROR(VALUE(VLOOKUP("Other Non Current Liabilities*",'7.TIKR_BS'!$A:$H,COLUMN(C7),FALSE)),"0")</f>
         <v>110043</v>
       </c>
-      <c r="D7" s="115">
+      <c r="D7" s="113">
         <f>IFERROR(VALUE(VLOOKUP("Long Term Debt*",'7.TIKR_BS'!$A:$H,COLUMN(D7),FALSE)),"0")+IFERROR(VALUE(VLOOKUP("Other Non Current Liabilities*",'7.TIKR_BS'!$A:$H,COLUMN(D7),FALSE)),"0")</f>
         <v>107313</v>
       </c>
-      <c r="E7" s="115">
+      <c r="E7" s="113">
         <f>IFERROR(VALUE(VLOOKUP("Long Term Debt*",'7.TIKR_BS'!$A:$H,COLUMN(E7),FALSE)),"0")+IFERROR(VALUE(VLOOKUP("Other Non Current Liabilities*",'7.TIKR_BS'!$A:$H,COLUMN(E7),FALSE)),"0")</f>
         <v>100320</v>
       </c>
-      <c r="F7" s="115">
+      <c r="F7" s="113">
         <f>IFERROR(VALUE(VLOOKUP("Long Term Debt*",'7.TIKR_BS'!$A:$H,COLUMN(F7),FALSE)),"0")+IFERROR(VALUE(VLOOKUP("Other Non Current Liabilities*",'7.TIKR_BS'!$A:$H,COLUMN(F7),FALSE)),"0")</f>
         <v>100116</v>
       </c>
-      <c r="G7" s="115">
+      <c r="G7" s="113">
         <f>IFERROR(VALUE(VLOOKUP("Long Term Debt*",'7.TIKR_BS'!$A:$H,COLUMN(G7),FALSE)),"0")+IFERROR(VALUE(VLOOKUP("Other Non Current Liabilities*",'7.TIKR_BS'!$A:$H,COLUMN(G7),FALSE)),"0")</f>
         <v>98259</v>
       </c>
-      <c r="H7" s="115">
+      <c r="H7" s="113">
         <f>IFERROR(VALUE(VLOOKUP("Long Term Debt*",'7.TIKR_BS'!$A:$H,COLUMN(H7),FALSE)),"0")+IFERROR(VALUE(VLOOKUP("Other Non Current Liabilities*",'7.TIKR_BS'!$A:$H,COLUMN(H7),FALSE)),"0")</f>
         <v>113180</v>
       </c>
-      <c r="I7" s="117">
+      <c r="I7" s="115">
         <f>IFERROR(IF((I4+I5+'4.Valoración'!I4)*TIKR_Cálculos!$B$18&gt;0,(I4+I5+'4.Valoración'!I4)*TIKR_Cálculos!$B$18,0),"0")</f>
         <v>77180.815949157346</v>
       </c>
@@ -8168,7 +7626,7 @@
         <f>IFERROR(IF((L4+L5+'4.Valoración'!L4)*TIKR_Cálculos!$B$18&gt;0,(L4+L5+'4.Valoración'!L4)*TIKR_Cálculos!$B$18,0),"0")</f>
         <v>92880.614715171716</v>
       </c>
-      <c r="M7" s="126">
+      <c r="M7" s="124">
         <f>IFERROR(IF((M4+M5+'4.Valoración'!M4)*TIKR_Cálculos!$B$18&gt;0,(M4+M5+'4.Valoración'!M4)*TIKR_Cálculos!$B$18,0),"0")</f>
         <v>99675.467471817086</v>
       </c>
@@ -8180,38 +7638,38 @@
       <c r="S7" s="12"/>
     </row>
     <row r="8" spans="1:19" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A8" s="111" t="s">
-        <v>73</v>
-      </c>
-      <c r="B8" s="115">
+      <c r="A8" s="109" t="s">
+        <v>59</v>
+      </c>
+      <c r="B8" s="113">
         <f>IFERROR(VALUE(VLOOKUP("Other Current Liabilities*",'7.TIKR_BS'!$A:$H,COLUMN(B8),FALSE)),"0")</f>
         <v>16968</v>
       </c>
-      <c r="C8" s="115">
+      <c r="C8" s="113">
         <f>IFERROR(VALUE(VLOOKUP("Other Current Liabilities*",'7.TIKR_BS'!$A:$H,COLUMN(C8),FALSE)),"0")</f>
         <v>21846</v>
       </c>
-      <c r="D8" s="115">
+      <c r="D8" s="113">
         <f>IFERROR(VALUE(VLOOKUP("Other Current Liabilities*",'7.TIKR_BS'!$A:$H,COLUMN(D8),FALSE)),"0")</f>
         <v>20031</v>
       </c>
-      <c r="E8" s="115">
+      <c r="E8" s="113">
         <f>IFERROR(VALUE(VLOOKUP("Other Current Liabilities*",'7.TIKR_BS'!$A:$H,COLUMN(E8),FALSE)),"0")</f>
         <v>23897</v>
       </c>
-      <c r="F8" s="115">
+      <c r="F8" s="113">
         <f>IFERROR(VALUE(VLOOKUP("Other Current Liabilities*",'7.TIKR_BS'!$A:$H,COLUMN(F8),FALSE)),"0")</f>
         <v>27795</v>
       </c>
-      <c r="G8" s="115">
+      <c r="G8" s="113">
         <f>IFERROR(VALUE(VLOOKUP("Other Current Liabilities*",'7.TIKR_BS'!$A:$H,COLUMN(G8),FALSE)),"0")</f>
         <v>29906</v>
       </c>
-      <c r="H8" s="115">
+      <c r="H8" s="113">
         <f>IFERROR(VALUE(VLOOKUP("Other Current Liabilities*",'7.TIKR_BS'!$A:$H,COLUMN(H8),FALSE)),"0")</f>
         <v>31749</v>
       </c>
-      <c r="I8" s="117">
+      <c r="I8" s="115">
         <f>IFERROR(H8*'1.IS'!$Q$3+H8,"")</f>
         <v>36284.604122678778</v>
       </c>
@@ -8227,7 +7685,7 @@
         <f>IFERROR(K8*'1.IS'!$Q$3+K8,"")</f>
         <v>54162.587548253417</v>
       </c>
-      <c r="M8" s="126">
+      <c r="M8" s="124">
         <f>IFERROR(L8*'1.IS'!$Q$3+L8,"")</f>
         <v>61900.155830051532</v>
       </c>
@@ -8239,38 +7697,38 @@
       <c r="S8" s="12"/>
     </row>
     <row r="9" spans="1:19" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A9" s="111" t="s">
-        <v>74</v>
-      </c>
-      <c r="B9" s="115">
+      <c r="A9" s="109" t="s">
+        <v>60</v>
+      </c>
+      <c r="B9" s="113">
         <f>IFERROR(VALUE(VLOOKUP("Other Non Current Liabilities*",'7.TIKR_BS'!$A:$H,COLUMN(B9),FALSE)),"0")</f>
         <v>35476</v>
       </c>
-      <c r="C9" s="115">
+      <c r="C9" s="113">
         <f>IFERROR(VALUE(VLOOKUP("Other Non Current Liabilities*",'7.TIKR_BS'!$A:$H,COLUMN(C9),FALSE)),"0")</f>
         <v>37193</v>
       </c>
-      <c r="D9" s="115">
+      <c r="D9" s="113">
         <f>IFERROR(VALUE(VLOOKUP("Other Non Current Liabilities*",'7.TIKR_BS'!$A:$H,COLUMN(D9),FALSE)),"0")</f>
         <v>40064</v>
       </c>
-      <c r="E9" s="115">
+      <c r="E9" s="113">
         <f>IFERROR(VALUE(VLOOKUP("Other Non Current Liabilities*",'7.TIKR_BS'!$A:$H,COLUMN(E9),FALSE)),"0")</f>
         <v>40617</v>
       </c>
-      <c r="F9" s="115">
+      <c r="F9" s="113">
         <f>IFERROR(VALUE(VLOOKUP("Other Non Current Liabilities*",'7.TIKR_BS'!$A:$H,COLUMN(F9),FALSE)),"0")</f>
         <v>41595</v>
       </c>
-      <c r="G9" s="115">
+      <c r="G9" s="113">
         <f>IFERROR(VALUE(VLOOKUP("Other Non Current Liabilities*",'7.TIKR_BS'!$A:$H,COLUMN(G9),FALSE)),"0")</f>
         <v>43541</v>
       </c>
-      <c r="H9" s="115">
+      <c r="H9" s="113">
         <f>IFERROR(VALUE(VLOOKUP("Other Non Current Liabilities*",'7.TIKR_BS'!$A:$H,COLUMN(H9),FALSE)),"0")</f>
         <v>54995</v>
       </c>
-      <c r="I9" s="117">
+      <c r="I9" s="115">
         <f>IFERROR(H9*'1.IS'!$Q$3+H9,"")</f>
         <v>62851.485203525132</v>
       </c>
@@ -8286,7 +7744,7 @@
         <f>IFERROR(K9*'1.IS'!$Q$3+K9,"")</f>
         <v>93819.380207760769</v>
       </c>
-      <c r="M9" s="126">
+      <c r="M9" s="124">
         <f>IFERROR(L9*'1.IS'!$Q$3+L9,"")</f>
         <v>107222.24542107419</v>
       </c>
@@ -8298,38 +7756,38 @@
       <c r="S9" s="12"/>
     </row>
     <row r="10" spans="1:19" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A10" s="111" t="s">
-        <v>75</v>
-      </c>
-      <c r="B10" s="115">
+      <c r="A10" s="109" t="s">
+        <v>61</v>
+      </c>
+      <c r="B10" s="113">
         <f>IFERROR(VALUE(VLOOKUP("Total Stockholders Equity*",'7.TIKR_BS'!$A:$H,COLUMN(B10),FALSE)),"0")</f>
         <v>82718</v>
       </c>
-      <c r="C10" s="115">
+      <c r="C10" s="113">
         <f>IFERROR(VALUE(VLOOKUP("Total Stockholders Equity*",'7.TIKR_BS'!$A:$H,COLUMN(C10),FALSE)),"0")</f>
         <v>102330</v>
       </c>
-      <c r="D10" s="115">
+      <c r="D10" s="113">
         <f>IFERROR(VALUE(VLOOKUP("Total Stockholders Equity*",'7.TIKR_BS'!$A:$H,COLUMN(D10),FALSE)),"0")</f>
         <v>118304</v>
       </c>
-      <c r="E10" s="115">
+      <c r="E10" s="113">
         <f>IFERROR(VALUE(VLOOKUP("Total Stockholders Equity*",'7.TIKR_BS'!$A:$H,COLUMN(E10),FALSE)),"0")</f>
         <v>141988</v>
       </c>
-      <c r="F10" s="115">
+      <c r="F10" s="113">
         <f>IFERROR(VALUE(VLOOKUP("Total Stockholders Equity*",'7.TIKR_BS'!$A:$H,COLUMN(F10),FALSE)),"0")</f>
         <v>166542</v>
       </c>
-      <c r="G10" s="115">
+      <c r="G10" s="113">
         <f>IFERROR(VALUE(VLOOKUP("Total Stockholders Equity*",'7.TIKR_BS'!$A:$H,COLUMN(G10),FALSE)),"0")</f>
         <v>206223</v>
       </c>
-      <c r="H10" s="115">
+      <c r="H10" s="113">
         <f>IFERROR(VALUE(VLOOKUP("Total Stockholders Equity*",'7.TIKR_BS'!$A:$H,COLUMN(H10),FALSE)),"0")</f>
         <v>268477</v>
       </c>
-      <c r="I10" s="117">
+      <c r="I10" s="115">
         <f>IFERROR(H10*'1.IS'!$Q$3+H10,"")</f>
         <v>306831.13361190684</v>
       </c>
@@ -8345,7 +7803,7 @@
         <f>IFERROR(K10*'1.IS'!$Q$3+K10,"")</f>
         <v>458011.55996070529</v>
       </c>
-      <c r="M10" s="126">
+      <c r="M10" s="124">
         <f>IFERROR(L10*'1.IS'!$Q$3+L10,"")</f>
         <v>523442.25445792766</v>
       </c>
@@ -8357,54 +7815,54 @@
       <c r="S10" s="12"/>
     </row>
     <row r="11" spans="1:19" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A11" s="152" t="s">
-        <v>76</v>
-      </c>
-      <c r="B11" s="159">
+      <c r="A11" s="150" t="s">
+        <v>62</v>
+      </c>
+      <c r="B11" s="157">
         <f t="shared" ref="B11:H11" si="0">B10+B6+B7+B8+B9-B5</f>
         <v>147592</v>
       </c>
-      <c r="C11" s="153">
+      <c r="C11" s="151">
         <f t="shared" si="0"/>
         <v>176311</v>
       </c>
-      <c r="D11" s="153">
+      <c r="D11" s="151">
         <f t="shared" si="0"/>
         <v>186541</v>
       </c>
-      <c r="E11" s="153">
+      <c r="E11" s="151">
         <f t="shared" si="0"/>
         <v>222681</v>
       </c>
-      <c r="F11" s="153">
+      <c r="F11" s="151">
         <f t="shared" si="0"/>
         <v>275766</v>
       </c>
-      <c r="G11" s="153">
+      <c r="G11" s="151">
         <f t="shared" si="0"/>
         <v>336524</v>
       </c>
-      <c r="H11" s="157">
+      <c r="H11" s="155">
         <f t="shared" si="0"/>
         <v>451876</v>
       </c>
-      <c r="I11" s="158">
+      <c r="I11" s="156">
         <f>IFERROR(I10+I6+I7+I8+I9-I5,"")</f>
         <v>438162.04055090714</v>
       </c>
-      <c r="J11" s="154">
+      <c r="J11" s="152">
         <f>IFERROR(J10+J6+J7+J8+J9-J5,"")</f>
         <v>499569.55486478715</v>
       </c>
-      <c r="K11" s="154">
+      <c r="K11" s="152">
         <f>IFERROR(K10+K6+K7+K8+K9-K5,"")</f>
         <v>569749.63445900637</v>
       </c>
-      <c r="L11" s="154">
+      <c r="L11" s="152">
         <f>IFERROR(L10+L6+L7+L8+L9-L5,"")</f>
         <v>649955.51197874977</v>
       </c>
-      <c r="M11" s="155">
+      <c r="M11" s="153">
         <f>IFERROR(M10+M6+M7+M8+M9-M5,"")</f>
         <v>741619.45459476754</v>
       </c>
@@ -8415,7 +7873,7 @@
       <c r="R11" s="80"/>
       <c r="S11" s="12"/>
     </row>
-    <row r="12" spans="1:19" s="162" customFormat="1" ht="30" customHeight="1">
+    <row r="12" spans="1:19" s="160" customFormat="1" ht="30" customHeight="1">
       <c r="A12" s="4"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
@@ -8436,9 +7894,9 @@
       <c r="R12" s="5"/>
       <c r="S12" s="23"/>
     </row>
-    <row r="13" spans="1:19" s="163" customFormat="1" ht="39.950000000000003" customHeight="1">
+    <row r="13" spans="1:19" s="161" customFormat="1" ht="39.950000000000003" customHeight="1">
       <c r="A13" s="44" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="B13" s="45">
         <f>'1.IS'!B$2</f>
@@ -8495,10 +7953,10 @@
       </c>
     </row>
     <row r="14" spans="1:19" s="50" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A14" s="227" t="s">
-        <v>78</v>
-      </c>
-      <c r="B14" s="136">
+      <c r="A14" s="224" t="s">
+        <v>64</v>
+      </c>
+      <c r="B14" s="134">
         <f>IFERROR('1.IS'!B18/B10,"")</f>
         <v>0.1735656084528156</v>
       </c>
@@ -8526,7 +7984,7 @@
         <f>IFERROR('1.IS'!H18/H10,"")</f>
         <v>0.31734934463659831</v>
       </c>
-      <c r="I14" s="113">
+      <c r="I14" s="111">
         <f>IFERROR('1.IS'!I18/I10,"")</f>
         <v>0.28517195858717409</v>
       </c>
@@ -8546,20 +8004,20 @@
         <f>IFERROR('1.IS'!M18/M10,"")</f>
         <v>0.28614573880427058</v>
       </c>
-      <c r="N14" s="150">
+      <c r="N14" s="148">
         <f>IFERROR(AVERAGE(B14:H14),"")</f>
         <v>0.33944260879742211</v>
       </c>
-      <c r="O14" s="191"/>
-      <c r="P14" s="191"/>
-      <c r="Q14" s="191"/>
-      <c r="R14" s="191"/>
+      <c r="O14" s="189"/>
+      <c r="P14" s="189"/>
+      <c r="Q14" s="189"/>
+      <c r="R14" s="189"/>
     </row>
     <row r="15" spans="1:19" s="50" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A15" s="143" t="s">
-        <v>79</v>
-      </c>
-      <c r="B15" s="136">
+      <c r="A15" s="141" t="s">
+        <v>65</v>
+      </c>
+      <c r="B15" s="134">
         <f t="shared" ref="B15:M15" si="1">IFERROR(B3/B11,"")</f>
         <v>0.19301554707393567</v>
       </c>
@@ -8587,7 +8045,7 @@
         <f t="shared" si="1"/>
         <v>0.19678727081952843</v>
       </c>
-      <c r="I15" s="113">
+      <c r="I15" s="111">
         <f t="shared" si="1"/>
         <v>0.20261662357835655</v>
       </c>
@@ -8607,81 +8065,81 @@
         <f t="shared" si="1"/>
         <v>0.20421990209845806</v>
       </c>
-      <c r="N15" s="150">
+      <c r="N15" s="148">
         <f>IFERROR(AVERAGE(B15:H15),"")</f>
         <v>0.2190093870732138</v>
       </c>
-      <c r="O15" s="191"/>
-      <c r="P15" s="191"/>
-      <c r="Q15" s="191"/>
-      <c r="R15" s="191"/>
+      <c r="O15" s="189"/>
+      <c r="P15" s="189"/>
+      <c r="Q15" s="189"/>
+      <c r="R15" s="189"/>
     </row>
     <row r="16" spans="1:19" s="50" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A16" s="192" t="s">
-        <v>80</v>
-      </c>
-      <c r="B16" s="160">
+      <c r="A16" s="190" t="s">
+        <v>66</v>
+      </c>
+      <c r="B16" s="158">
         <f>IFERROR(TIKR_Cálculos!B11/'2.FCF'!B13,"")</f>
         <v>9.8682175942049177</v>
       </c>
-      <c r="C16" s="156">
+      <c r="C16" s="154">
         <f>IFERROR(TIKR_Cálculos!C11/'2.FCF'!C13,"")</f>
         <v>1.2352182128208673</v>
       </c>
-      <c r="D16" s="156">
+      <c r="D16" s="154">
         <f>IFERROR(TIKR_Cálculos!D11/'2.FCF'!D13,"")</f>
         <v>2.0030932278593343</v>
       </c>
-      <c r="E16" s="156">
+      <c r="E16" s="154">
         <f>IFERROR(TIKR_Cálculos!E11/'2.FCF'!E13,"")</f>
         <v>0.78365526031963917</v>
       </c>
-      <c r="F16" s="156">
+      <c r="F16" s="154">
         <f>IFERROR(TIKR_Cálculos!F11/'2.FCF'!F13,"")</f>
         <v>0.187871581450654</v>
       </c>
-      <c r="G16" s="156">
+      <c r="G16" s="154">
         <f>IFERROR(TIKR_Cálculos!G11/'2.FCF'!G13,"")</f>
         <v>0.43349887378219221</v>
       </c>
-      <c r="H16" s="156">
+      <c r="H16" s="154">
         <f>IFERROR(TIKR_Cálculos!H11/'2.FCF'!H13,"")</f>
         <v>0.69192889742973818</v>
       </c>
-      <c r="I16" s="129"/>
-      <c r="J16" s="156"/>
-      <c r="K16" s="156"/>
-      <c r="L16" s="156"/>
-      <c r="M16" s="156"/>
-      <c r="N16" s="161">
+      <c r="I16" s="127"/>
+      <c r="J16" s="154"/>
+      <c r="K16" s="154"/>
+      <c r="L16" s="154"/>
+      <c r="M16" s="154"/>
+      <c r="N16" s="159">
         <f>IFERROR(AVERAGE(B16:H16),"")</f>
         <v>2.1719262354096207</v>
       </c>
-      <c r="O16" s="191"/>
-      <c r="P16" s="191"/>
-      <c r="Q16" s="191"/>
-      <c r="R16" s="191"/>
+      <c r="O16" s="189"/>
+      <c r="P16" s="189"/>
+      <c r="Q16" s="189"/>
+      <c r="R16" s="189"/>
     </row>
     <row r="17" spans="1:13" ht="37.5" customHeight="1">
-      <c r="A17" s="162"/>
-      <c r="B17" s="194"/>
-      <c r="C17" s="194"/>
-      <c r="D17" s="194"/>
-      <c r="E17" s="194"/>
-      <c r="F17" s="195"/>
-      <c r="G17" s="195"/>
-      <c r="H17" s="194"/>
+      <c r="A17" s="160"/>
+      <c r="B17" s="192"/>
+      <c r="C17" s="192"/>
+      <c r="D17" s="192"/>
+      <c r="E17" s="192"/>
+      <c r="F17" s="193"/>
+      <c r="G17" s="193"/>
+      <c r="H17" s="192"/>
     </row>
     <row r="18" spans="1:13">
-      <c r="I18" s="193"/>
-      <c r="M18" s="193"/>
+      <c r="I18" s="191"/>
+      <c r="M18" s="191"/>
     </row>
     <row r="19" spans="1:13">
-      <c r="I19" s="193"/>
-      <c r="J19" s="193"/>
-      <c r="K19" s="193"/>
-      <c r="L19" s="193"/>
-      <c r="M19" s="193"/>
+      <c r="I19" s="191"/>
+      <c r="J19" s="191"/>
+      <c r="K19" s="191"/>
+      <c r="L19" s="191"/>
+      <c r="M19" s="191"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8690,7 +8148,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:XFB42"/>
   <sheetViews>
@@ -8711,13 +8169,13 @@
   <sheetData>
     <row r="1" spans="1:14" ht="90" customHeight="1">
       <c r="B1" s="19" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="N1" s="26"/>
     </row>
     <row r="2" spans="1:14" s="6" customFormat="1" ht="39.950000000000003" customHeight="1">
-      <c r="A2" s="110" t="s">
-        <v>82</v>
+      <c r="A2" s="108" t="s">
+        <v>68</v>
       </c>
       <c r="B2" s="40">
         <f>'1.IS'!B$2</f>
@@ -8770,9 +8228,9 @@
     </row>
     <row r="3" spans="1:14" s="6" customFormat="1" ht="24.95" customHeight="1">
       <c r="A3" s="47" t="s">
-        <v>83</v>
-      </c>
-      <c r="B3" s="133"/>
+        <v>69</v>
+      </c>
+      <c r="B3" s="131"/>
       <c r="C3" s="84"/>
       <c r="D3" s="84"/>
       <c r="E3" s="84"/>
@@ -8782,7 +8240,7 @@
         <f>$D$12*'1.IS'!H22</f>
         <v>2935317</v>
       </c>
-      <c r="I3" s="117">
+      <c r="I3" s="115">
         <f>IFERROR($D$12*'1.IS'!I22,"")</f>
         <v>2914569.6617401862</v>
       </c>
@@ -8798,17 +8256,17 @@
         <f>IFERROR($D$12*'1.IS'!L22,"")</f>
         <v>2853203.3832884789</v>
       </c>
-      <c r="M3" s="138">
+      <c r="M3" s="136">
         <f>IFERROR($D$12*'1.IS'!M22,"")</f>
         <v>2833036.438554015</v>
       </c>
-      <c r="N3" s="107"/>
+      <c r="N3" s="105"/>
     </row>
     <row r="4" spans="1:14" s="6" customFormat="1" ht="24.95" customHeight="1" thickBot="1">
       <c r="A4" s="47" t="s">
-        <v>84</v>
-      </c>
-      <c r="B4" s="133">
+        <v>70</v>
+      </c>
+      <c r="B4" s="131">
         <f>('3.ROIC'!B7+'3.ROIC'!B6)-('3.ROIC'!B4+'3.ROIC'!B5)</f>
         <v>484</v>
       </c>
@@ -8836,7 +8294,7 @@
         <f>('3.ROIC'!H7+'3.ROIC'!H6)-('3.ROIC'!H4+'3.ROIC'!H5)</f>
         <v>78340</v>
       </c>
-      <c r="I4" s="117">
+      <c r="I4" s="115">
         <f>IFERROR(I5*'1.IS'!I5,"")</f>
         <v>21045.264640147088</v>
       </c>
@@ -8852,17 +8310,17 @@
         <f>IFERROR(L5*'1.IS'!L5,"")</f>
         <v>31414.590736451879</v>
       </c>
-      <c r="M4" s="126">
+      <c r="M4" s="124">
         <f>IFERROR(M5*'1.IS'!M5,"")</f>
         <v>35902.421762831218</v>
       </c>
-      <c r="N4" s="107"/>
+      <c r="N4" s="105"/>
     </row>
     <row r="5" spans="1:14" s="6" customFormat="1" ht="24.95" customHeight="1" thickTop="1" thickBot="1">
       <c r="A5" s="101" t="s">
-        <v>85</v>
-      </c>
-      <c r="B5" s="167">
+        <v>71</v>
+      </c>
+      <c r="B5" s="165">
         <f>IFERROR('4.Valoración'!B4/'1.IS'!B5,"")</f>
         <v>1.0679847304662503E-2</v>
       </c>
@@ -8886,70 +8344,70 @@
         <f>IFERROR('4.Valoración'!G4/'1.IS'!G5,"")</f>
         <v>0.21634239724957025</v>
       </c>
-      <c r="H5" s="108">
+      <c r="H5" s="106">
         <f>IFERROR('4.Valoración'!H4/'1.IS'!H5,"")</f>
         <v>0.59474643182508347</v>
       </c>
-      <c r="I5" s="240">
+      <c r="I5" s="236">
         <f>IFERROR(AVERAGE('4.Valoración'!B5:H5),"")</f>
         <v>0.15620787784802864</v>
       </c>
-      <c r="J5" s="241">
+      <c r="J5" s="237">
         <f>I5</f>
         <v>0.15620787784802864</v>
       </c>
-      <c r="K5" s="241">
+      <c r="K5" s="237">
         <f t="shared" ref="K5:M5" si="0">J5</f>
         <v>0.15620787784802864</v>
       </c>
-      <c r="L5" s="241">
+      <c r="L5" s="237">
         <f t="shared" si="0"/>
         <v>0.15620787784802864</v>
       </c>
-      <c r="M5" s="242">
+      <c r="M5" s="238">
         <f t="shared" si="0"/>
         <v>0.15620787784802864</v>
       </c>
-      <c r="N5" s="109"/>
+      <c r="N5" s="107"/>
     </row>
     <row r="6" spans="1:14" s="6" customFormat="1" ht="24.95" customHeight="1" thickTop="1">
-      <c r="A6" s="166" t="s">
-        <v>86</v>
-      </c>
-      <c r="B6" s="159"/>
-      <c r="C6" s="153"/>
-      <c r="D6" s="153"/>
-      <c r="E6" s="153"/>
-      <c r="F6" s="153"/>
-      <c r="G6" s="153"/>
-      <c r="H6" s="153">
+      <c r="A6" s="164" t="s">
+        <v>72</v>
+      </c>
+      <c r="B6" s="157"/>
+      <c r="C6" s="151"/>
+      <c r="D6" s="151"/>
+      <c r="E6" s="151"/>
+      <c r="F6" s="151"/>
+      <c r="G6" s="151"/>
+      <c r="H6" s="151">
         <f>H3+H4</f>
         <v>3013657</v>
       </c>
-      <c r="I6" s="159">
+      <c r="I6" s="157">
         <f>IFERROR((I3+I4),"")</f>
         <v>2935614.926380333</v>
       </c>
-      <c r="J6" s="153">
+      <c r="J6" s="151">
         <f>IFERROR((J3+J4),"")</f>
         <v>2918020.7220154675</v>
       </c>
-      <c r="K6" s="153">
+      <c r="K6" s="151">
         <f>IFERROR((K3+K4),"")</f>
         <v>2901001.6283666263</v>
       </c>
-      <c r="L6" s="153">
+      <c r="L6" s="151">
         <f>IFERROR((L3+L4),"")</f>
         <v>2884617.974024931</v>
       </c>
-      <c r="M6" s="168">
+      <c r="M6" s="166">
         <f>IFERROR((M3+M4),"")</f>
         <v>2868938.8603168461</v>
       </c>
     </row>
     <row r="7" spans="1:14" s="6" customFormat="1" ht="24.95" customHeight="1">
       <c r="A7" s="20" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="B7" s="91">
         <f>'1.IS'!B5</f>
@@ -9003,7 +8461,7 @@
     </row>
     <row r="8" spans="1:14" s="6" customFormat="1" ht="24.95" customHeight="1">
       <c r="A8" s="20" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="B8" s="91">
         <f>'1.IS'!B8</f>
@@ -9057,7 +8515,7 @@
     </row>
     <row r="9" spans="1:14" s="6" customFormat="1" ht="24.95" customHeight="1">
       <c r="A9" s="20" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="B9" s="91">
         <f>'1.IS'!B18</f>
@@ -9111,7 +8569,7 @@
     </row>
     <row r="10" spans="1:14" s="6" customFormat="1" ht="24.95" customHeight="1">
       <c r="A10" s="28" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="B10" s="94">
         <f>'2.FCF'!B13</f>
@@ -9164,7 +8622,7 @@
       <c r="N10" s="29"/>
     </row>
     <row r="11" spans="1:14" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="A11" s="104"/>
+      <c r="A11" s="102"/>
       <c r="B11" s="87"/>
       <c r="C11" s="87"/>
       <c r="D11" s="87"/>
@@ -9180,12 +8638,12 @@
       <c r="N11" s="29"/>
     </row>
     <row r="12" spans="1:14" s="6" customFormat="1" ht="24.95" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A12" s="267" t="s">
-        <v>90</v>
-      </c>
-      <c r="B12" s="268"/>
-      <c r="C12" s="269"/>
-      <c r="D12" s="229">
+      <c r="A12" s="263" t="s">
+        <v>76</v>
+      </c>
+      <c r="B12" s="264"/>
+      <c r="C12" s="265"/>
+      <c r="D12" s="225">
         <v>393</v>
       </c>
       <c r="E12" s="87"/>
@@ -9215,17 +8673,17 @@
       <c r="M13" s="31"/>
     </row>
     <row r="14" spans="1:14" s="6" customFormat="1" ht="39.950000000000003" customHeight="1" thickTop="1">
-      <c r="A14" s="110" t="s">
-        <v>91</v>
-      </c>
-      <c r="B14" s="164" t="s">
-        <v>92</v>
-      </c>
-      <c r="C14" s="164" t="s">
-        <v>93</v>
-      </c>
-      <c r="D14" s="236" t="s">
-        <v>94</v>
+      <c r="A14" s="108" t="s">
+        <v>77</v>
+      </c>
+      <c r="B14" s="162" t="s">
+        <v>78</v>
+      </c>
+      <c r="C14" s="162" t="s">
+        <v>79</v>
+      </c>
+      <c r="D14" s="232" t="s">
+        <v>80</v>
       </c>
       <c r="E14" s="59"/>
       <c r="G14" s="7"/>
@@ -9237,18 +8695,18 @@
       <c r="M14" s="7"/>
     </row>
     <row r="15" spans="1:14" s="6" customFormat="1" ht="24.95" customHeight="1" thickBot="1">
-      <c r="A15" s="171" t="s">
-        <v>95</v>
-      </c>
-      <c r="B15" s="172">
+      <c r="A15" s="169" t="s">
+        <v>81</v>
+      </c>
+      <c r="B15" s="170">
         <f>IF(D12&lt;&gt;"",IFERROR(D12/'1.IS'!H20,""),"")</f>
         <v>34.451673102428373</v>
       </c>
-      <c r="C15" s="172">
+      <c r="C15" s="170">
         <f>IF(D12&lt;&gt;"",IFERROR(D12/'1.IS'!I20,""),"")</f>
         <v>33.309506386249268</v>
       </c>
-      <c r="D15" s="237">
+      <c r="D15" s="233">
         <v>25</v>
       </c>
       <c r="E15" s="60"/>
@@ -9261,18 +8719,18 @@
       <c r="M15" s="7"/>
     </row>
     <row r="16" spans="1:14" s="6" customFormat="1" ht="24.95" customHeight="1" thickBot="1">
-      <c r="A16" s="174" t="s">
-        <v>96</v>
-      </c>
-      <c r="B16" s="179">
+      <c r="A16" s="172" t="s">
+        <v>82</v>
+      </c>
+      <c r="B16" s="177">
         <f>IF(D12&lt;&gt;"",IFERROR(H6/H10,""),"")</f>
         <v>30.163113539915127</v>
       </c>
-      <c r="C16" s="179">
+      <c r="C16" s="177">
         <f>IF(D12&lt;&gt;"",IFERROR(I6/I10,""),"")</f>
         <v>27.617787219156689</v>
       </c>
-      <c r="D16" s="238">
+      <c r="D16" s="234">
         <v>28</v>
       </c>
       <c r="E16" s="61"/>
@@ -9286,9 +8744,9 @@
     </row>
     <row r="17" spans="1:14" s="6" customFormat="1" ht="24.95" customHeight="1">
       <c r="A17" s="47" t="s">
-        <v>97</v>
-      </c>
-      <c r="B17" s="173">
+        <v>83</v>
+      </c>
+      <c r="B17" s="171">
         <f>IF(D12&lt;&gt;"",IFERROR(H6/H7,""),"")</f>
         <v>22.87926662617674</v>
       </c>
@@ -9296,7 +8754,7 @@
         <f>IF(D12&lt;&gt;"",IFERROR(I6/I7,""),"")</f>
         <v>21.789518244122384</v>
       </c>
-      <c r="D17" s="237">
+      <c r="D17" s="233">
         <v>20</v>
       </c>
       <c r="E17" s="60"/>
@@ -9310,17 +8768,17 @@
     </row>
     <row r="18" spans="1:14" s="6" customFormat="1" ht="24.95" customHeight="1" thickBot="1">
       <c r="A18" s="28" t="s">
-        <v>98</v>
-      </c>
-      <c r="B18" s="181">
+        <v>84</v>
+      </c>
+      <c r="B18" s="179">
         <f>IF(D12&lt;&gt;"",IFERROR(H6/H8,""),"")</f>
         <v>27.538831979384646</v>
       </c>
-      <c r="C18" s="182">
+      <c r="C18" s="180">
         <f>IF(D12&lt;&gt;"",IFERROR(I6/I8,""),"")</f>
         <v>26.869354676691756</v>
       </c>
-      <c r="D18" s="239">
+      <c r="D18" s="235">
         <v>24</v>
       </c>
       <c r="E18" s="60"/>
@@ -9349,22 +8807,22 @@
       <c r="M19" s="7"/>
     </row>
     <row r="20" spans="1:14" s="6" customFormat="1" ht="39.950000000000003" customHeight="1">
-      <c r="A20" s="165" t="s">
-        <v>99</v>
-      </c>
-      <c r="B20" s="164" t="str">
+      <c r="A20" s="163" t="s">
+        <v>85</v>
+      </c>
+      <c r="B20" s="162" t="str">
         <f>I2</f>
         <v>2025e</v>
       </c>
-      <c r="C20" s="164" t="str">
+      <c r="C20" s="162" t="str">
         <f>J2</f>
         <v>2026e</v>
       </c>
-      <c r="D20" s="164" t="str">
+      <c r="D20" s="162" t="str">
         <f>K2</f>
         <v>2027e</v>
       </c>
-      <c r="E20" s="164" t="str">
+      <c r="E20" s="162" t="str">
         <f>L2</f>
         <v>2028e</v>
       </c>
@@ -9372,13 +8830,13 @@
         <f>M2</f>
         <v>2029e</v>
       </c>
-      <c r="H20" s="270" t="str">
+      <c r="H20" s="266" t="str">
         <f>"Retorno Anualizado"&amp;CHAR(10)&amp;"valorando por..."</f>
         <v>Retorno Anualizado
 valorando por...</v>
       </c>
-      <c r="I20" s="270"/>
-      <c r="J20" s="164" t="str">
+      <c r="I20" s="266"/>
+      <c r="J20" s="162" t="str">
         <f>"CAGR"&amp;CHAR(10)&amp;"5 años"</f>
         <v>CAGR
 5 años</v>
@@ -9388,7 +8846,7 @@
     </row>
     <row r="21" spans="1:14" s="6" customFormat="1" ht="24.95" customHeight="1" thickBot="1">
       <c r="A21" s="57" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="B21" s="16">
         <f>IF(D12&lt;&gt;"",IFERROR(IF(--I4&lt;0,(I9*$D$15-I4),IF(--I4&gt;0,I9*$D$15))/'1.IS'!I22,""),"")</f>
@@ -9406,15 +8864,15 @@
         <f>IF(D12&lt;&gt;"",IFERROR(IF(--L4&lt;0,(L9*$D$15-L4),IF(--L4&gt;0,L9*$D$15))/'1.IS'!L22,""),"")</f>
         <v>450.98736215003078</v>
       </c>
-      <c r="F21" s="169">
+      <c r="F21" s="167">
         <f>IF(D12&lt;&gt;"",IFERROR(IF(--M4&lt;0,(M9*$D$15-M4),IF(--M4&gt;0,M9*$D$15))/'1.IS'!M22,""),"")</f>
         <v>519.44127909784481</v>
       </c>
       <c r="H21" s="57" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="I21" s="57"/>
-      <c r="J21" s="170">
+      <c r="J21" s="168">
         <f>IFERROR((F21/$D$12)^(1/5)-1,"")</f>
         <v>5.7374376270141525E-2</v>
       </c>
@@ -9422,34 +8880,34 @@
       <c r="M21" s="7"/>
     </row>
     <row r="22" spans="1:14" s="6" customFormat="1" ht="24.95" customHeight="1" thickBot="1">
-      <c r="A22" s="174" t="s">
-        <v>101</v>
-      </c>
-      <c r="B22" s="175">
+      <c r="A22" s="172" t="s">
+        <v>87</v>
+      </c>
+      <c r="B22" s="173">
         <f>IF(D12&lt;&gt;"",IFERROR(((I10*$D$16)-I4)/'1.IS'!I22,""),"")</f>
         <v>398.47814500551056</v>
       </c>
-      <c r="C22" s="175">
+      <c r="C22" s="173">
         <f>IF(D12&lt;&gt;"",IFERROR(((J10*$D$16)-J4)/'1.IS'!J22,""),"")</f>
         <v>459.03799635545982</v>
       </c>
-      <c r="D22" s="175">
+      <c r="D22" s="173">
         <f>IF(D12&lt;&gt;"",IFERROR(((K10*$D$16)-K4)/'1.IS'!K22,""),"")</f>
         <v>528.74478946711747</v>
       </c>
-      <c r="E22" s="175">
+      <c r="E22" s="173">
         <f>IF(D12&lt;&gt;"",IFERROR(((L10*$D$16)-L4)/'1.IS'!L22,""),"")</f>
         <v>608.9796738652941</v>
       </c>
-      <c r="F22" s="176">
+      <c r="F22" s="174">
         <f>IF(D12&lt;&gt;"",IFERROR(((M10*$D$16)-M4)/'1.IS'!M22,""),"")</f>
         <v>701.33234395292584</v>
       </c>
-      <c r="H22" s="174" t="s">
-        <v>96</v>
-      </c>
-      <c r="I22" s="177"/>
-      <c r="J22" s="178">
+      <c r="H22" s="172" t="s">
+        <v>82</v>
+      </c>
+      <c r="I22" s="175"/>
+      <c r="J22" s="176">
         <f>IFERROR((F22/$D$12)^(1/5)-1,"")</f>
         <v>0.12280997838540397</v>
       </c>
@@ -9458,7 +8916,7 @@
     </row>
     <row r="23" spans="1:14" s="6" customFormat="1" ht="24.95" customHeight="1">
       <c r="A23" s="20" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="B23" s="16">
         <f>IF(D12&lt;&gt;"",IFERROR(((I7*$D$17)-I4)/'1.IS'!I22,""),"")</f>
@@ -9476,15 +8934,15 @@
         <f>IF(D12&lt;&gt;"",IFERROR(((L7*$D$17)-L4)/'1.IS'!L22,""),"")</f>
         <v>549.68383147103816</v>
       </c>
-      <c r="F23" s="169">
+      <c r="F23" s="167">
         <f>IF(D12&lt;&gt;"",IFERROR(((M7*$D$17)-M4)/'1.IS'!M22,""),"")</f>
         <v>632.68257115621009</v>
       </c>
       <c r="H23" s="20" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="I23" s="20"/>
-      <c r="J23" s="170">
+      <c r="J23" s="168">
         <f>IFERROR((F23/$D$12)^(1/5)-1,"")</f>
         <v>9.9913833358954429E-2</v>
       </c>
@@ -9493,7 +8951,7 @@
     </row>
     <row r="24" spans="1:14" s="6" customFormat="1" ht="24.95" customHeight="1">
       <c r="A24" s="57" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="B24" s="58">
         <f>IF(D12&lt;&gt;"",IFERROR(((I8*$D$18)-I4)/'1.IS'!I22,""),"")</f>
@@ -9511,15 +8969,15 @@
         <f>IF(D12&lt;&gt;"",IFERROR(((L8*$D$18)-L4)/'1.IS'!L22,""),"")</f>
         <v>534.79852373835456</v>
       </c>
-      <c r="F24" s="169">
+      <c r="F24" s="167">
         <f>IF(D12&lt;&gt;"",IFERROR(((M8*$D$18)-M4)/'1.IS'!M22,""),"")</f>
         <v>615.54967724597361</v>
       </c>
       <c r="H24" s="57" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="I24" s="57"/>
-      <c r="J24" s="170">
+      <c r="J24" s="168">
         <f>IFERROR((F24/$D$12)^(1/5)-1,"")</f>
         <v>9.389115698573125E-2</v>
       </c>
@@ -9527,34 +8985,34 @@
       <c r="M24" s="7"/>
     </row>
     <row r="25" spans="1:14" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A25" s="221" t="s">
-        <v>102</v>
-      </c>
-      <c r="B25" s="222">
+      <c r="A25" s="219" t="s">
+        <v>88</v>
+      </c>
+      <c r="B25" s="220">
         <f>IFERROR(AVERAGE(B21:B24),"")</f>
         <v>351.16466655088561</v>
       </c>
-      <c r="C25" s="222">
+      <c r="C25" s="220">
         <f>IFERROR(AVERAGE(C21:C24),"")</f>
         <v>404.37387893687139</v>
       </c>
-      <c r="D25" s="222">
+      <c r="D25" s="220">
         <f>IFERROR(AVERAGE(D21:D24),"")</f>
         <v>465.61866292975446</v>
       </c>
-      <c r="E25" s="222">
+      <c r="E25" s="220">
         <f>IFERROR(AVERAGE(E21:E24),"")</f>
         <v>536.1123478061794</v>
       </c>
-      <c r="F25" s="223">
+      <c r="F25" s="221">
         <f>IFERROR(AVERAGE(F21:F24),"")</f>
         <v>617.25146786323864</v>
       </c>
-      <c r="H25" s="183" t="s">
-        <v>102</v>
-      </c>
-      <c r="I25" s="184"/>
-      <c r="J25" s="185">
+      <c r="H25" s="181" t="s">
+        <v>88</v>
+      </c>
+      <c r="I25" s="182"/>
+      <c r="J25" s="183">
         <f>IFERROR(AVERAGE(J21:J24),"")</f>
         <v>9.3497336250057794E-2</v>
       </c>
@@ -9562,26 +9020,26 @@
       <c r="M25" s="7"/>
     </row>
     <row r="26" spans="1:14" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A26" s="183" t="s">
-        <v>103</v>
-      </c>
-      <c r="B26" s="224">
+      <c r="A26" s="181" t="s">
+        <v>89</v>
+      </c>
+      <c r="B26" s="222">
         <f>IFERROR((B25/$D$12)-1,"")</f>
         <v>-0.10645123015041824</v>
       </c>
-      <c r="C26" s="224">
+      <c r="C26" s="222">
         <f t="shared" ref="C26:F26" si="1">IFERROR((C25/$D$12)-1,"")</f>
         <v>2.8941167778298693E-2</v>
       </c>
-      <c r="D26" s="224">
+      <c r="D26" s="222">
         <f t="shared" si="1"/>
         <v>0.18478031279835738</v>
       </c>
-      <c r="E26" s="224">
+      <c r="E26" s="222">
         <f t="shared" si="1"/>
         <v>0.36415355675872618</v>
       </c>
-      <c r="F26" s="225">
+      <c r="F26" s="223">
         <f t="shared" si="1"/>
         <v>0.57061442204386426</v>
       </c>
@@ -9767,12 +9225,12 @@
       <c r="M41" s="5"/>
     </row>
     <row r="42" spans="1:13" ht="54.75" customHeight="1">
-      <c r="B42" s="180"/>
-      <c r="C42" s="180"/>
-      <c r="D42" s="180"/>
-      <c r="E42" s="180"/>
-      <c r="F42" s="180"/>
-      <c r="G42" s="180"/>
+      <c r="B42" s="178"/>
+      <c r="C42" s="178"/>
+      <c r="D42" s="178"/>
+      <c r="E42" s="178"/>
+      <c r="F42" s="178"/>
+      <c r="G42" s="178"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -9798,7 +9256,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E42FADD4-C8A4-4400-B68A-D96FC1366435}">
   <dimension ref="A1:J110"/>
   <sheetViews>
@@ -9815,7 +9273,7 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="66" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="B1" s="67">
         <v>43281</v>
@@ -9839,15 +9297,15 @@
         <v>45473</v>
       </c>
       <c r="I1" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="J1" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="66" customFormat="1">
       <c r="A2" s="66" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="B2" s="67"/>
       <c r="C2" s="67"/>
@@ -9860,7 +9318,7 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="B3" s="65">
         <v>110360</v>
@@ -9884,15 +9342,15 @@
         <v>245122</v>
       </c>
       <c r="I3" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="J3" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="B4" s="65">
         <v>0.14299999999999999</v>
@@ -9916,15 +9374,15 @@
         <v>0.157</v>
       </c>
       <c r="I4" s="97" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="J4" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="B5" s="65">
         <v>-38353</v>
@@ -9948,15 +9406,15 @@
         <v>-74114</v>
       </c>
       <c r="I5" s="97" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="J5" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
       <c r="B6" s="65">
         <v>72007</v>
@@ -9980,15 +9438,15 @@
         <v>171008</v>
       </c>
       <c r="I6" s="97" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
       <c r="J6" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="B7" s="65">
         <v>0.156</v>
@@ -10012,15 +9470,15 @@
         <v>0.17100000000000001</v>
       </c>
       <c r="I7" s="97" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
       <c r="J7" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="B8" s="65">
         <v>0.65200000000000002</v>
@@ -10044,15 +9502,15 @@
         <v>0.69799999999999995</v>
       </c>
       <c r="I8" s="97" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="J8" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
       <c r="B9" s="65">
         <v>-22223</v>
@@ -10076,15 +9534,15 @@
         <v>-32065</v>
       </c>
       <c r="I9" s="97" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="J9" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="B10" s="65">
         <v>-14726</v>
@@ -10108,15 +9566,15 @@
         <v>-29510</v>
       </c>
       <c r="I10" s="97" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
       <c r="J10" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" t="s">
-        <v>131</v>
+        <v>117</v>
       </c>
       <c r="B11" s="65">
         <v>59</v>
@@ -10138,15 +9596,15 @@
       </c>
       <c r="H11" s="65"/>
       <c r="I11" s="97" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
       <c r="J11" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
       <c r="B12" s="65">
         <v>-36949</v>
@@ -10170,15 +9628,15 @@
         <v>-61575</v>
       </c>
       <c r="I12" s="97" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="J12" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="B13" s="65">
         <v>35058</v>
@@ -10202,15 +9660,15 @@
         <v>109433</v>
       </c>
       <c r="I13" s="97" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
       <c r="J13" t="s">
-        <v>139</v>
+        <v>125</v>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="B14" s="65">
         <v>0.20799999999999999</v>
@@ -10234,15 +9692,15 @@
         <v>0.23599999999999999</v>
       </c>
       <c r="I14" s="97" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="J14" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
       <c r="B15" s="65">
         <v>0.318</v>
@@ -10266,15 +9724,15 @@
         <v>0.44600000000000001</v>
       </c>
       <c r="I15" s="97" t="s">
-        <v>143</v>
+        <v>129</v>
       </c>
       <c r="J15" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
       <c r="B16" s="65">
         <v>-2733</v>
@@ -10298,15 +9756,15 @@
         <v>-2935</v>
       </c>
       <c r="I16" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="J16" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="B17" s="65">
         <v>1935</v>
@@ -10330,15 +9788,15 @@
         <v>-1646</v>
       </c>
       <c r="I17" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
       <c r="J17" t="s">
-        <v>150</v>
+        <v>136</v>
       </c>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
       <c r="B18" s="65">
         <v>36474</v>
@@ -10362,15 +9820,15 @@
         <v>107787</v>
       </c>
       <c r="I18" s="97" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
       <c r="J18" t="s">
-        <v>153</v>
+        <v>139</v>
       </c>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="B19" s="65">
         <v>0.22</v>
@@ -10394,15 +9852,15 @@
         <v>0.20699999999999999</v>
       </c>
       <c r="I19" s="97" t="s">
-        <v>154</v>
+        <v>140</v>
       </c>
       <c r="J19" t="s">
-        <v>155</v>
+        <v>141</v>
       </c>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" t="s">
-        <v>156</v>
+        <v>142</v>
       </c>
       <c r="B20" s="65">
         <v>0.33100000000000002</v>
@@ -10426,15 +9884,15 @@
         <v>0.44</v>
       </c>
       <c r="I20" t="s">
-        <v>157</v>
+        <v>143</v>
       </c>
       <c r="J20" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
     </row>
     <row r="21" spans="1:10">
       <c r="A21" t="s">
-        <v>159</v>
+        <v>145</v>
       </c>
       <c r="B21" s="65">
         <v>-19903</v>
@@ -10458,15 +9916,15 @@
         <v>-19651</v>
       </c>
       <c r="I21" s="97" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="J21" t="s">
-        <v>161</v>
+        <v>147</v>
       </c>
     </row>
     <row r="22" spans="1:10">
       <c r="A22" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
       <c r="B22" s="65">
         <v>0.54600000000000004</v>
@@ -10490,15 +9948,15 @@
         <v>0.182</v>
       </c>
       <c r="I22" s="97" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
       <c r="J22" t="s">
-        <v>164</v>
+        <v>150</v>
       </c>
     </row>
     <row r="23" spans="1:10">
       <c r="A23" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="B23" s="65">
         <v>16571</v>
@@ -10522,15 +9980,15 @@
         <v>88136</v>
       </c>
       <c r="I23" s="97" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
       <c r="J23" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
     </row>
     <row r="24" spans="1:10">
       <c r="A24" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="B24" s="65">
         <v>-0.35</v>
@@ -10554,15 +10012,15 @@
         <v>0.218</v>
       </c>
       <c r="I24" s="97" t="s">
-        <v>167</v>
+        <v>153</v>
       </c>
       <c r="J24" t="s">
-        <v>168</v>
+        <v>154</v>
       </c>
     </row>
     <row r="25" spans="1:10">
       <c r="A25" t="s">
-        <v>169</v>
+        <v>155</v>
       </c>
       <c r="B25" s="65">
         <v>0.15</v>
@@ -10586,15 +10044,15 @@
         <v>0.36</v>
       </c>
       <c r="I25" s="97" t="s">
-        <v>170</v>
+        <v>156</v>
       </c>
       <c r="J25" t="s">
-        <v>171</v>
+        <v>157</v>
       </c>
     </row>
     <row r="26" spans="1:10">
       <c r="A26" t="s">
-        <v>172</v>
+        <v>158</v>
       </c>
       <c r="B26" s="65">
         <v>7794</v>
@@ -10618,15 +10076,15 @@
         <v>7469</v>
       </c>
       <c r="I26" s="97" t="s">
-        <v>173</v>
+        <v>159</v>
       </c>
       <c r="J26" t="s">
-        <v>174</v>
+        <v>160</v>
       </c>
     </row>
     <row r="27" spans="1:10">
       <c r="A27" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="B27" s="65">
         <v>-5.0000000000000001E-3</v>
@@ -10650,15 +10108,15 @@
         <v>0</v>
       </c>
       <c r="I27" s="97" t="s">
-        <v>175</v>
+        <v>161</v>
       </c>
       <c r="J27" t="s">
-        <v>176</v>
+        <v>162</v>
       </c>
     </row>
     <row r="28" spans="1:10">
       <c r="A28" t="s">
-        <v>177</v>
+        <v>163</v>
       </c>
       <c r="B28" s="65">
         <v>2.13</v>
@@ -10682,15 +10140,15 @@
         <v>11.8</v>
       </c>
       <c r="I28" s="97" t="s">
-        <v>178</v>
+        <v>164</v>
       </c>
       <c r="J28" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
     </row>
     <row r="29" spans="1:10">
       <c r="A29" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="B29" s="65">
         <v>-0.214</v>
@@ -10714,15 +10172,15 @@
         <v>0.219</v>
       </c>
       <c r="I29" s="97" t="s">
-        <v>180</v>
+        <v>166</v>
       </c>
       <c r="J29" t="s">
-        <v>181</v>
+        <v>167</v>
       </c>
     </row>
     <row r="30" spans="1:10">
       <c r="A30" t="s">
-        <v>182</v>
+        <v>168</v>
       </c>
       <c r="B30" s="65"/>
       <c r="C30" s="65"/>
@@ -10735,7 +10193,7 @@
     </row>
     <row r="31" spans="1:10">
       <c r="A31" t="s">
-        <v>183</v>
+        <v>169</v>
       </c>
       <c r="B31" s="65">
         <v>2.15</v>
@@ -10759,7 +10217,7 @@
         <v>11.86</v>
       </c>
       <c r="I31" s="97" t="s">
-        <v>178</v>
+        <v>164</v>
       </c>
       <c r="J31">
         <v>45658</v>
@@ -10767,7 +10225,7 @@
     </row>
     <row r="32" spans="1:10">
       <c r="A32" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="B32" s="65">
         <v>-0.215</v>
@@ -10791,15 +10249,15 @@
         <v>0.22</v>
       </c>
       <c r="I32" s="97" t="s">
-        <v>184</v>
+        <v>170</v>
       </c>
       <c r="J32" t="s">
-        <v>185</v>
+        <v>171</v>
       </c>
     </row>
     <row r="33" spans="1:10">
       <c r="A33" t="s">
-        <v>186</v>
+        <v>172</v>
       </c>
       <c r="B33" s="65">
         <v>7700</v>
@@ -10823,15 +10281,15 @@
         <v>7431</v>
       </c>
       <c r="I33" t="s">
-        <v>187</v>
+        <v>173</v>
       </c>
       <c r="J33" t="s">
-        <v>188</v>
+        <v>174</v>
       </c>
     </row>
     <row r="34" spans="1:10">
       <c r="A34" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="B34" s="65">
         <v>-6.0000000000000001E-3</v>
@@ -10855,15 +10313,15 @@
         <v>-2E-3</v>
       </c>
       <c r="I34" s="97" t="s">
+        <v>161</v>
+      </c>
+      <c r="J34" t="s">
         <v>175</v>
-      </c>
-      <c r="J34" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="35" spans="1:10">
       <c r="A35" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="B35" s="65">
         <v>47474</v>
@@ -10887,20 +10345,20 @@
         <v>133009</v>
       </c>
       <c r="I35" t="s">
-        <v>190</v>
+        <v>176</v>
       </c>
       <c r="J35" t="s">
-        <v>139</v>
+        <v>125</v>
       </c>
     </row>
     <row r="36" spans="1:10">
       <c r="A36" t="s">
-        <v>111</v>
-      </c>
-      <c r="B36" s="258">
+        <v>97</v>
+      </c>
+      <c r="B36" s="254">
         <v>0.21</v>
       </c>
-      <c r="C36" s="258">
+      <c r="C36" s="254">
         <v>0.20799999999999999</v>
       </c>
       <c r="D36" s="65">
@@ -10919,17 +10377,17 @@
         <v>0.26500000000000001</v>
       </c>
       <c r="I36" s="97" t="s">
-        <v>191</v>
+        <v>177</v>
       </c>
       <c r="J36" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
     </row>
     <row r="37" spans="1:10">
       <c r="A37" t="s">
-        <v>193</v>
-      </c>
-      <c r="B37" s="258">
+        <v>179</v>
+      </c>
+      <c r="B37" s="254">
         <v>0.43</v>
       </c>
       <c r="C37" s="65">
@@ -10951,15 +10409,15 @@
         <v>0.54300000000000004</v>
       </c>
       <c r="I37" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="J37" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
     </row>
     <row r="38" spans="1:10">
       <c r="A38" t="s">
-        <v>195</v>
+        <v>181</v>
       </c>
       <c r="B38" s="65">
         <v>10261</v>
@@ -10983,12 +10441,12 @@
         <v>22287</v>
       </c>
       <c r="I38" t="s">
-        <v>196</v>
+        <v>182</v>
       </c>
     </row>
     <row r="39" spans="1:10">
       <c r="A39" t="s">
-        <v>197</v>
+        <v>183</v>
       </c>
       <c r="B39" s="65">
         <v>4754</v>
@@ -11015,7 +10473,7 @@
     </row>
     <row r="40" spans="1:10">
       <c r="A40" t="s">
-        <v>198</v>
+        <v>184</v>
       </c>
       <c r="B40" s="65">
         <v>17469</v>
@@ -11272,7 +10730,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7217B4B-89B8-4AC6-982A-7000E3238168}">
   <dimension ref="A1:J64"/>
   <sheetViews>
@@ -11288,8 +10746,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="259" t="s">
-        <v>199</v>
+      <c r="A1" s="255" t="s">
+        <v>185</v>
       </c>
       <c r="B1" s="67">
         <v>43281</v>
@@ -11313,15 +10771,15 @@
         <v>45473</v>
       </c>
       <c r="I1" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="J1" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="259" t="s">
-        <v>107</v>
+      <c r="A2" s="255" t="s">
+        <v>93</v>
       </c>
       <c r="B2" s="67"/>
       <c r="C2" s="67"/>
@@ -11333,8 +10791,8 @@
       <c r="I2" s="98"/>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="260" t="s">
-        <v>200</v>
+      <c r="A3" s="256" t="s">
+        <v>186</v>
       </c>
       <c r="B3" s="65">
         <v>11946</v>
@@ -11358,15 +10816,15 @@
         <v>18315</v>
       </c>
       <c r="I3" t="s">
-        <v>201</v>
+        <v>187</v>
       </c>
       <c r="J3" t="s">
-        <v>202</v>
+        <v>188</v>
       </c>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="260" t="s">
-        <v>203</v>
+      <c r="A4" s="256" t="s">
+        <v>189</v>
       </c>
       <c r="B4" s="65">
         <v>121822</v>
@@ -11390,15 +10848,15 @@
         <v>57216</v>
       </c>
       <c r="I4" s="97" t="s">
-        <v>204</v>
+        <v>190</v>
       </c>
       <c r="J4" t="s">
-        <v>205</v>
+        <v>191</v>
       </c>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="260" t="s">
-        <v>206</v>
+      <c r="A5" s="256" t="s">
+        <v>192</v>
       </c>
       <c r="B5" s="65">
         <v>133768</v>
@@ -11422,15 +10880,15 @@
         <v>75531</v>
       </c>
       <c r="I5" s="97" t="s">
-        <v>207</v>
+        <v>193</v>
       </c>
       <c r="J5" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="260" t="s">
-        <v>209</v>
+      <c r="A6" s="256" t="s">
+        <v>195</v>
       </c>
       <c r="B6" s="65">
         <v>26481</v>
@@ -11454,15 +10912,15 @@
         <v>56924</v>
       </c>
       <c r="I6" s="97" t="s">
-        <v>210</v>
+        <v>196</v>
       </c>
       <c r="J6" t="s">
-        <v>211</v>
+        <v>197</v>
       </c>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="260" t="s">
-        <v>212</v>
+      <c r="A7" s="256" t="s">
+        <v>198</v>
       </c>
       <c r="B7" s="65">
         <v>2662</v>
@@ -11486,15 +10944,15 @@
         <v>1246</v>
       </c>
       <c r="I7" s="97" t="s">
-        <v>213</v>
+        <v>199</v>
       </c>
       <c r="J7" t="s">
-        <v>214</v>
+        <v>200</v>
       </c>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="260" t="s">
-        <v>215</v>
+      <c r="A8" s="256" t="s">
+        <v>201</v>
       </c>
       <c r="B8" s="65">
         <v>6751</v>
@@ -11518,15 +10976,15 @@
         <v>26033</v>
       </c>
       <c r="I8" s="97" t="s">
-        <v>216</v>
+        <v>202</v>
       </c>
       <c r="J8" t="s">
-        <v>217</v>
+        <v>203</v>
       </c>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="260" t="s">
-        <v>218</v>
+      <c r="A9" s="256" t="s">
+        <v>204</v>
       </c>
       <c r="B9" s="65">
         <v>169662</v>
@@ -11550,15 +11008,15 @@
         <v>159734</v>
       </c>
       <c r="I9" s="97" t="s">
-        <v>219</v>
+        <v>205</v>
       </c>
       <c r="J9" t="s">
-        <v>220</v>
+        <v>206</v>
       </c>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="260" t="s">
-        <v>221</v>
+      <c r="A10" s="256" t="s">
+        <v>207</v>
       </c>
       <c r="B10" s="65">
         <v>36146</v>
@@ -11582,15 +11040,15 @@
         <v>154552</v>
       </c>
       <c r="I10" s="97" t="s">
-        <v>222</v>
+        <v>208</v>
       </c>
       <c r="J10" t="s">
-        <v>223</v>
+        <v>209</v>
       </c>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="260" t="s">
-        <v>224</v>
+      <c r="A11" s="256" t="s">
+        <v>210</v>
       </c>
       <c r="B11" s="65">
         <v>35683</v>
@@ -11614,15 +11072,15 @@
         <v>119220</v>
       </c>
       <c r="I11" t="s">
-        <v>225</v>
+        <v>211</v>
       </c>
       <c r="J11" t="s">
-        <v>226</v>
+        <v>212</v>
       </c>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="260" t="s">
-        <v>227</v>
+      <c r="A12" s="256" t="s">
+        <v>213</v>
       </c>
       <c r="B12" s="65">
         <v>8053</v>
@@ -11646,15 +11104,15 @@
         <v>27597</v>
       </c>
       <c r="I12" t="s">
-        <v>228</v>
+        <v>214</v>
       </c>
       <c r="J12" t="s">
-        <v>229</v>
+        <v>215</v>
       </c>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="260" t="s">
-        <v>230</v>
+      <c r="A13" s="256" t="s">
+        <v>216</v>
       </c>
       <c r="B13" s="65">
         <v>1862</v>
@@ -11678,12 +11136,12 @@
         <v>14600</v>
       </c>
       <c r="I13" s="97" t="s">
-        <v>231</v>
+        <v>217</v>
       </c>
     </row>
     <row r="14" spans="1:10">
-      <c r="A14" s="260" t="s">
-        <v>232</v>
+      <c r="A14" s="256" t="s">
+        <v>218</v>
       </c>
       <c r="B14" s="65"/>
       <c r="C14" s="65">
@@ -11703,15 +11161,15 @@
       </c>
       <c r="H14" s="65"/>
       <c r="I14" s="97" t="s">
-        <v>233</v>
+        <v>219</v>
       </c>
       <c r="J14" t="s">
-        <v>234</v>
+        <v>220</v>
       </c>
     </row>
     <row r="15" spans="1:10">
-      <c r="A15" s="260" t="s">
-        <v>235</v>
+      <c r="A15" s="256" t="s">
+        <v>221</v>
       </c>
       <c r="B15" s="65">
         <v>7442</v>
@@ -11735,15 +11193,15 @@
         <v>36460</v>
       </c>
       <c r="I15" s="97" t="s">
-        <v>236</v>
+        <v>222</v>
       </c>
       <c r="J15" t="s">
-        <v>237</v>
+        <v>223</v>
       </c>
     </row>
     <row r="16" spans="1:10">
-      <c r="A16" s="260" t="s">
-        <v>238</v>
+      <c r="A16" s="256" t="s">
+        <v>224</v>
       </c>
       <c r="B16" s="65">
         <v>89186</v>
@@ -11767,15 +11225,15 @@
         <v>352429</v>
       </c>
       <c r="I16" s="97" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
       <c r="J16" t="s">
-        <v>240</v>
+        <v>226</v>
       </c>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="260" t="s">
-        <v>241</v>
+      <c r="A17" s="256" t="s">
+        <v>227</v>
       </c>
       <c r="B17" s="65">
         <v>258848</v>
@@ -11799,15 +11257,15 @@
         <v>512163</v>
       </c>
       <c r="I17" s="97" t="s">
-        <v>242</v>
+        <v>228</v>
       </c>
       <c r="J17" t="s">
-        <v>243</v>
+        <v>229</v>
       </c>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" s="260" t="s">
-        <v>244</v>
+      <c r="A18" s="256" t="s">
+        <v>230</v>
       </c>
       <c r="B18" s="65">
         <v>3998</v>
@@ -11831,12 +11289,12 @@
         <v>8942</v>
       </c>
       <c r="I18" s="97" t="s">
-        <v>245</v>
+        <v>231</v>
       </c>
     </row>
     <row r="19" spans="1:10">
-      <c r="A19" s="260" t="s">
-        <v>246</v>
+      <c r="A19" s="256" t="s">
+        <v>232</v>
       </c>
       <c r="B19" s="65">
         <v>2121</v>
@@ -11862,8 +11320,8 @@
       <c r="I19" s="97"/>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" s="260" t="s">
-        <v>247</v>
+      <c r="A20" s="256" t="s">
+        <v>233</v>
       </c>
       <c r="B20" s="65">
         <v>28905</v>
@@ -11887,12 +11345,12 @@
         <v>57582</v>
       </c>
       <c r="I20" s="97" t="s">
-        <v>248</v>
+        <v>234</v>
       </c>
     </row>
     <row r="21" spans="1:10">
-      <c r="A21" s="260" t="s">
-        <v>249</v>
+      <c r="A21" s="256" t="s">
+        <v>235</v>
       </c>
       <c r="B21" s="65">
         <v>16968</v>
@@ -11916,15 +11374,15 @@
         <v>31749</v>
       </c>
       <c r="I21" s="97" t="s">
-        <v>250</v>
+        <v>236</v>
       </c>
       <c r="J21" t="s">
-        <v>251</v>
+        <v>237</v>
       </c>
     </row>
     <row r="22" spans="1:10">
-      <c r="A22" s="260" t="s">
-        <v>252</v>
+      <c r="A22" s="256" t="s">
+        <v>238</v>
       </c>
       <c r="B22" s="65">
         <v>58488</v>
@@ -11948,15 +11406,15 @@
         <v>125286</v>
       </c>
       <c r="I22" s="97" t="s">
-        <v>253</v>
+        <v>239</v>
       </c>
       <c r="J22" t="s">
-        <v>254</v>
+        <v>240</v>
       </c>
     </row>
     <row r="23" spans="1:10">
-      <c r="A23" s="260" t="s">
-        <v>255</v>
+      <c r="A23" s="256" t="s">
+        <v>241</v>
       </c>
       <c r="B23" s="65">
         <v>77810</v>
@@ -11980,15 +11438,15 @@
         <v>58185</v>
       </c>
       <c r="I23" s="97" t="s">
-        <v>256</v>
+        <v>242</v>
       </c>
       <c r="J23" t="s">
-        <v>257</v>
+        <v>243</v>
       </c>
     </row>
     <row r="24" spans="1:10">
-      <c r="A24" s="261" t="s">
-        <v>258</v>
+      <c r="A24" s="257" t="s">
+        <v>244</v>
       </c>
       <c r="B24" s="65">
         <v>3815</v>
@@ -12014,8 +11472,8 @@
       <c r="I24" s="97"/>
     </row>
     <row r="25" spans="1:10">
-      <c r="A25" s="260" t="s">
-        <v>259</v>
+      <c r="A25" s="256" t="s">
+        <v>245</v>
       </c>
       <c r="B25" s="65">
         <v>35476</v>
@@ -12039,15 +11497,15 @@
         <v>54995</v>
       </c>
       <c r="I25" s="97" t="s">
-        <v>260</v>
+        <v>246</v>
       </c>
       <c r="J25" t="s">
-        <v>261</v>
+        <v>247</v>
       </c>
     </row>
     <row r="26" spans="1:10">
-      <c r="A26" s="260" t="s">
-        <v>262</v>
+      <c r="A26" s="256" t="s">
+        <v>248</v>
       </c>
       <c r="B26" s="65">
         <v>117642</v>
@@ -12071,15 +11529,15 @@
         <v>118400</v>
       </c>
       <c r="I26" s="97" t="s">
-        <v>263</v>
+        <v>249</v>
       </c>
       <c r="J26" t="s">
-        <v>264</v>
+        <v>250</v>
       </c>
     </row>
     <row r="27" spans="1:10">
-      <c r="A27" s="260" t="s">
-        <v>265</v>
+      <c r="A27" s="256" t="s">
+        <v>251</v>
       </c>
       <c r="B27" s="65"/>
       <c r="C27" s="65"/>
@@ -12089,15 +11547,15 @@
       <c r="G27" s="65"/>
       <c r="H27" s="65"/>
       <c r="I27" s="97" t="s">
-        <v>266</v>
+        <v>252</v>
       </c>
       <c r="J27" t="s">
-        <v>267</v>
+        <v>253</v>
       </c>
     </row>
     <row r="28" spans="1:10">
-      <c r="A28" s="260" t="s">
-        <v>268</v>
+      <c r="A28" s="256" t="s">
+        <v>254</v>
       </c>
       <c r="B28" s="65">
         <v>176130</v>
@@ -12123,8 +11581,8 @@
       <c r="I28" s="97"/>
     </row>
     <row r="29" spans="1:10">
-      <c r="A29" s="260" t="s">
-        <v>269</v>
+      <c r="A29" s="256" t="s">
+        <v>255</v>
       </c>
       <c r="B29" s="65"/>
       <c r="C29" s="65"/>
@@ -12134,15 +11592,15 @@
       <c r="G29" s="65"/>
       <c r="H29" s="65"/>
       <c r="I29" s="97" t="s">
-        <v>270</v>
+        <v>256</v>
       </c>
       <c r="J29" t="s">
-        <v>270</v>
+        <v>256</v>
       </c>
     </row>
     <row r="30" spans="1:10">
-      <c r="A30" s="260" t="s">
-        <v>271</v>
+      <c r="A30" s="256" t="s">
+        <v>257</v>
       </c>
       <c r="B30" s="65">
         <v>71223</v>
@@ -12166,15 +11624,15 @@
         <v>100923</v>
       </c>
       <c r="I30" s="97" t="s">
-        <v>272</v>
+        <v>258</v>
       </c>
       <c r="J30" t="s">
-        <v>273</v>
+        <v>259</v>
       </c>
     </row>
     <row r="31" spans="1:10">
-      <c r="A31" s="260" t="s">
-        <v>274</v>
+      <c r="A31" s="256" t="s">
+        <v>260</v>
       </c>
       <c r="B31" s="65">
         <v>13682</v>
@@ -12198,15 +11656,15 @@
         <v>173144</v>
       </c>
       <c r="I31" s="97" t="s">
-        <v>275</v>
+        <v>261</v>
       </c>
       <c r="J31" t="s">
-        <v>276</v>
+        <v>262</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="30.75">
-      <c r="A32" s="260" t="s">
-        <v>277</v>
+      <c r="A32" s="256" t="s">
+        <v>263</v>
       </c>
       <c r="B32" s="65">
         <v>-2187</v>
@@ -12230,15 +11688,15 @@
         <v>-5590</v>
       </c>
       <c r="I32" s="97" t="s">
-        <v>278</v>
+        <v>264</v>
       </c>
       <c r="J32" t="s">
-        <v>279</v>
+        <v>265</v>
       </c>
     </row>
     <row r="33" spans="1:10">
-      <c r="A33" s="260" t="s">
-        <v>280</v>
+      <c r="A33" s="256" t="s">
+        <v>266</v>
       </c>
       <c r="B33" s="65"/>
       <c r="C33" s="65"/>
@@ -12248,15 +11706,15 @@
       <c r="G33" s="65"/>
       <c r="H33" s="65"/>
       <c r="I33" s="97" t="s">
-        <v>281</v>
+        <v>267</v>
       </c>
       <c r="J33" t="s">
-        <v>282</v>
+        <v>268</v>
       </c>
     </row>
     <row r="34" spans="1:10">
-      <c r="A34" s="260" t="s">
-        <v>283</v>
+      <c r="A34" s="256" t="s">
+        <v>269</v>
       </c>
       <c r="B34" s="65">
         <v>82718</v>
@@ -12280,15 +11738,15 @@
         <v>268477</v>
       </c>
       <c r="I34" s="97" t="s">
-        <v>242</v>
+        <v>228</v>
       </c>
       <c r="J34" t="s">
-        <v>282</v>
+        <v>268</v>
       </c>
     </row>
     <row r="35" spans="1:10">
-      <c r="A35" s="260" t="s">
-        <v>284</v>
+      <c r="A35" s="256" t="s">
+        <v>270</v>
       </c>
       <c r="B35" s="65">
         <v>258848</v>
@@ -12314,8 +11772,8 @@
       <c r="I35" s="97"/>
     </row>
     <row r="36" spans="1:10">
-      <c r="A36" s="260" t="s">
-        <v>182</v>
+      <c r="A36" s="256" t="s">
+        <v>168</v>
       </c>
       <c r="B36" s="65"/>
       <c r="C36" s="65"/>
@@ -12325,15 +11783,15 @@
       <c r="G36" s="65"/>
       <c r="H36" s="65"/>
       <c r="I36" s="97" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="J36" t="s">
-        <v>257</v>
+        <v>243</v>
       </c>
     </row>
     <row r="37" spans="1:10">
-      <c r="A37" s="260" t="s">
-        <v>286</v>
+      <c r="A37" s="256" t="s">
+        <v>272</v>
       </c>
       <c r="B37" s="65">
         <v>81808</v>
@@ -12357,15 +11815,15 @@
         <v>67127</v>
       </c>
       <c r="I37" s="97" t="s">
-        <v>287</v>
+        <v>273</v>
       </c>
       <c r="J37" t="s">
-        <v>288</v>
+        <v>274</v>
       </c>
     </row>
     <row r="38" spans="1:10">
       <c r="A38" t="s">
-        <v>289</v>
+        <v>275</v>
       </c>
       <c r="B38" s="65">
         <v>69862</v>
@@ -12652,11 +12110,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E895F573-FD70-43AA-9C68-646EEB9D54E7}">
   <dimension ref="A1:J203"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
@@ -12669,873 +12127,873 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="70" t="s">
-        <v>290</v>
-      </c>
-      <c r="B1" s="262">
+        <v>276</v>
+      </c>
+      <c r="B1" s="258">
         <v>43281</v>
       </c>
-      <c r="C1" s="262">
+      <c r="C1" s="258">
         <v>43646</v>
       </c>
-      <c r="D1" s="262">
+      <c r="D1" s="258">
         <v>44012</v>
       </c>
-      <c r="E1" s="262">
+      <c r="E1" s="258">
         <v>44377</v>
       </c>
-      <c r="F1" s="244">
+      <c r="F1" s="240">
         <v>44742</v>
       </c>
-      <c r="G1" s="244">
+      <c r="G1" s="240">
         <v>45107</v>
       </c>
-      <c r="H1" s="244">
+      <c r="H1" s="240">
         <v>45473</v>
       </c>
       <c r="I1" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="J1" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="70" t="s">
-        <v>107</v>
-      </c>
-      <c r="B2" s="263"/>
-      <c r="C2" s="263"/>
-      <c r="D2" s="263"/>
-      <c r="E2" s="263"/>
+        <v>93</v>
+      </c>
+      <c r="B2" s="259"/>
+      <c r="C2" s="259"/>
+      <c r="D2" s="259"/>
+      <c r="E2" s="259"/>
       <c r="F2" s="71"/>
       <c r="G2" s="71"/>
       <c r="H2" s="71"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="72" t="s">
-        <v>36</v>
-      </c>
-      <c r="B3" s="266">
+        <v>22</v>
+      </c>
+      <c r="B3" s="262">
         <v>16571</v>
       </c>
-      <c r="C3" s="264">
+      <c r="C3" s="260">
         <v>39240</v>
       </c>
-      <c r="D3" s="264">
+      <c r="D3" s="260">
         <v>44281</v>
       </c>
-      <c r="E3" s="264">
+      <c r="E3" s="260">
         <v>61271</v>
       </c>
-      <c r="F3" s="249">
+      <c r="F3" s="245">
         <v>72738</v>
       </c>
-      <c r="G3" s="249">
+      <c r="G3" s="245">
         <v>72361</v>
       </c>
-      <c r="H3" s="249">
+      <c r="H3" s="245">
         <v>88136</v>
       </c>
       <c r="I3" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
       <c r="J3" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="72" t="s">
-        <v>291</v>
-      </c>
-      <c r="B4" s="264">
+        <v>277</v>
+      </c>
+      <c r="B4" s="260">
         <v>10261</v>
       </c>
-      <c r="C4" s="264">
+      <c r="C4" s="260">
         <v>11682</v>
       </c>
-      <c r="D4" s="264">
+      <c r="D4" s="260">
         <v>12796</v>
       </c>
-      <c r="E4" s="264">
+      <c r="E4" s="260">
         <v>11686</v>
       </c>
-      <c r="F4" s="249">
+      <c r="F4" s="245">
         <v>14460</v>
       </c>
-      <c r="G4" s="249">
+      <c r="G4" s="245">
         <v>13861</v>
       </c>
-      <c r="H4" s="249">
+      <c r="H4" s="245">
         <v>22287</v>
       </c>
       <c r="I4" s="97" t="s">
-        <v>196</v>
+        <v>182</v>
       </c>
       <c r="J4" t="s">
-        <v>292</v>
+        <v>278</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="72" t="s">
-        <v>293</v>
-      </c>
-      <c r="B5" s="264">
+        <v>279</v>
+      </c>
+      <c r="B5" s="260">
         <v>13040</v>
       </c>
-      <c r="C5" s="264">
+      <c r="C5" s="260">
         <v>-3534</v>
       </c>
-      <c r="D5" s="264">
+      <c r="D5" s="260">
         <v>-3620</v>
       </c>
-      <c r="E5" s="264">
+      <c r="E5" s="260">
         <v>-150</v>
       </c>
-      <c r="F5" s="249">
+      <c r="F5" s="245">
         <v>-5702</v>
       </c>
-      <c r="G5" s="249">
+      <c r="G5" s="245">
         <v>-6059</v>
       </c>
-      <c r="H5" s="249">
+      <c r="H5" s="245">
         <v>-4738</v>
       </c>
       <c r="I5" s="97" t="s">
-        <v>294</v>
+        <v>280</v>
       </c>
       <c r="J5" t="s">
-        <v>295</v>
+        <v>281</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="72" t="s">
-        <v>296</v>
-      </c>
-      <c r="B6" s="264">
+        <v>282</v>
+      </c>
+      <c r="B6" s="260">
         <v>3940</v>
       </c>
-      <c r="C6" s="264">
+      <c r="C6" s="260">
         <v>4652</v>
       </c>
-      <c r="D6" s="264">
+      <c r="D6" s="260">
         <v>5289</v>
       </c>
-      <c r="E6" s="264">
+      <c r="E6" s="260">
         <v>6118</v>
       </c>
-      <c r="F6" s="249">
+      <c r="F6" s="245">
         <v>7502</v>
       </c>
-      <c r="G6" s="249">
+      <c r="G6" s="245">
         <v>9611</v>
       </c>
-      <c r="H6" s="249">
+      <c r="H6" s="245">
         <v>10734</v>
       </c>
       <c r="I6" t="s">
-        <v>297</v>
+        <v>283</v>
       </c>
       <c r="J6" t="s">
-        <v>298</v>
+        <v>284</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="72" t="s">
-        <v>299</v>
-      </c>
-      <c r="B7" s="264">
+        <v>285</v>
+      </c>
+      <c r="B7" s="260">
         <v>2284</v>
       </c>
-      <c r="C7" s="264">
+      <c r="C7" s="260">
         <v>937</v>
       </c>
-      <c r="D7" s="264">
+      <c r="D7" s="260">
         <v>2148</v>
       </c>
-      <c r="E7" s="264">
+      <c r="E7" s="260">
         <v>-936</v>
       </c>
-      <c r="F7" s="249">
+      <c r="F7" s="245">
         <v>446</v>
       </c>
-      <c r="G7" s="249">
+      <c r="G7" s="245">
         <v>-2388</v>
       </c>
-      <c r="H7" s="249">
+      <c r="H7" s="245">
         <v>1824</v>
       </c>
       <c r="I7" s="97" t="s">
-        <v>300</v>
+        <v>286</v>
       </c>
       <c r="J7" t="s">
-        <v>301</v>
+        <v>287</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="72" t="s">
-        <v>302</v>
-      </c>
-      <c r="B8" s="264">
+        <v>288</v>
+      </c>
+      <c r="B8" s="260">
         <v>-2212</v>
       </c>
-      <c r="C8" s="264">
+      <c r="C8" s="260">
         <v>-792</v>
       </c>
-      <c r="D8" s="264">
+      <c r="D8" s="260">
         <v>-219</v>
       </c>
-      <c r="E8" s="264">
+      <c r="E8" s="260">
         <v>-1249</v>
       </c>
-      <c r="F8" s="249">
+      <c r="F8" s="245">
         <v>-409</v>
       </c>
-      <c r="G8" s="249">
+      <c r="G8" s="245">
         <v>196</v>
       </c>
-      <c r="H8" s="249">
+      <c r="H8" s="245">
         <v>305</v>
       </c>
       <c r="I8" s="97" t="s">
-        <v>303</v>
+        <v>289</v>
       </c>
       <c r="J8" t="s">
-        <v>304</v>
+        <v>290</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="72" t="s">
-        <v>305</v>
-      </c>
-      <c r="B9" s="264">
+        <v>291</v>
+      </c>
+      <c r="B9" s="260">
         <v>43884</v>
       </c>
-      <c r="C9" s="264">
+      <c r="C9" s="260">
         <v>52185</v>
       </c>
-      <c r="D9" s="264">
+      <c r="D9" s="260">
         <v>60675</v>
       </c>
-      <c r="E9" s="264">
+      <c r="E9" s="260">
         <v>76740</v>
       </c>
-      <c r="F9" s="249">
+      <c r="F9" s="245">
         <v>89035</v>
       </c>
-      <c r="G9" s="249">
+      <c r="G9" s="245">
         <v>87582</v>
       </c>
-      <c r="H9" s="249">
+      <c r="H9" s="245">
         <v>118548</v>
       </c>
       <c r="I9" t="s">
-        <v>306</v>
+        <v>292</v>
       </c>
       <c r="J9" t="s">
-        <v>307</v>
+        <v>293</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="72" t="s">
-        <v>308</v>
-      </c>
-      <c r="B10" s="264">
+        <v>294</v>
+      </c>
+      <c r="B10" s="260">
         <v>-11632</v>
       </c>
-      <c r="C10" s="264">
+      <c r="C10" s="260">
         <v>-13925</v>
       </c>
-      <c r="D10" s="264">
+      <c r="D10" s="260">
         <v>-15441</v>
       </c>
-      <c r="E10" s="264">
+      <c r="E10" s="260">
         <v>-20622</v>
       </c>
-      <c r="F10" s="249">
+      <c r="F10" s="245">
         <v>-23886</v>
       </c>
-      <c r="G10" s="249">
+      <c r="G10" s="245">
         <v>-28107</v>
       </c>
-      <c r="H10" s="249">
+      <c r="H10" s="245">
         <v>-44477</v>
       </c>
       <c r="I10" s="97" t="s">
-        <v>309</v>
+        <v>295</v>
       </c>
       <c r="J10" t="s">
-        <v>310</v>
+        <v>296</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="72" t="s">
-        <v>311</v>
-      </c>
-      <c r="B11" s="264">
+        <v>297</v>
+      </c>
+      <c r="B11" s="260">
         <v>-888</v>
       </c>
-      <c r="C11" s="264">
+      <c r="C11" s="260">
         <v>-2388</v>
       </c>
-      <c r="D11" s="264">
+      <c r="D11" s="260">
         <v>-2521</v>
       </c>
-      <c r="E11" s="264">
+      <c r="E11" s="260">
         <v>-8909</v>
       </c>
-      <c r="F11" s="249">
+      <c r="F11" s="245">
         <v>-22038</v>
       </c>
-      <c r="G11" s="249">
+      <c r="G11" s="245">
         <v>-1670</v>
       </c>
-      <c r="H11" s="249">
+      <c r="H11" s="245">
         <v>-69132</v>
       </c>
       <c r="I11" s="97" t="s">
-        <v>312</v>
+        <v>298</v>
       </c>
       <c r="J11" t="s">
-        <v>313</v>
+        <v>299</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="72" t="s">
-        <v>314</v>
-      </c>
-      <c r="B12" s="264">
+        <v>300</v>
+      </c>
+      <c r="B12" s="260">
         <v>-137380</v>
       </c>
-      <c r="C12" s="264">
+      <c r="C12" s="260">
         <v>-57697</v>
       </c>
-      <c r="D12" s="264">
+      <c r="D12" s="260">
         <v>-77190</v>
       </c>
-      <c r="E12" s="264">
+      <c r="E12" s="260">
         <v>-62924</v>
       </c>
-      <c r="F12" s="249">
+      <c r="F12" s="245">
         <v>-26456</v>
       </c>
-      <c r="G12" s="249">
+      <c r="G12" s="245">
         <v>-37651</v>
       </c>
-      <c r="H12" s="249">
+      <c r="H12" s="245">
         <v>-17732</v>
       </c>
       <c r="I12" t="s">
-        <v>315</v>
+        <v>301</v>
       </c>
       <c r="J12" t="s">
-        <v>316</v>
+        <v>302</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="72" t="s">
-        <v>317</v>
-      </c>
-      <c r="B13" s="264">
+        <v>303</v>
+      </c>
+      <c r="B13" s="260">
         <v>143937</v>
       </c>
-      <c r="C13" s="264">
+      <c r="C13" s="260">
         <v>58237</v>
       </c>
-      <c r="D13" s="264">
+      <c r="D13" s="260">
         <v>84170</v>
       </c>
-      <c r="E13" s="264">
+      <c r="E13" s="260">
         <v>65800</v>
       </c>
-      <c r="F13" s="249">
+      <c r="F13" s="245">
         <v>44894</v>
       </c>
-      <c r="G13" s="249">
+      <c r="G13" s="245">
         <v>47864</v>
       </c>
-      <c r="H13" s="249">
+      <c r="H13" s="245">
         <v>35669</v>
       </c>
       <c r="I13" s="97" t="s">
-        <v>318</v>
+        <v>304</v>
       </c>
       <c r="J13" t="s">
-        <v>319</v>
+        <v>305</v>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="72" t="s">
-        <v>320</v>
-      </c>
-      <c r="B14" s="264">
+        <v>306</v>
+      </c>
+      <c r="B14" s="260">
         <v>-98</v>
       </c>
-      <c r="C14" s="264"/>
-      <c r="D14" s="264">
+      <c r="C14" s="260"/>
+      <c r="D14" s="260">
         <v>-1241</v>
       </c>
-      <c r="E14" s="264">
+      <c r="E14" s="260">
         <v>-922</v>
       </c>
-      <c r="F14" s="249">
+      <c r="F14" s="245">
         <v>-2825</v>
       </c>
-      <c r="G14" s="249">
+      <c r="G14" s="245">
         <v>-3116</v>
       </c>
-      <c r="H14" s="249">
+      <c r="H14" s="245">
         <v>-1298</v>
       </c>
       <c r="I14" s="97" t="s">
-        <v>321</v>
+        <v>307</v>
       </c>
       <c r="J14" t="s">
-        <v>322</v>
+        <v>308</v>
       </c>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="72" t="s">
-        <v>323</v>
-      </c>
-      <c r="B15" s="264">
+        <v>309</v>
+      </c>
+      <c r="B15" s="260">
         <v>-6061</v>
       </c>
-      <c r="C15" s="264">
+      <c r="C15" s="260">
         <v>-15773</v>
       </c>
-      <c r="D15" s="264">
+      <c r="D15" s="260">
         <v>-12223</v>
       </c>
-      <c r="E15" s="264">
+      <c r="E15" s="260">
         <v>-27577</v>
       </c>
-      <c r="F15" s="249">
+      <c r="F15" s="245">
         <v>-30311</v>
       </c>
-      <c r="G15" s="249">
+      <c r="G15" s="245">
         <v>-22680</v>
       </c>
-      <c r="H15" s="249">
+      <c r="H15" s="245">
         <v>-96970</v>
       </c>
       <c r="I15" s="97" t="s">
-        <v>324</v>
+        <v>310</v>
       </c>
       <c r="J15" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" s="189" customFormat="1">
-      <c r="A16" s="187" t="s">
-        <v>326</v>
-      </c>
-      <c r="B16" s="265">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" s="187" customFormat="1">
+      <c r="A16" s="185" t="s">
+        <v>312</v>
+      </c>
+      <c r="B16" s="261">
         <v>-10060</v>
       </c>
-      <c r="C16" s="265">
+      <c r="C16" s="261">
         <v>-4000</v>
       </c>
-      <c r="D16" s="265">
+      <c r="D16" s="261">
         <v>-5518</v>
       </c>
-      <c r="E16" s="265">
+      <c r="E16" s="261">
         <v>-3750</v>
       </c>
-      <c r="F16" s="250">
+      <c r="F16" s="246">
         <v>-9023</v>
       </c>
-      <c r="G16" s="250">
+      <c r="G16" s="246">
         <v>-2750</v>
       </c>
-      <c r="H16" s="250">
+      <c r="H16" s="246">
         <v>575</v>
       </c>
-      <c r="J16" s="189" t="s">
-        <v>327</v>
+      <c r="J16" s="187" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="72" t="s">
-        <v>328</v>
-      </c>
-      <c r="B17" s="264">
+        <v>314</v>
+      </c>
+      <c r="B17" s="260">
         <v>1002</v>
       </c>
-      <c r="C17" s="264">
+      <c r="C17" s="260">
         <v>1142</v>
       </c>
-      <c r="D17" s="264">
+      <c r="D17" s="260">
         <v>1343</v>
       </c>
-      <c r="E17" s="264">
+      <c r="E17" s="260">
         <v>1693</v>
       </c>
-      <c r="F17" s="249">
+      <c r="F17" s="245">
         <v>1841</v>
       </c>
-      <c r="G17" s="249">
+      <c r="G17" s="245">
         <v>1866</v>
       </c>
-      <c r="H17" s="249">
+      <c r="H17" s="245">
         <v>2002</v>
       </c>
       <c r="I17" s="97" t="s">
-        <v>329</v>
+        <v>315</v>
       </c>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="72" t="s">
-        <v>330</v>
-      </c>
-      <c r="B18" s="264">
+        <v>316</v>
+      </c>
+      <c r="B18" s="260">
         <v>-10721</v>
       </c>
-      <c r="C18" s="264">
+      <c r="C18" s="260">
         <v>-19543</v>
       </c>
-      <c r="D18" s="264">
+      <c r="D18" s="260">
         <v>-22968</v>
       </c>
-      <c r="E18" s="264">
+      <c r="E18" s="260">
         <v>-27385</v>
       </c>
-      <c r="F18" s="249">
+      <c r="F18" s="245">
         <v>-32696</v>
       </c>
-      <c r="G18" s="249">
+      <c r="G18" s="245">
         <v>-22245</v>
       </c>
-      <c r="H18" s="249">
+      <c r="H18" s="245">
         <v>-17254</v>
       </c>
       <c r="I18" s="97" t="s">
-        <v>331</v>
+        <v>317</v>
       </c>
       <c r="J18" t="s">
-        <v>332</v>
+        <v>318</v>
       </c>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="72" t="s">
-        <v>333</v>
-      </c>
-      <c r="B19" s="264">
+        <v>319</v>
+      </c>
+      <c r="B19" s="260">
         <v>-12699</v>
       </c>
-      <c r="C19" s="264">
+      <c r="C19" s="260">
         <v>-13811</v>
       </c>
-      <c r="D19" s="264">
+      <c r="D19" s="260">
         <v>-15137</v>
       </c>
-      <c r="E19" s="264">
+      <c r="E19" s="260">
         <v>-16521</v>
       </c>
-      <c r="F19" s="249">
+      <c r="F19" s="245">
         <v>-18135</v>
       </c>
-      <c r="G19" s="249">
+      <c r="G19" s="245">
         <v>-19800</v>
       </c>
-      <c r="H19" s="249">
+      <c r="H19" s="245">
         <v>-21771</v>
       </c>
       <c r="I19" s="97"/>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="72" t="s">
-        <v>334</v>
-      </c>
-      <c r="B20" s="264">
+        <v>320</v>
+      </c>
+      <c r="B20" s="260">
         <v>-1112</v>
       </c>
-      <c r="C20" s="264">
+      <c r="C20" s="260">
         <v>-675</v>
       </c>
-      <c r="D20" s="264">
+      <c r="D20" s="260">
         <v>-3751</v>
       </c>
-      <c r="E20" s="264">
+      <c r="E20" s="260">
         <v>-2523</v>
       </c>
-      <c r="F20" s="249">
+      <c r="F20" s="245">
         <v>-863</v>
       </c>
-      <c r="G20" s="249">
+      <c r="G20" s="245">
         <v>-1006</v>
       </c>
-      <c r="H20" s="249">
+      <c r="H20" s="245">
         <v>-1309</v>
       </c>
       <c r="I20" s="97" t="s">
-        <v>335</v>
+        <v>321</v>
       </c>
       <c r="J20" t="s">
-        <v>336</v>
+        <v>322</v>
       </c>
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="72" t="s">
-        <v>337</v>
-      </c>
-      <c r="B21" s="264">
+        <v>323</v>
+      </c>
+      <c r="B21" s="260">
         <v>-33590</v>
       </c>
-      <c r="C21" s="264">
+      <c r="C21" s="260">
         <v>-36887</v>
       </c>
-      <c r="D21" s="264">
+      <c r="D21" s="260">
         <v>-46031</v>
       </c>
-      <c r="E21" s="264">
+      <c r="E21" s="260">
         <v>-48486</v>
       </c>
-      <c r="F21" s="249">
+      <c r="F21" s="245">
         <v>-58876</v>
       </c>
-      <c r="G21" s="249">
+      <c r="G21" s="245">
         <v>-43935</v>
       </c>
-      <c r="H21" s="249">
+      <c r="H21" s="245">
         <v>-37757</v>
       </c>
       <c r="I21" s="97" t="s">
-        <v>338</v>
+        <v>324</v>
       </c>
       <c r="J21" t="s">
-        <v>339</v>
+        <v>325</v>
       </c>
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="72" t="s">
-        <v>340</v>
-      </c>
-      <c r="B22" s="264">
+        <v>326</v>
+      </c>
+      <c r="B22" s="260">
         <v>50</v>
       </c>
-      <c r="C22" s="264">
+      <c r="C22" s="260">
         <v>-115</v>
       </c>
-      <c r="D22" s="264">
+      <c r="D22" s="260">
         <v>-201</v>
       </c>
-      <c r="E22" s="264">
+      <c r="E22" s="260">
         <v>-29</v>
       </c>
-      <c r="F22" s="249">
+      <c r="F22" s="245">
         <v>-141</v>
       </c>
-      <c r="G22" s="249">
+      <c r="G22" s="245">
         <v>-194</v>
       </c>
-      <c r="H22" s="249">
+      <c r="H22" s="245">
         <v>-210</v>
       </c>
       <c r="I22" s="97"/>
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="72" t="s">
-        <v>341</v>
-      </c>
-      <c r="B23" s="264">
+        <v>327</v>
+      </c>
+      <c r="B23" s="260">
         <v>4283</v>
       </c>
-      <c r="C23" s="264">
+      <c r="C23" s="260">
         <v>-590</v>
       </c>
-      <c r="D23" s="264">
+      <c r="D23" s="260">
         <v>2220</v>
       </c>
-      <c r="E23" s="264">
+      <c r="E23" s="260">
         <v>648</v>
       </c>
-      <c r="F23" s="249">
+      <c r="F23" s="245">
         <v>-293</v>
       </c>
-      <c r="G23" s="249">
+      <c r="G23" s="245">
         <v>20773</v>
       </c>
-      <c r="H23" s="249">
+      <c r="H23" s="245">
         <v>-16389</v>
       </c>
       <c r="I23" s="97" t="s">
-        <v>342</v>
+        <v>328</v>
       </c>
       <c r="J23" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" s="189" customFormat="1">
-      <c r="A24" s="187" t="s">
-        <v>182</v>
-      </c>
-      <c r="B24" s="265"/>
-      <c r="C24" s="265"/>
-      <c r="D24" s="265"/>
-      <c r="E24" s="265"/>
-      <c r="F24" s="250"/>
-      <c r="G24" s="250"/>
-      <c r="H24" s="250"/>
-      <c r="I24" s="243"/>
+        <v>329</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" s="187" customFormat="1">
+      <c r="A24" s="185" t="s">
+        <v>168</v>
+      </c>
+      <c r="B24" s="261"/>
+      <c r="C24" s="261"/>
+      <c r="D24" s="261"/>
+      <c r="E24" s="261"/>
+      <c r="F24" s="246"/>
+      <c r="G24" s="246"/>
+      <c r="H24" s="246"/>
+      <c r="I24" s="239"/>
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="72" t="s">
-        <v>344</v>
-      </c>
-      <c r="B25" s="264">
+        <v>330</v>
+      </c>
+      <c r="B25" s="260">
         <v>32252</v>
       </c>
-      <c r="C25" s="264">
+      <c r="C25" s="260">
         <v>38260</v>
       </c>
-      <c r="D25" s="264">
+      <c r="D25" s="260">
         <v>45234</v>
       </c>
-      <c r="E25" s="264">
+      <c r="E25" s="260">
         <v>56118</v>
       </c>
-      <c r="F25" s="249">
+      <c r="F25" s="245">
         <v>65149</v>
       </c>
-      <c r="G25" s="249">
+      <c r="G25" s="245">
         <v>59475</v>
       </c>
-      <c r="H25" s="249">
+      <c r="H25" s="245">
         <v>74071</v>
       </c>
       <c r="I25" s="97" t="s">
-        <v>345</v>
+        <v>331</v>
       </c>
       <c r="J25" t="s">
-        <v>346</v>
+        <v>332</v>
       </c>
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="72" t="s">
-        <v>111</v>
-      </c>
-      <c r="B26" s="264">
+        <v>97</v>
+      </c>
+      <c r="B26" s="260">
         <v>2.8000000000000001E-2</v>
       </c>
-      <c r="C26" s="264">
+      <c r="C26" s="260">
         <v>0.186</v>
       </c>
-      <c r="D26" s="264">
+      <c r="D26" s="260">
         <v>0.182</v>
       </c>
-      <c r="E26" s="264">
+      <c r="E26" s="260">
         <v>0.24099999999999999</v>
       </c>
-      <c r="F26" s="249">
+      <c r="F26" s="245">
         <v>0.161</v>
       </c>
-      <c r="G26" s="249">
+      <c r="G26" s="245">
         <v>-8.6999999999999994E-2</v>
       </c>
-      <c r="H26" s="249">
+      <c r="H26" s="245">
         <v>0.245</v>
       </c>
       <c r="I26" s="97" t="s">
-        <v>347</v>
+        <v>333</v>
       </c>
       <c r="J26" t="s">
-        <v>348</v>
+        <v>334</v>
       </c>
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="72" t="s">
-        <v>349</v>
-      </c>
-      <c r="B27" s="264">
+        <v>335</v>
+      </c>
+      <c r="B27" s="260">
         <v>0.29199999999999998</v>
       </c>
-      <c r="C27" s="264">
+      <c r="C27" s="260">
         <v>0.30399999999999999</v>
       </c>
-      <c r="D27" s="264">
+      <c r="D27" s="260">
         <v>0.316</v>
       </c>
-      <c r="E27" s="264">
+      <c r="E27" s="260">
         <v>0.33400000000000002</v>
       </c>
-      <c r="F27" s="249">
+      <c r="F27" s="245">
         <v>0.32900000000000001</v>
       </c>
-      <c r="G27" s="249">
+      <c r="G27" s="245">
         <v>0.28100000000000003</v>
       </c>
-      <c r="H27" s="249">
+      <c r="H27" s="245">
         <v>0.30199999999999999</v>
       </c>
       <c r="I27" s="97" t="s">
-        <v>350</v>
+        <v>336</v>
       </c>
       <c r="J27" t="s">
-        <v>351</v>
+        <v>337</v>
       </c>
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="72" t="s">
-        <v>352</v>
-      </c>
-      <c r="B28" s="264">
+        <v>338</v>
+      </c>
+      <c r="B28" s="260">
         <v>7663</v>
       </c>
-      <c r="C28" s="264">
+      <c r="C28" s="260">
         <v>11946</v>
       </c>
-      <c r="D28" s="264">
+      <c r="D28" s="260">
         <v>11356</v>
       </c>
-      <c r="E28" s="264">
+      <c r="E28" s="260">
         <v>13576</v>
       </c>
-      <c r="F28" s="249">
+      <c r="F28" s="245">
         <v>14224</v>
       </c>
-      <c r="G28" s="249">
+      <c r="G28" s="245">
         <v>13931</v>
       </c>
-      <c r="H28" s="249">
+      <c r="H28" s="245">
         <v>34704</v>
       </c>
       <c r="I28" s="97" t="s">
-        <v>353</v>
+        <v>339</v>
       </c>
       <c r="J28" t="s">
-        <v>201</v>
+        <v>187</v>
       </c>
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="72" t="s">
-        <v>354</v>
-      </c>
-      <c r="B29" s="264">
+        <v>340</v>
+      </c>
+      <c r="B29" s="260">
         <v>11946</v>
       </c>
-      <c r="C29" s="264">
+      <c r="C29" s="260">
         <v>11356</v>
       </c>
-      <c r="D29" s="264">
+      <c r="D29" s="260">
         <v>13576</v>
       </c>
-      <c r="E29" s="264">
+      <c r="E29" s="260">
         <v>14224</v>
       </c>
-      <c r="F29" s="249">
+      <c r="F29" s="245">
         <v>13931</v>
       </c>
-      <c r="G29" s="249">
+      <c r="G29" s="245">
         <v>34704</v>
       </c>
-      <c r="H29" s="249">
+      <c r="H29" s="245">
         <v>18315</v>
       </c>
       <c r="I29" s="97" t="s">
-        <v>201</v>
+        <v>187</v>
       </c>
       <c r="J29" t="s">
-        <v>355</v>
+        <v>341</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -13549,16 +13007,16 @@
       <c r="H30" s="74"/>
       <c r="I30" s="97"/>
     </row>
-    <row r="31" spans="1:10" s="189" customFormat="1">
-      <c r="A31" s="187"/>
-      <c r="B31" s="188"/>
-      <c r="C31" s="188"/>
-      <c r="D31" s="188"/>
-      <c r="E31" s="188"/>
-      <c r="F31" s="188"/>
-      <c r="G31" s="188"/>
-      <c r="H31" s="188"/>
-      <c r="I31" s="243"/>
+    <row r="31" spans="1:10" s="187" customFormat="1">
+      <c r="A31" s="185"/>
+      <c r="B31" s="186"/>
+      <c r="C31" s="186"/>
+      <c r="D31" s="186"/>
+      <c r="E31" s="186"/>
+      <c r="F31" s="186"/>
+      <c r="G31" s="186"/>
+      <c r="H31" s="186"/>
+      <c r="I31" s="239"/>
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="72"/>
@@ -14263,7 +13721,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A841EDC-2E42-4F91-A115-07FD192CF777}">
   <dimension ref="A1:K53"/>
   <sheetViews>
@@ -14273,14 +13731,14 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="38.42578125" style="189" bestFit="1" customWidth="1"/>
-    <col min="2" max="8" width="11.42578125" style="202"/>
-    <col min="9" max="16384" width="11.42578125" style="189"/>
+    <col min="1" max="1" width="38.42578125" style="187" bestFit="1" customWidth="1"/>
+    <col min="2" max="8" width="11.42578125" style="200"/>
+    <col min="9" max="16384" width="11.42578125" style="187"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="68" t="s">
-        <v>356</v>
+        <v>342</v>
       </c>
       <c r="B1" s="75">
         <f>'1.IS'!B2</f>
@@ -14312,178 +13770,178 @@
       </c>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="198" t="s">
-        <v>357</v>
-      </c>
-      <c r="B2" s="248">
+      <c r="A2" s="196" t="s">
+        <v>343</v>
+      </c>
+      <c r="B2" s="244">
         <f>IFERROR(VALUE(VLOOKUP($A2, '8.TIKR_CF'!$A:$H, COLUMN(B2), FALSE)), 0)</f>
         <v>-11632</v>
       </c>
-      <c r="C2" s="248">
+      <c r="C2" s="244">
         <f>IFERROR(VALUE(VLOOKUP($A2, '8.TIKR_CF'!$A:$H, COLUMN(C2), FALSE)), 0)</f>
         <v>-13925</v>
       </c>
-      <c r="D2" s="248">
+      <c r="D2" s="244">
         <f>IFERROR(VALUE(VLOOKUP($A2, '8.TIKR_CF'!$A:$H, COLUMN(D2), FALSE)), 0)</f>
         <v>-15441</v>
       </c>
-      <c r="E2" s="248">
+      <c r="E2" s="244">
         <f>IFERROR(VALUE(VLOOKUP($A2, '8.TIKR_CF'!$A:$H, COLUMN(E2), FALSE)), 0)</f>
         <v>-20622</v>
       </c>
-      <c r="F2" s="248">
+      <c r="F2" s="244">
         <f>IFERROR(VALUE(VLOOKUP($A2, '8.TIKR_CF'!$A:$H, COLUMN(F2), FALSE)), 0)</f>
         <v>-23886</v>
       </c>
-      <c r="G2" s="248">
+      <c r="G2" s="244">
         <f>IFERROR(VALUE(VLOOKUP($A2, '8.TIKR_CF'!$A:$H, COLUMN(G2), FALSE)), 0)</f>
         <v>-28107</v>
       </c>
-      <c r="H2" s="248">
+      <c r="H2" s="244">
         <f>IFERROR(VALUE(VLOOKUP($A2, '8.TIKR_CF'!$A:$H, COLUMN(H2), FALSE)), 0)</f>
         <v>-44477</v>
       </c>
-      <c r="J2" s="245"/>
-      <c r="K2" s="246"/>
+      <c r="J2" s="241"/>
+      <c r="K2" s="242"/>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="199" t="s">
-        <v>358</v>
-      </c>
-      <c r="B3" s="251">
+      <c r="A3" s="197" t="s">
+        <v>344</v>
+      </c>
+      <c r="B3" s="247">
         <f>IFERROR(VALUE(VLOOKUP($A3,'8.TIKR_CF'!$A:$H,COLUMN(B3),FALSE)),0)</f>
         <v>143937</v>
       </c>
-      <c r="C3" s="251">
+      <c r="C3" s="247">
         <f>IFERROR(VALUE(VLOOKUP($A3,'8.TIKR_CF'!$A:$H,COLUMN(C3),FALSE)),0)</f>
         <v>58237</v>
       </c>
-      <c r="D3" s="251">
+      <c r="D3" s="247">
         <f>IFERROR(VALUE(VLOOKUP($A3,'8.TIKR_CF'!$A:$H,COLUMN(D3),FALSE)),0)</f>
         <v>84170</v>
       </c>
-      <c r="E3" s="251">
+      <c r="E3" s="247">
         <f>IFERROR(VALUE(VLOOKUP($A3,'8.TIKR_CF'!$A:$H,COLUMN(E3),FALSE)),0)</f>
         <v>65800</v>
       </c>
-      <c r="F3" s="251">
+      <c r="F3" s="247">
         <f>IFERROR(VALUE(VLOOKUP($A3,'8.TIKR_CF'!$A:$H,COLUMN(F3),FALSE)),0)</f>
         <v>44894</v>
       </c>
-      <c r="G3" s="251">
+      <c r="G3" s="247">
         <f>IFERROR(VALUE(VLOOKUP($A3,'8.TIKR_CF'!$A:$H,COLUMN(G3),FALSE)),0)</f>
         <v>47864</v>
       </c>
-      <c r="H3" s="251">
+      <c r="H3" s="247">
         <f>IFERROR(VALUE(VLOOKUP($A3,'8.TIKR_CF'!$A:$H,COLUMN(H3),FALSE)),0)</f>
         <v>35669</v>
       </c>
-      <c r="J3" s="245"/>
-      <c r="K3" s="247"/>
+      <c r="J3" s="241"/>
+      <c r="K3" s="243"/>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="198" t="s">
-        <v>359</v>
-      </c>
-      <c r="B4" s="252">
+      <c r="A4" s="196" t="s">
+        <v>345</v>
+      </c>
+      <c r="B4" s="248">
         <f>B2+B3</f>
         <v>132305</v>
       </c>
-      <c r="C4" s="252">
+      <c r="C4" s="248">
         <f t="shared" ref="C4:H4" si="0">SUM(C2:C3)</f>
         <v>44312</v>
       </c>
-      <c r="D4" s="252">
+      <c r="D4" s="248">
         <f t="shared" si="0"/>
         <v>68729</v>
       </c>
-      <c r="E4" s="252">
+      <c r="E4" s="248">
         <f t="shared" si="0"/>
         <v>45178</v>
       </c>
-      <c r="F4" s="252">
+      <c r="F4" s="248">
         <f t="shared" si="0"/>
         <v>21008</v>
       </c>
-      <c r="G4" s="252">
+      <c r="G4" s="248">
         <f t="shared" si="0"/>
         <v>19757</v>
       </c>
-      <c r="H4" s="252">
+      <c r="H4" s="248">
         <f t="shared" si="0"/>
         <v>-8808</v>
       </c>
-      <c r="K4" s="246"/>
+      <c r="K4" s="242"/>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="199" t="s">
-        <v>360</v>
-      </c>
-      <c r="B5" s="251">
+      <c r="A5" s="197" t="s">
+        <v>346</v>
+      </c>
+      <c r="B5" s="247">
         <f>IFERROR(VALUE(VLOOKUP($A5,'8.TIKR_CF'!$A:$H,COLUMN(B5),FALSE)),"0")</f>
         <v>10261</v>
       </c>
-      <c r="C5" s="251">
+      <c r="C5" s="247">
         <f>IFERROR(VALUE(VLOOKUP($A5,'8.TIKR_CF'!$A:$H,COLUMN(C5),FALSE)),"0")</f>
         <v>11682</v>
       </c>
-      <c r="D5" s="251">
+      <c r="D5" s="247">
         <f>IFERROR(VALUE(VLOOKUP($A5,'8.TIKR_CF'!$A:$H,COLUMN(D5),FALSE)),"0")</f>
         <v>12796</v>
       </c>
-      <c r="E5" s="251">
+      <c r="E5" s="247">
         <f>IFERROR(VALUE(VLOOKUP($A5,'8.TIKR_CF'!$A:$H,COLUMN(E5),FALSE)),"0")</f>
         <v>11686</v>
       </c>
-      <c r="F5" s="251">
+      <c r="F5" s="247">
         <f>IFERROR(VALUE(VLOOKUP($A5,'8.TIKR_CF'!$A:$H,COLUMN(F5),FALSE)),"0")</f>
         <v>14460</v>
       </c>
-      <c r="G5" s="251">
+      <c r="G5" s="247">
         <f>IFERROR(VALUE(VLOOKUP($A5,'8.TIKR_CF'!$A:$H,COLUMN(G5),FALSE)),"0")</f>
         <v>13861</v>
       </c>
-      <c r="H5" s="251">
+      <c r="H5" s="247">
         <f>IFERROR(VALUE(VLOOKUP($A5,'8.TIKR_CF'!$A:$H,COLUMN(H5),FALSE)),"0")</f>
         <v>22287</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="76" t="s">
-        <v>361</v>
-      </c>
-      <c r="B6" s="253">
+        <v>347</v>
+      </c>
+      <c r="B6" s="249">
         <f t="shared" ref="B6:H6" si="1">IF(ABS(B4)&lt;B5,B4,-B5)</f>
         <v>-10261</v>
       </c>
-      <c r="C6" s="253">
+      <c r="C6" s="249">
         <f t="shared" si="1"/>
         <v>-11682</v>
       </c>
-      <c r="D6" s="253">
+      <c r="D6" s="249">
         <f t="shared" si="1"/>
         <v>-12796</v>
       </c>
-      <c r="E6" s="253">
+      <c r="E6" s="249">
         <f t="shared" si="1"/>
         <v>-11686</v>
       </c>
-      <c r="F6" s="253">
+      <c r="F6" s="249">
         <f t="shared" si="1"/>
         <v>-14460</v>
       </c>
-      <c r="G6" s="253">
+      <c r="G6" s="249">
         <f t="shared" si="1"/>
         <v>-13861</v>
       </c>
-      <c r="H6" s="253">
+      <c r="H6" s="249">
         <f t="shared" si="1"/>
         <v>-8808</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="68" t="s">
-        <v>362</v>
+        <v>348</v>
       </c>
       <c r="B8" s="75">
         <f>'1.IS'!B2</f>
@@ -14517,109 +13975,109 @@
       <c r="J8" s="77"/>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="189" t="s">
-        <v>61</v>
-      </c>
-      <c r="B9" s="254">
+      <c r="A9" s="187" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9" s="250">
         <f>B4-B6</f>
         <v>142566</v>
       </c>
-      <c r="C9" s="254">
+      <c r="C9" s="250">
         <f t="shared" ref="C9:H9" si="2">C4-C6</f>
         <v>55994</v>
       </c>
-      <c r="D9" s="254">
+      <c r="D9" s="250">
         <f t="shared" si="2"/>
         <v>81525</v>
       </c>
-      <c r="E9" s="254">
+      <c r="E9" s="250">
         <f t="shared" si="2"/>
         <v>56864</v>
       </c>
-      <c r="F9" s="254">
+      <c r="F9" s="250">
         <f t="shared" si="2"/>
         <v>35468</v>
       </c>
-      <c r="G9" s="254">
+      <c r="G9" s="250">
         <f t="shared" si="2"/>
         <v>33618</v>
       </c>
-      <c r="H9" s="254">
+      <c r="H9" s="250">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I9" s="201"/>
-      <c r="J9" s="201"/>
+      <c r="I9" s="199"/>
+      <c r="J9" s="199"/>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="197" t="s">
-        <v>363</v>
-      </c>
-      <c r="B10" s="255">
+      <c r="A10" s="195" t="s">
+        <v>349</v>
+      </c>
+      <c r="B10" s="251">
         <f>IFERROR(VALUE(VLOOKUP("Cash Acquisitions*",'8.TIKR_CF'!$A:$H,COLUMN(B10),FALSE)),"0")</f>
         <v>-888</v>
       </c>
-      <c r="C10" s="255">
+      <c r="C10" s="251">
         <f>IFERROR(VALUE(VLOOKUP("Cash Acquisitions*",'8.TIKR_CF'!$A:$H,COLUMN(C10),FALSE)),"0")</f>
         <v>-2388</v>
       </c>
-      <c r="D10" s="255">
+      <c r="D10" s="251">
         <f>IFERROR(VALUE(VLOOKUP("Cash Acquisitions*",'8.TIKR_CF'!$A:$H,COLUMN(D10),FALSE)),"0")</f>
         <v>-2521</v>
       </c>
-      <c r="E10" s="255">
+      <c r="E10" s="251">
         <f>IFERROR(VALUE(VLOOKUP("Cash Acquisitions*",'8.TIKR_CF'!$A:$H,COLUMN(E10),FALSE)),"0")</f>
         <v>-8909</v>
       </c>
-      <c r="F10" s="255">
+      <c r="F10" s="251">
         <f>IFERROR(VALUE(VLOOKUP("Cash Acquisitions*",'8.TIKR_CF'!$A:$H,COLUMN(F10),FALSE)),"0")</f>
         <v>-22038</v>
       </c>
-      <c r="G10" s="255">
+      <c r="G10" s="251">
         <f>IFERROR(VALUE(VLOOKUP("Cash Acquisitions*",'8.TIKR_CF'!$A:$H,COLUMN(G10),FALSE)),"0")</f>
         <v>-1670</v>
       </c>
-      <c r="H10" s="255">
+      <c r="H10" s="251">
         <f>IFERROR(VALUE(VLOOKUP("Cash Acquisitions*",'8.TIKR_CF'!$A:$H,COLUMN(H10),FALSE)),"0")</f>
         <v>-69132</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="66" t="s">
-        <v>364</v>
-      </c>
-      <c r="B11" s="256">
+        <v>350</v>
+      </c>
+      <c r="B11" s="252">
         <f>ABS(SUM(B9:B10))</f>
         <v>141678</v>
       </c>
-      <c r="C11" s="256">
+      <c r="C11" s="252">
         <f t="shared" ref="C11:H11" si="3">ABS(SUM(C9:C10))</f>
         <v>53606</v>
       </c>
-      <c r="D11" s="256">
+      <c r="D11" s="252">
         <f t="shared" si="3"/>
         <v>79004</v>
       </c>
-      <c r="E11" s="256">
+      <c r="E11" s="252">
         <f t="shared" si="3"/>
         <v>47955</v>
       </c>
-      <c r="F11" s="256">
+      <c r="F11" s="252">
         <f t="shared" si="3"/>
         <v>13430</v>
       </c>
-      <c r="G11" s="256">
+      <c r="G11" s="252">
         <f t="shared" si="3"/>
         <v>31948</v>
       </c>
-      <c r="H11" s="256">
+      <c r="H11" s="252">
         <f t="shared" si="3"/>
         <v>69132</v>
       </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="68" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="B13" s="75" t="str">
         <f>'1.IS'!I2</f>
@@ -14641,36 +14099,36 @@
         <f>'1.IS'!M2</f>
         <v>2029e</v>
       </c>
-      <c r="H13" s="186"/>
+      <c r="H13" s="184"/>
     </row>
     <row r="14" spans="1:11">
-      <c r="A14" s="203" t="s">
-        <v>365</v>
-      </c>
-      <c r="B14" s="204">
+      <c r="A14" s="201" t="s">
+        <v>351</v>
+      </c>
+      <c r="B14" s="202">
         <f>'4.Valoración'!$D$12</f>
         <v>393</v>
       </c>
-      <c r="C14" s="204">
+      <c r="C14" s="202">
         <f>'4.Valoración'!$D$12</f>
         <v>393</v>
       </c>
-      <c r="D14" s="204">
+      <c r="D14" s="202">
         <f>'4.Valoración'!$D$12</f>
         <v>393</v>
       </c>
-      <c r="E14" s="204">
+      <c r="E14" s="202">
         <f>'4.Valoración'!$D$12</f>
         <v>393</v>
       </c>
-      <c r="F14" s="204">
+      <c r="F14" s="202">
         <f>'4.Valoración'!$D$12</f>
         <v>393</v>
       </c>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="68" t="s">
-        <v>366</v>
+        <v>352</v>
       </c>
       <c r="B16" s="75">
         <f>'1.IS'!H2</f>
@@ -14678,101 +14136,101 @@
       </c>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="189" t="s">
-        <v>367</v>
-      </c>
-      <c r="B17" s="180">
+      <c r="A17" s="187" t="s">
+        <v>353</v>
+      </c>
+      <c r="B17" s="178">
         <f>SUM('3.ROIC'!$B$6:$H$6)/SUM('3.ROIC'!$B$6:$H$7)</f>
         <v>0.22084887227670616</v>
       </c>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="189" t="s">
-        <v>368</v>
-      </c>
-      <c r="B18" s="205">
+      <c r="A18" s="187" t="s">
+        <v>354</v>
+      </c>
+      <c r="B18" s="203">
         <f>1-B17</f>
         <v>0.77915112772329387</v>
       </c>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="189" t="s">
-        <v>369</v>
-      </c>
-      <c r="B19" s="200">
+      <c r="A19" s="187" t="s">
+        <v>355</v>
+      </c>
+      <c r="B19" s="198">
         <f>SUM('3.ROIC'!B4:H5)</f>
         <v>825998</v>
       </c>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="189" t="s">
-        <v>370</v>
-      </c>
-      <c r="B20" s="200">
+      <c r="A20" s="187" t="s">
+        <v>356</v>
+      </c>
+      <c r="B20" s="198">
         <f>SUM('3.ROIC'!B5:H5)</f>
         <v>707946</v>
       </c>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="189" t="s">
-        <v>371</v>
-      </c>
-      <c r="B21" s="200">
+      <c r="A21" s="187" t="s">
+        <v>357</v>
+      </c>
+      <c r="B21" s="198">
         <f>SUM('3.ROIC'!B6:H7)</f>
         <v>952982</v>
       </c>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="189" t="s">
-        <v>372</v>
-      </c>
-      <c r="B22" s="200">
+      <c r="A22" s="187" t="s">
+        <v>358</v>
+      </c>
+      <c r="B22" s="198">
         <f>B21-B19</f>
         <v>126984</v>
       </c>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="189" t="s">
-        <v>373</v>
-      </c>
-      <c r="B23" s="200">
+      <c r="A23" s="187" t="s">
+        <v>359</v>
+      </c>
+      <c r="B23" s="198">
         <f>SUM('1.IS'!B11:H11)</f>
         <v>2395</v>
       </c>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="189" t="s">
-        <v>374</v>
-      </c>
-      <c r="B24" s="200">
+      <c r="A24" s="187" t="s">
+        <v>360</v>
+      </c>
+      <c r="B24" s="198">
         <f>SUM('1.IS'!B10:H10)</f>
         <v>-17322</v>
       </c>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="189" t="s">
-        <v>375</v>
-      </c>
-      <c r="B25" s="205">
+      <c r="A25" s="187" t="s">
+        <v>361</v>
+      </c>
+      <c r="B25" s="203">
         <f>B23/B20</f>
         <v>3.3830263890183713E-3</v>
       </c>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="189" t="s">
-        <v>376</v>
-      </c>
-      <c r="B26" s="205">
+      <c r="A26" s="187" t="s">
+        <v>362</v>
+      </c>
+      <c r="B26" s="203">
         <f>ABS(SUM('1.IS'!B10:H10))/B21</f>
         <v>1.8176628729608745E-2</v>
       </c>
     </row>
     <row r="27" spans="1:9">
-      <c r="B27" s="205"/>
+      <c r="B27" s="203"/>
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="68" t="s">
-        <v>377</v>
+        <v>363</v>
       </c>
       <c r="B28" s="75">
         <f>'1.IS'!B2</f>
@@ -14803,160 +14261,160 @@
         <v>2024</v>
       </c>
       <c r="I28" s="75" t="s">
-        <v>378</v>
+        <v>364</v>
       </c>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="189" t="s">
-        <v>379</v>
-      </c>
-      <c r="B29" s="200">
+      <c r="A29" s="187" t="s">
+        <v>365</v>
+      </c>
+      <c r="B29" s="198">
         <f>B11</f>
         <v>141678</v>
       </c>
-      <c r="C29" s="200">
+      <c r="C29" s="198">
         <f t="shared" ref="C29:H29" si="4">C11</f>
         <v>53606</v>
       </c>
-      <c r="D29" s="200">
+      <c r="D29" s="198">
         <f t="shared" si="4"/>
         <v>79004</v>
       </c>
-      <c r="E29" s="200">
+      <c r="E29" s="198">
         <f t="shared" si="4"/>
         <v>47955</v>
       </c>
-      <c r="F29" s="200">
+      <c r="F29" s="198">
         <f t="shared" si="4"/>
         <v>13430</v>
       </c>
-      <c r="G29" s="200">
+      <c r="G29" s="198">
         <f t="shared" si="4"/>
         <v>31948</v>
       </c>
-      <c r="H29" s="200">
+      <c r="H29" s="198">
         <f t="shared" si="4"/>
         <v>69132</v>
       </c>
-      <c r="I29" s="200">
+      <c r="I29" s="198">
         <f>SUM(B29:H29)</f>
         <v>436753</v>
       </c>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="189" t="s">
-        <v>62</v>
-      </c>
-      <c r="B30" s="202">
+      <c r="A30" s="187" t="s">
+        <v>48</v>
+      </c>
+      <c r="B30" s="200">
         <f>IFERROR(ABS(VLOOKUP("Dividends Paid*",'8.TIKR_CF'!$A:$H,COLUMN(B13),FALSE)),"0")</f>
         <v>12699</v>
       </c>
-      <c r="C30" s="202">
+      <c r="C30" s="200">
         <f>IFERROR(ABS(VLOOKUP("Dividends Paid*",'8.TIKR_CF'!$A:$H,COLUMN(C13),FALSE)),"0")</f>
         <v>13811</v>
       </c>
-      <c r="D30" s="202">
+      <c r="D30" s="200">
         <f>IFERROR(ABS(VLOOKUP("Dividends Paid*",'8.TIKR_CF'!$A:$H,COLUMN(D13),FALSE)),"0")</f>
         <v>15137</v>
       </c>
-      <c r="E30" s="202">
+      <c r="E30" s="200">
         <f>IFERROR(ABS(VLOOKUP("Dividends Paid*",'8.TIKR_CF'!$A:$H,COLUMN(E13),FALSE)),"0")</f>
         <v>16521</v>
       </c>
-      <c r="F30" s="202">
+      <c r="F30" s="200">
         <f>IFERROR(ABS(VLOOKUP("Dividends Paid*",'8.TIKR_CF'!$A:$H,COLUMN(F13),FALSE)),"0")</f>
         <v>18135</v>
       </c>
-      <c r="G30" s="202">
+      <c r="G30" s="200">
         <f>IFERROR(ABS(VLOOKUP("Dividends Paid*",'8.TIKR_CF'!$A:$H,COLUMN(G13),FALSE)),"0")</f>
         <v>19800</v>
       </c>
-      <c r="H30" s="202">
+      <c r="H30" s="200">
         <f>IFERROR(ABS(VLOOKUP("Dividends Paid*",'8.TIKR_CF'!$A:$H,COLUMN(H13),FALSE)),"0")</f>
         <v>21771</v>
       </c>
-      <c r="I30" s="200">
+      <c r="I30" s="198">
         <f>SUM(B30:H30)</f>
         <v>117874</v>
       </c>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="189" t="s">
-        <v>63</v>
-      </c>
-      <c r="B31" s="202">
+      <c r="A31" s="187" t="s">
+        <v>49</v>
+      </c>
+      <c r="B31" s="200">
         <f>IFERROR(ABS(VLOOKUP("Common Stock Repurchased*",'8.TIKR_CF'!$A:$H,COLUMN(B14),FALSE)),"0")</f>
         <v>10721</v>
       </c>
-      <c r="C31" s="202">
+      <c r="C31" s="200">
         <f>IFERROR(ABS(VLOOKUP("Common Stock Repurchased*",'8.TIKR_CF'!$A:$H,COLUMN(C14),FALSE)),"0")</f>
         <v>19543</v>
       </c>
-      <c r="D31" s="202">
+      <c r="D31" s="200">
         <f>IFERROR(ABS(VLOOKUP("Common Stock Repurchased*",'8.TIKR_CF'!$A:$H,COLUMN(D14),FALSE)),"0")</f>
         <v>22968</v>
       </c>
-      <c r="E31" s="202">
+      <c r="E31" s="200">
         <f>IFERROR(ABS(VLOOKUP("Common Stock Repurchased*",'8.TIKR_CF'!$A:$H,COLUMN(E14),FALSE)),"0")</f>
         <v>27385</v>
       </c>
-      <c r="F31" s="202">
+      <c r="F31" s="200">
         <f>IFERROR(ABS(VLOOKUP("Common Stock Repurchased*",'8.TIKR_CF'!$A:$H,COLUMN(F14),FALSE)),"0")</f>
         <v>32696</v>
       </c>
-      <c r="G31" s="202">
+      <c r="G31" s="200">
         <f>IFERROR(ABS(VLOOKUP("Common Stock Repurchased*",'8.TIKR_CF'!$A:$H,COLUMN(G14),FALSE)),"0")</f>
         <v>22245</v>
       </c>
-      <c r="H31" s="202">
+      <c r="H31" s="200">
         <f>IFERROR(ABS(VLOOKUP("Common Stock Repurchased*",'8.TIKR_CF'!$A:$H,COLUMN(H14),FALSE)),"0")</f>
         <v>17254</v>
       </c>
-      <c r="I31" s="200">
+      <c r="I31" s="198">
         <f>SUM(B31:H31)</f>
         <v>152812</v>
       </c>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="189" t="s">
-        <v>380</v>
-      </c>
-      <c r="B32" s="202">
+      <c r="A32" s="187" t="s">
+        <v>366</v>
+      </c>
+      <c r="B32" s="200">
         <f>IFERROR((ABS(VLOOKUP("Cash Acquisitions*",'8.TIKR_CF'!$A:$H,COLUMN(B15),FALSE))-VLOOKUP("Sales / Maturities Of Investments*",'8.TIKR_CF'!$A:$H,COLUMN(B15),FALSE)),"0")</f>
         <v>-143049</v>
       </c>
-      <c r="C32" s="202">
+      <c r="C32" s="200">
         <f>IFERROR((ABS(VLOOKUP("Cash Acquisitions*",'8.TIKR_CF'!$A:$H,COLUMN(C15),FALSE))-VLOOKUP("Sales / Maturities Of Investments*",'8.TIKR_CF'!$A:$H,COLUMN(C15),FALSE)),"0")</f>
         <v>-55849</v>
       </c>
-      <c r="D32" s="202">
+      <c r="D32" s="200">
         <f>IFERROR((ABS(VLOOKUP("Cash Acquisitions*",'8.TIKR_CF'!$A:$H,COLUMN(D15),FALSE))-VLOOKUP("Sales / Maturities Of Investments*",'8.TIKR_CF'!$A:$H,COLUMN(D15),FALSE)),"0")</f>
         <v>-81649</v>
       </c>
-      <c r="E32" s="202">
+      <c r="E32" s="200">
         <f>IFERROR((ABS(VLOOKUP("Cash Acquisitions*",'8.TIKR_CF'!$A:$H,COLUMN(E15),FALSE))-VLOOKUP("Sales / Maturities Of Investments*",'8.TIKR_CF'!$A:$H,COLUMN(E15),FALSE)),"0")</f>
         <v>-56891</v>
       </c>
-      <c r="F32" s="202">
+      <c r="F32" s="200">
         <f>IFERROR((ABS(VLOOKUP("Cash Acquisitions*",'8.TIKR_CF'!$A:$H,COLUMN(F15),FALSE))-VLOOKUP("Sales / Maturities Of Investments*",'8.TIKR_CF'!$A:$H,COLUMN(F15),FALSE)),"0")</f>
         <v>-22856</v>
       </c>
-      <c r="G32" s="202">
+      <c r="G32" s="200">
         <f>IFERROR((ABS(VLOOKUP("Cash Acquisitions*",'8.TIKR_CF'!$A:$H,COLUMN(G15),FALSE))-VLOOKUP("Sales / Maturities Of Investments*",'8.TIKR_CF'!$A:$H,COLUMN(G15),FALSE)),"0")</f>
         <v>-46194</v>
       </c>
-      <c r="H32" s="202">
+      <c r="H32" s="200">
         <f>IFERROR((ABS(VLOOKUP("Cash Acquisitions*",'8.TIKR_CF'!$A:$H,COLUMN(H15),FALSE))-VLOOKUP("Sales / Maturities Of Investments*",'8.TIKR_CF'!$A:$H,COLUMN(H15),FALSE)),"0")</f>
         <v>33463</v>
       </c>
-      <c r="I32" s="200">
+      <c r="I32" s="198">
         <f>SUM(B32:H32)</f>
         <v>-373025</v>
       </c>
     </row>
     <row r="34" spans="1:9">
       <c r="A34" s="68" t="s">
-        <v>381</v>
+        <v>367</v>
       </c>
       <c r="B34" s="75">
         <f>'1.IS'!C$2</f>
@@ -14983,126 +14441,126 @@
         <v>2024</v>
       </c>
       <c r="H34" s="75" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="I34" s="75"/>
     </row>
     <row r="35" spans="1:9">
-      <c r="A35" s="206" t="s">
-        <v>382</v>
-      </c>
-      <c r="B35" s="207">
+      <c r="A35" s="204" t="s">
+        <v>368</v>
+      </c>
+      <c r="B35" s="205">
         <f>'1.IS'!C4</f>
         <v>0.14029539688292861</v>
       </c>
-      <c r="C35" s="207">
+      <c r="C35" s="205">
         <f>'1.IS'!D4</f>
         <v>0.13645574247276368</v>
       </c>
-      <c r="D35" s="207">
+      <c r="D35" s="205">
         <f>'1.IS'!E4</f>
         <v>0.175317274411775</v>
       </c>
-      <c r="E35" s="207">
+      <c r="E35" s="205">
         <f>'1.IS'!F4</f>
         <v>0.17956070629670173</v>
       </c>
-      <c r="F35" s="207">
+      <c r="F35" s="205">
         <f>'1.IS'!G4</f>
         <v>6.8820295556564284E-2</v>
       </c>
-      <c r="G35" s="207">
+      <c r="G35" s="205">
         <f>'1.IS'!H4</f>
         <v>0.15669962013071279</v>
       </c>
-      <c r="H35" s="208">
+      <c r="H35" s="206">
         <f>AVERAGE(B35:G35)</f>
         <v>0.14285817262524103</v>
       </c>
-      <c r="I35" s="209"/>
+      <c r="I35" s="207"/>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="206" t="s">
-        <v>38</v>
-      </c>
-      <c r="B36" s="207">
+      <c r="A36" s="204" t="s">
+        <v>24</v>
+      </c>
+      <c r="B36" s="205">
         <f>'1.IS'!C21</f>
         <v>1.5542178528882913</v>
       </c>
-      <c r="C36" s="207">
+      <c r="C36" s="205">
         <f>'1.IS'!D21</f>
         <v>0.15083139765188563</v>
       </c>
-      <c r="D36" s="207">
+      <c r="D36" s="205">
         <f>'1.IS'!E21</f>
         <v>0.43561464224084046</v>
       </c>
-      <c r="E36" s="207">
+      <c r="E36" s="205">
         <f>'1.IS'!F21</f>
         <v>0.20529434718139492</v>
       </c>
-      <c r="F36" s="207">
+      <c r="F36" s="205">
         <f>'1.IS'!G21</f>
         <v>-9.1404187016311846E-3</v>
       </c>
-      <c r="G36" s="207">
+      <c r="G36" s="205">
         <f>'1.IS'!H21</f>
         <v>0.22875750501412245</v>
       </c>
-      <c r="H36" s="208">
+      <c r="H36" s="206">
         <f>AVERAGE(B36:G36)</f>
         <v>0.42759588771248391</v>
       </c>
-      <c r="I36" s="209"/>
+      <c r="I36" s="207"/>
     </row>
     <row r="37" spans="1:9">
-      <c r="A37" s="206" t="s">
-        <v>383</v>
-      </c>
-      <c r="B37" s="207">
+      <c r="A37" s="204" t="s">
+        <v>369</v>
+      </c>
+      <c r="B37" s="205">
         <f>'2.FCF'!C15</f>
         <v>2.0227763460332939</v>
       </c>
-      <c r="C37" s="207">
+      <c r="C37" s="205">
         <f>'2.FCF'!D15</f>
         <v>-9.1179317019217471E-2</v>
       </c>
-      <c r="D37" s="207">
+      <c r="D37" s="205">
         <f>'2.FCF'!E15</f>
         <v>0.55153266904997333</v>
       </c>
-      <c r="E37" s="207">
+      <c r="E37" s="205">
         <f>'2.FCF'!F15</f>
         <v>0.16817008203418635</v>
       </c>
-      <c r="F37" s="207">
+      <c r="F37" s="205">
         <f>'2.FCF'!G15</f>
         <v>3.0957543540602924E-2</v>
       </c>
-      <c r="G37" s="207">
+      <c r="G37" s="205">
         <f>'2.FCF'!H15</f>
         <v>0.35569486281852969</v>
       </c>
-      <c r="H37" s="208">
+      <c r="H37" s="206">
         <f>AVERAGE(B37:G37)</f>
         <v>0.50632536440956155</v>
       </c>
-      <c r="I37" s="209"/>
+      <c r="I37" s="207"/>
     </row>
     <row r="38" spans="1:9">
-      <c r="A38" s="210"/>
-      <c r="B38" s="209"/>
-      <c r="C38" s="209"/>
-      <c r="D38" s="209"/>
-      <c r="E38" s="209"/>
-      <c r="F38" s="209"/>
-      <c r="G38" s="209"/>
-      <c r="H38" s="209"/>
-      <c r="I38" s="209"/>
+      <c r="A38" s="208"/>
+      <c r="B38" s="207"/>
+      <c r="C38" s="207"/>
+      <c r="D38" s="207"/>
+      <c r="E38" s="207"/>
+      <c r="F38" s="207"/>
+      <c r="G38" s="207"/>
+      <c r="H38" s="207"/>
+      <c r="I38" s="207"/>
     </row>
     <row r="39" spans="1:9">
       <c r="A39" s="68" t="s">
-        <v>384</v>
+        <v>370</v>
       </c>
       <c r="B39" s="75">
         <f>'1.IS'!B$2</f>
@@ -15133,134 +14591,134 @@
         <v>2024</v>
       </c>
       <c r="I39" s="75" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
     </row>
     <row r="40" spans="1:9">
-      <c r="A40" s="206" t="s">
-        <v>21</v>
-      </c>
-      <c r="B40" s="211">
+      <c r="A40" s="204" t="s">
+        <v>7</v>
+      </c>
+      <c r="B40" s="209">
         <f>'1.IS'!B6</f>
         <v>0.41064697354113811</v>
       </c>
-      <c r="C40" s="211">
+      <c r="C40" s="209">
         <f>'1.IS'!C6</f>
         <v>0.43419975683987189</v>
       </c>
-      <c r="D40" s="211">
+      <c r="D40" s="209">
         <f>'1.IS'!D6</f>
         <v>0.45977694647414608</v>
       </c>
-      <c r="E40" s="211">
+      <c r="E40" s="209">
         <f>'1.IS'!E6</f>
         <v>0.48547189567369475</v>
       </c>
-      <c r="F40" s="211">
+      <c r="F40" s="209">
         <f>'1.IS'!F6</f>
         <v>0.49348363342916224</v>
       </c>
-      <c r="G40" s="211">
+      <c r="G40" s="209">
         <f>'1.IS'!G6</f>
         <v>0.48313710685888211</v>
       </c>
-      <c r="H40" s="211">
+      <c r="H40" s="209">
         <f>'1.IS'!H6</f>
         <v>0.53736506719103139</v>
       </c>
-      <c r="I40" s="212">
+      <c r="I40" s="210">
         <f>AVERAGE(B40:H40)</f>
         <v>0.47201162571541799</v>
       </c>
     </row>
     <row r="41" spans="1:9">
-      <c r="A41" s="206" t="s">
-        <v>87</v>
-      </c>
-      <c r="B41" s="211">
+      <c r="A41" s="204" t="s">
+        <v>73</v>
+      </c>
+      <c r="B41" s="209">
         <f>'1.IS'!B9</f>
         <v>0.31766944545125048</v>
       </c>
-      <c r="C41" s="211">
+      <c r="C41" s="209">
         <f>'1.IS'!C9</f>
         <v>0.3413698020549415</v>
       </c>
-      <c r="D41" s="211">
+      <c r="D41" s="209">
         <f>'1.IS'!D9</f>
         <v>0.37030381428521486</v>
       </c>
-      <c r="E41" s="211">
+      <c r="E41" s="209">
         <f>'1.IS'!E9</f>
         <v>0.41594878872971303</v>
       </c>
-      <c r="F41" s="211">
+      <c r="F41" s="209">
         <f>'1.IS'!F9</f>
         <v>0.4205527815604983</v>
       </c>
-      <c r="G41" s="211">
+      <c r="G41" s="209">
         <f>'1.IS'!G9</f>
         <v>0.41772880636104098</v>
       </c>
-      <c r="H41" s="211">
+      <c r="H41" s="209">
         <f>'1.IS'!H9</f>
         <v>0.44644299573273716</v>
       </c>
-      <c r="I41" s="212">
+      <c r="I41" s="210">
         <f>AVERAGE(B41:H41)</f>
         <v>0.39000234773934228</v>
       </c>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="206" t="s">
-        <v>89</v>
-      </c>
-      <c r="B42" s="211">
+      <c r="A42" s="204" t="s">
+        <v>75</v>
+      </c>
+      <c r="B42" s="209">
         <f>'2.FCF'!B14</f>
         <v>0.13009242479159117</v>
       </c>
-      <c r="C42" s="211">
+      <c r="C42" s="209">
         <f>'2.FCF'!C14</f>
         <v>0.34485827578808514</v>
       </c>
-      <c r="D42" s="211">
+      <c r="D42" s="209">
         <f>'2.FCF'!D14</f>
         <v>0.27578226060203476</v>
       </c>
-      <c r="E42" s="211">
+      <c r="E42" s="209">
         <f>'2.FCF'!E14</f>
         <v>0.36405930227023942</v>
       </c>
-      <c r="F42" s="211">
+      <c r="F42" s="209">
         <f>'2.FCF'!F14</f>
         <v>0.36054370303122008</v>
       </c>
-      <c r="G42" s="211">
+      <c r="G42" s="209">
         <f>'2.FCF'!G14</f>
         <v>0.34777151216289548</v>
       </c>
-      <c r="H42" s="211">
+      <c r="H42" s="209">
         <f>'2.FCF'!H14</f>
         <v>0.4076011129152014</v>
       </c>
-      <c r="I42" s="212">
+      <c r="I42" s="210">
         <f>AVERAGE(B42:H42)</f>
         <v>0.31867265593732391</v>
       </c>
     </row>
     <row r="43" spans="1:9">
-      <c r="A43" s="210"/>
-      <c r="B43" s="209"/>
-      <c r="C43" s="207"/>
-      <c r="D43" s="207"/>
-      <c r="E43" s="207"/>
-      <c r="F43" s="207"/>
-      <c r="G43" s="207"/>
-      <c r="H43" s="207"/>
-      <c r="I43" s="209"/>
+      <c r="A43" s="208"/>
+      <c r="B43" s="207"/>
+      <c r="C43" s="205"/>
+      <c r="D43" s="205"/>
+      <c r="E43" s="205"/>
+      <c r="F43" s="205"/>
+      <c r="G43" s="205"/>
+      <c r="H43" s="205"/>
+      <c r="I43" s="207"/>
     </row>
     <row r="44" spans="1:9">
       <c r="A44" s="68" t="s">
-        <v>385</v>
+        <v>371</v>
       </c>
       <c r="B44" s="75">
         <f>'1.IS'!B$2</f>
@@ -15291,90 +14749,90 @@
         <v>2024</v>
       </c>
       <c r="I44" s="75" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
     </row>
     <row r="45" spans="1:9">
-      <c r="A45" s="206" t="s">
-        <v>89</v>
-      </c>
-      <c r="B45" s="213">
+      <c r="A45" s="204" t="s">
+        <v>75</v>
+      </c>
+      <c r="B45" s="211">
         <f>'2.FCF'!B13</f>
         <v>14357</v>
       </c>
-      <c r="C45" s="213">
+      <c r="C45" s="211">
         <f>'2.FCF'!C13</f>
         <v>43398</v>
       </c>
-      <c r="D45" s="213">
+      <c r="D45" s="211">
         <f>'2.FCF'!D13</f>
         <v>39441</v>
       </c>
-      <c r="E45" s="213">
+      <c r="E45" s="211">
         <f>'2.FCF'!E13</f>
         <v>61194</v>
       </c>
-      <c r="F45" s="213">
+      <c r="F45" s="211">
         <f>'2.FCF'!F13</f>
         <v>71485</v>
       </c>
-      <c r="G45" s="213">
+      <c r="G45" s="211">
         <f>'2.FCF'!G13</f>
         <v>73698</v>
       </c>
-      <c r="H45" s="213">
+      <c r="H45" s="211">
         <f>'2.FCF'!H13</f>
         <v>99912</v>
       </c>
-      <c r="I45" s="214"/>
+      <c r="I45" s="212"/>
     </row>
     <row r="46" spans="1:9">
-      <c r="A46" s="206" t="s">
-        <v>79</v>
-      </c>
-      <c r="B46" s="211">
+      <c r="A46" s="204" t="s">
+        <v>65</v>
+      </c>
+      <c r="B46" s="209">
         <f>'3.ROIC'!B15</f>
         <v>0.19301554707393567</v>
       </c>
-      <c r="C46" s="211">
+      <c r="C46" s="209">
         <f>'3.ROIC'!C15</f>
         <v>0.19798975940109756</v>
       </c>
-      <c r="D46" s="211">
+      <c r="D46" s="209">
         <f>'3.ROIC'!D15</f>
         <v>0.2306924857235749</v>
       </c>
-      <c r="E46" s="211">
+      <c r="E46" s="209">
         <f>'3.ROIC'!E15</f>
         <v>0.25512991479866148</v>
       </c>
-      <c r="F46" s="211">
+      <c r="F46" s="209">
         <f>'3.ROIC'!F15</f>
         <v>0.2456997813049891</v>
       </c>
-      <c r="G46" s="211">
+      <c r="G46" s="209">
         <f>'3.ROIC'!G15</f>
         <v>0.21375095039070968</v>
       </c>
-      <c r="H46" s="211">
+      <c r="H46" s="209">
         <f>'3.ROIC'!H15</f>
         <v>0.19678727081952843</v>
       </c>
-      <c r="I46" s="212">
+      <c r="I46" s="210">
         <f>AVERAGE(B46:H46)</f>
         <v>0.2190093870732138</v>
       </c>
     </row>
     <row r="47" spans="1:9">
-      <c r="A47" s="210"/>
-      <c r="B47" s="209"/>
-      <c r="C47" s="209"/>
-      <c r="D47" s="209"/>
-      <c r="E47" s="209"/>
-      <c r="F47" s="209"/>
-      <c r="G47" s="209"/>
-      <c r="H47" s="209"/>
-      <c r="I47" s="209"/>
+      <c r="A47" s="208"/>
+      <c r="B47" s="207"/>
+      <c r="C47" s="207"/>
+      <c r="D47" s="207"/>
+      <c r="E47" s="207"/>
+      <c r="F47" s="207"/>
+      <c r="G47" s="207"/>
+      <c r="H47" s="207"/>
+      <c r="I47" s="207"/>
     </row>
     <row r="48" spans="1:9">
       <c r="A48" s="68"/>
@@ -15407,187 +14865,187 @@
         <v>2024</v>
       </c>
       <c r="I48" s="75" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
     </row>
     <row r="49" spans="1:9">
-      <c r="A49" s="206" t="s">
-        <v>386</v>
-      </c>
-      <c r="B49" s="215">
+      <c r="A49" s="204" t="s">
+        <v>372</v>
+      </c>
+      <c r="B49" s="213">
         <f>('1.IS'!B3-'1.IS'!B5)/'1.IS'!B3</f>
         <v>0.58935302645886189</v>
       </c>
-      <c r="C49" s="215">
+      <c r="C49" s="213">
         <f>('1.IS'!C3-'1.IS'!C5)/'1.IS'!C3</f>
         <v>0.56580024316012811</v>
       </c>
-      <c r="D49" s="215">
+      <c r="D49" s="213">
         <f>('1.IS'!D3-'1.IS'!D5)/'1.IS'!D3</f>
         <v>0.54022305352585398</v>
       </c>
-      <c r="E49" s="215">
+      <c r="E49" s="213">
         <f>('1.IS'!E3-'1.IS'!E5)/'1.IS'!E3</f>
         <v>0.51452810432630525</v>
       </c>
-      <c r="F49" s="215">
+      <c r="F49" s="213">
         <f>('1.IS'!F3-'1.IS'!F5)/'1.IS'!F3</f>
         <v>0.50651636657083776</v>
       </c>
-      <c r="G49" s="215">
+      <c r="G49" s="213">
         <f>('1.IS'!G3-'1.IS'!G5)/'1.IS'!G3</f>
         <v>0.51686289314111789</v>
       </c>
-      <c r="H49" s="215">
+      <c r="H49" s="213">
         <f>('1.IS'!H3-'1.IS'!H5)/'1.IS'!H3</f>
         <v>0.46263493280896861</v>
       </c>
-      <c r="I49" s="208">
+      <c r="I49" s="206">
         <f>AVERAGE(B49:H49)</f>
         <v>0.52798837428458201</v>
       </c>
     </row>
     <row r="50" spans="1:9">
-      <c r="A50" s="206" t="s">
-        <v>387</v>
-      </c>
-      <c r="B50" s="215">
+      <c r="A50" s="204" t="s">
+        <v>373</v>
+      </c>
+      <c r="B50" s="213">
         <f>'2.FCF'!B20</f>
         <v>9.2977528089887643E-2</v>
       </c>
-      <c r="C50" s="215">
+      <c r="C50" s="213">
         <f>'2.FCF'!C20</f>
         <v>9.2829954784930432E-2</v>
       </c>
-      <c r="D50" s="215">
+      <c r="D50" s="213">
         <f>'2.FCF'!D20</f>
         <v>8.9473132188931229E-2</v>
       </c>
-      <c r="E50" s="215">
+      <c r="E50" s="213">
         <f>'2.FCF'!E20</f>
         <v>6.9523106943981727E-2</v>
       </c>
-      <c r="F50" s="215">
+      <c r="F50" s="213">
         <f>'2.FCF'!F20</f>
         <v>7.2930851868663937E-2</v>
       </c>
-      <c r="G50" s="215">
+      <c r="G50" s="213">
         <f>'2.FCF'!G20</f>
         <v>6.5408300497841118E-2</v>
       </c>
-      <c r="H50" s="215">
+      <c r="H50" s="213">
         <f>'2.FCF'!H20</f>
         <v>3.5933127177487131E-2</v>
       </c>
-      <c r="I50" s="208">
+      <c r="I50" s="206">
         <f>AVERAGE(B50:H50)</f>
         <v>7.4153714507389029E-2</v>
       </c>
     </row>
     <row r="51" spans="1:9">
-      <c r="A51" s="206" t="s">
-        <v>388</v>
-      </c>
-      <c r="B51" s="215">
+      <c r="A51" s="204" t="s">
+        <v>374</v>
+      </c>
+      <c r="B51" s="213">
         <f>('1.IS'!B12/'1.IS'!B3)</f>
         <v>-7.2308807538963389E-3</v>
       </c>
-      <c r="C51" s="215">
+      <c r="C51" s="213">
         <f>('1.IS'!C12/'1.IS'!C3)</f>
         <v>-1.6155050340503643E-2</v>
       </c>
-      <c r="D51" s="215">
+      <c r="D51" s="213">
         <f>('1.IS'!D12/'1.IS'!D3)</f>
         <v>-1.8200888018739293E-2</v>
       </c>
-      <c r="E51" s="215">
+      <c r="E51" s="213">
         <f>('1.IS'!E12/'1.IS'!E3)</f>
         <v>-5.6220551139879111E-3</v>
       </c>
-      <c r="F51" s="215">
+      <c r="F51" s="213">
         <f>('1.IS'!F12/'1.IS'!F3)</f>
         <v>-8.881827810561356E-3</v>
       </c>
-      <c r="G51" s="215">
+      <c r="G51" s="213">
         <f>('1.IS'!G12/'1.IS'!G3)</f>
         <v>-1.0409834131609372E-2</v>
       </c>
-      <c r="H51" s="215">
+      <c r="H51" s="213">
         <f>('1.IS'!H12/'1.IS'!H3)</f>
         <v>-1.8688652997282985E-2</v>
       </c>
-      <c r="I51" s="208">
+      <c r="I51" s="206">
         <f>AVERAGE(B51:H51)</f>
         <v>-1.2169884166654413E-2</v>
       </c>
     </row>
     <row r="52" spans="1:9">
-      <c r="A52" s="206" t="s">
-        <v>389</v>
-      </c>
-      <c r="B52" s="215">
+      <c r="A52" s="204" t="s">
+        <v>375</v>
+      </c>
+      <c r="B52" s="213">
         <f>('1.IS'!B14+'1.IS'!B17)/'1.IS'!B3</f>
         <v>-0.18034613990576295</v>
       </c>
-      <c r="C52" s="215">
+      <c r="C52" s="213">
         <f>('1.IS'!C14+'1.IS'!C17)/'1.IS'!C3</f>
         <v>-3.5345629077501328E-2</v>
       </c>
-      <c r="D52" s="215">
+      <c r="D52" s="213">
         <f>('1.IS'!D14+'1.IS'!D17)/'1.IS'!D3</f>
         <v>-6.1217354822920671E-2</v>
       </c>
-      <c r="E52" s="215">
+      <c r="E52" s="213">
         <f>('1.IS'!E14+'1.IS'!E17)/'1.IS'!E3</f>
         <v>-5.8487220979486935E-2</v>
       </c>
-      <c r="F52" s="215">
+      <c r="F52" s="213">
         <f>('1.IS'!F14+'1.IS'!F17)/'1.IS'!F3</f>
         <v>-5.5368941342613609E-2</v>
       </c>
-      <c r="G52" s="215">
+      <c r="G52" s="213">
         <f>('1.IS'!G14+'1.IS'!G17)/'1.IS'!G3</f>
         <v>-7.9984899605974089E-2</v>
       </c>
-      <c r="H52" s="215">
+      <c r="H52" s="213">
         <f>('1.IS'!H14+'1.IS'!H17)/'1.IS'!H3</f>
         <v>-8.0168242752588506E-2</v>
       </c>
-      <c r="I52" s="208">
+      <c r="I52" s="206">
         <f>AVERAGE(B52:H52)</f>
         <v>-7.8702632640978307E-2</v>
       </c>
     </row>
     <row r="53" spans="1:9">
-      <c r="A53" s="206" t="s">
-        <v>390</v>
-      </c>
-      <c r="B53" s="215"/>
-      <c r="C53" s="215">
+      <c r="A53" s="204" t="s">
+        <v>376</v>
+      </c>
+      <c r="B53" s="213"/>
+      <c r="C53" s="213">
         <f>'2.FCF'!C11/'1.IS'!C3</f>
         <v>-5.4989153151148655E-2</v>
       </c>
-      <c r="D53" s="215">
+      <c r="D53" s="213">
         <f>'2.FCF'!D11/'1.IS'!D3</f>
         <v>1.5103310841520121E-2</v>
       </c>
-      <c r="E53" s="215">
+      <c r="E53" s="213">
         <f>'2.FCF'!E11/'1.IS'!E3</f>
         <v>-1.2219789634001237E-2</v>
       </c>
-      <c r="F53" s="215">
+      <c r="F53" s="213">
         <f>'2.FCF'!F11/'1.IS'!F3</f>
         <v>-4.2416906238967062E-3</v>
       </c>
-      <c r="G53" s="215">
+      <c r="G53" s="213">
         <f>'2.FCF'!G11/'1.IS'!G3</f>
         <v>-2.0437439539437982E-2</v>
       </c>
-      <c r="H53" s="215">
+      <c r="H53" s="213">
         <f>'2.FCF'!H11/'1.IS'!H3</f>
         <v>-5.0260686515286269E-3</v>
       </c>
-      <c r="I53" s="208">
+      <c r="I53" s="206">
         <f>AVERAGE(B53:H53)</f>
         <v>-1.3635138459748848E-2</v>
       </c>
